--- a/curation/draft/collection/collection_specialization_VS.xlsx
+++ b/curation/draft/collection/collection_specialization_VS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3969F4-106A-416A-8C08-427731EF1A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4B8249-B49C-4CAE-8B84-42D67694DB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1040,13 +1040,13 @@
     <t>BRACHIAL ARTERY;FEMORAL ARTERY;PERIPHERAL ARTERY;RADIAL ARTERY</t>
   </si>
   <si>
-    <t>Brachial Artery;Peripheral Artery;Radial Artery</t>
-  </si>
-  <si>
     <t>[NOT SUBMITTED]; VSSTAT = NOT DONE when VSTESTCD = VSALL</t>
   </si>
   <si>
     <t>PRONE;SEMI-RECUMBENT;SITTING;STANDING;SUPINE</t>
+  </si>
+  <si>
+    <t>Brachial Artery;Femoral Artery;Peripheral Artery;Radial Artery</t>
   </si>
 </sst>
 </file>
@@ -1467,10 +1467,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="Z64" sqref="Z64"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1634,7 @@
         <v>34</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>37</v>
@@ -1670,7 +1670,7 @@
         <v>40</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -2222,7 +2222,7 @@
         <v>117</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>327</v>
@@ -2297,7 +2297,7 @@
         <v>333</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AA12" t="s">
         <v>313</v>
@@ -2552,7 +2552,7 @@
         <v>117</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z16" s="3" t="s">
         <v>327</v>
@@ -2627,7 +2627,7 @@
         <v>333</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AA17" t="s">
         <v>313</v>
@@ -3527,7 +3527,7 @@
         <v>117</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z31" s="3" t="s">
         <v>327</v>
@@ -3602,7 +3602,7 @@
         <v>333</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AA32" t="s">
         <v>313</v>
@@ -3929,7 +3929,7 @@
         <v>117</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z37" s="3" t="s">
         <v>327</v>
@@ -4004,7 +4004,7 @@
         <v>333</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AA38" t="s">
         <v>313</v>
@@ -5138,7 +5138,7 @@
         <v>117</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z55" s="3" t="s">
         <v>327</v>
@@ -5543,7 +5543,7 @@
         <v>117</v>
       </c>
       <c r="Y61" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z61" s="3" t="s">
         <v>327</v>
@@ -6323,7 +6323,7 @@
         <v>117</v>
       </c>
       <c r="Y73" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z73" s="3" t="s">
         <v>327</v>
@@ -6398,7 +6398,7 @@
         <v>333</v>
       </c>
       <c r="Z74" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AA74" t="s">
         <v>313</v>
@@ -6653,7 +6653,7 @@
         <v>117</v>
       </c>
       <c r="Y78" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Z78" s="3" t="s">
         <v>327</v>
@@ -6728,7 +6728,7 @@
         <v>333</v>
       </c>
       <c r="Z79" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AA79" t="s">
         <v>313</v>

--- a/curation/draft/collection/collection_specialization_VS.xlsx
+++ b/curation/draft/collection/collection_specialization_VS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4B8249-B49C-4CAE-8B84-42D67694DB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825CB3AC-6B4B-4E06-9E61-880873FD66B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="339">
   <si>
     <t>package_date</t>
   </si>
@@ -296,9 +296,6 @@
     <t>VSORRESU; VSTESTCD; VSTEST</t>
   </si>
   <si>
-    <t>VSORRESU when VSTESTCD = DIABP</t>
-  </si>
-  <si>
     <t>DIABP_VERTICAL</t>
   </si>
   <si>
@@ -551,9 +548,6 @@
     <t>Pulse Rate Unit</t>
   </si>
   <si>
-    <t>VSORRESU when VSTESTCD = PULSE</t>
-  </si>
-  <si>
     <t>PULSE_VERTICAL</t>
   </si>
   <si>
@@ -590,9 +584,6 @@
     <t>C49674</t>
   </si>
   <si>
-    <t>VSORRESU when VSTESTCD = RESP</t>
-  </si>
-  <si>
     <t>RESP_VERTICAL</t>
   </si>
   <si>
@@ -626,9 +617,6 @@
     <t>Systolic Blood Pressure Unit</t>
   </si>
   <si>
-    <t>VSORRESU when VSTESTCD = SYSBP</t>
-  </si>
-  <si>
     <t>SYSBP_VERTICAL</t>
   </si>
   <si>
@@ -791,9 +779,6 @@
     <t>VSORRES when VSTESTCD = FRMSIZE</t>
   </si>
   <si>
-    <t>VSORRESU when VSTESTCD = HR</t>
-  </si>
-  <si>
     <t>VSLOC when VSTESTCD = HR</t>
   </si>
   <si>
@@ -809,9 +794,6 @@
     <t>VSLAT when VSTESTCD = OXYSAT</t>
   </si>
   <si>
-    <t>VSORRESU when VSTESTCD = OXYSAT</t>
-  </si>
-  <si>
     <t>VSPOS when VSTESTCD = PULSE</t>
   </si>
   <si>
@@ -836,15 +818,9 @@
     <t>VSORRES when VSTESTCD = HR</t>
   </si>
   <si>
-    <t>VSMETHOD when VSTESTCD = OXYSAT</t>
-  </si>
-  <si>
     <t>VSORRES when VSTESTCD = OXYSAT</t>
   </si>
   <si>
-    <t>VSLOC when VSTESTCD = WSTCIR</t>
-  </si>
-  <si>
     <t>VSORRES when VSTESTCD = WSTCIR</t>
   </si>
   <si>
@@ -1047,6 +1023,36 @@
   </si>
   <si>
     <t>Brachial Artery;Femoral Artery;Peripheral Artery;Radial Artery</t>
+  </si>
+  <si>
+    <t>C25613</t>
+  </si>
+  <si>
+    <t>VSORRESU = % when VSTESTCD = OXYSAT</t>
+  </si>
+  <si>
+    <t>VSMETHOD = PULSE OXIMETRY when VSTESTCD = OXYSAT</t>
+  </si>
+  <si>
+    <t>VSORRESU = beats/min when VSTESTCD = PULSE</t>
+  </si>
+  <si>
+    <t>VSORRESU = breaths/min when VSTESTCD = RESP</t>
+  </si>
+  <si>
+    <t>VSORRESU = mmHg when VSTESTCD = SYSBP</t>
+  </si>
+  <si>
+    <t>VSLOC = WAIST when VSTESTCD = WSTCIR</t>
+  </si>
+  <si>
+    <t>VSORRESU = mmHg when VSTESTCD = DIABP</t>
+  </si>
+  <si>
+    <t>VSORRESU = mmHG when VSTESTCD = DIABP</t>
+  </si>
+  <si>
+    <t>VSORRESU = beats/min when VSTESTCD = HR</t>
   </si>
 </sst>
 </file>
@@ -1467,10 +1473,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="AE47" sqref="AE47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,8 +1506,8 @@
     <col min="27" max="27" width="22.140625" customWidth="1"/>
     <col min="28" max="28" width="17.7109375" customWidth="1"/>
     <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="23" customWidth="1"/>
-    <col min="31" max="31" width="40.140625" customWidth="1"/>
+    <col min="30" max="30" width="34.42578125" customWidth="1"/>
+    <col min="31" max="31" width="63.5703125" customWidth="1"/>
     <col min="32" max="32" width="27.7109375" customWidth="1"/>
     <col min="33" max="33" width="22.28515625" customWidth="1"/>
   </cols>
@@ -1586,7 +1592,7 @@
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>26</v>
@@ -1613,7 +1619,7 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E2" t="s">
         <v>32</v>
@@ -1625,7 +1631,7 @@
         <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L2" t="s">
         <v>34</v>
@@ -1652,25 +1658,25 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="X2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AA2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD2" t="s">
         <v>40</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -1679,7 +1685,7 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -1691,7 +1697,7 @@
         <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L3" t="s">
         <v>41</v>
@@ -1703,7 +1709,7 @@
         <v>50</v>
       </c>
       <c r="O3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1734,7 +1740,7 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -1749,7 +1755,7 @@
         <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L4" t="s">
         <v>41</v>
@@ -1761,7 +1767,7 @@
         <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1792,7 +1798,7 @@
         <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -1807,7 +1813,7 @@
         <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L5" t="s">
         <v>51</v>
@@ -1841,7 +1847,7 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -1853,7 +1859,7 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -1868,7 +1874,7 @@
         <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L6" t="s">
         <v>56</v>
@@ -1877,7 +1883,7 @@
         <v>57</v>
       </c>
       <c r="N6" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P6" t="s">
         <v>59</v>
@@ -1907,13 +1913,13 @@
         <v>62</v>
       </c>
       <c r="AA6" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD6" t="s">
         <v>85</v>
       </c>
       <c r="AE6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="30" x14ac:dyDescent="0.25">
@@ -1925,7 +1931,7 @@
         <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -1940,7 +1946,7 @@
         <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L7" t="s">
         <v>41</v>
@@ -1983,7 +1989,7 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -1998,7 +2004,7 @@
         <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L8" t="s">
         <v>51</v>
@@ -2032,7 +2038,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
@@ -2044,7 +2050,7 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -2059,7 +2065,7 @@
         <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L9" t="s">
         <v>56</v>
@@ -2068,7 +2074,7 @@
         <v>57</v>
       </c>
       <c r="N9" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>65</v>
@@ -2098,13 +2104,13 @@
         <v>62</v>
       </c>
       <c r="AA9" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD9" s="4" t="s">
         <v>85</v>
       </c>
       <c r="AE9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -2116,7 +2122,7 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
@@ -2131,7 +2137,7 @@
         <v>49</v>
       </c>
       <c r="K10" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L10" t="s">
         <v>41</v>
@@ -2143,7 +2149,7 @@
         <v>50</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2174,7 +2180,7 @@
         <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E11" t="s">
         <v>32</v>
@@ -2189,19 +2195,19 @@
         <v>49</v>
       </c>
       <c r="K11" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L11" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" t="s">
         <v>113</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>114</v>
-      </c>
-      <c r="P11" t="s">
-        <v>115</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -2216,25 +2222,25 @@
         <v>50</v>
       </c>
       <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
         <v>116</v>
       </c>
-      <c r="X11" t="s">
-        <v>117</v>
-      </c>
       <c r="Y11" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AA11" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE11" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="45" x14ac:dyDescent="0.25">
@@ -2246,7 +2252,7 @@
         <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -2261,7 +2267,7 @@
         <v>49</v>
       </c>
       <c r="K12" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L12" t="s">
         <v>69</v>
@@ -2294,19 +2300,19 @@
         <v>74</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AA12" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD12" t="s">
         <v>70</v>
       </c>
       <c r="AE12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -2318,7 +2324,7 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
@@ -2333,7 +2339,7 @@
         <v>49</v>
       </c>
       <c r="K13" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L13" t="s">
         <v>67</v>
@@ -2376,7 +2382,7 @@
         <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
@@ -2391,7 +2397,7 @@
         <v>49</v>
       </c>
       <c r="K14" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L14" t="s">
         <v>79</v>
@@ -2400,7 +2406,7 @@
         <v>57</v>
       </c>
       <c r="N14" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="P14" t="s">
         <v>80</v>
@@ -2434,7 +2440,7 @@
         <v>85</v>
       </c>
       <c r="AE14" t="s">
-        <v>86</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="30" x14ac:dyDescent="0.25">
@@ -2446,7 +2452,7 @@
         <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
@@ -2455,13 +2461,13 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
       </c>
       <c r="K15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -2504,7 +2510,7 @@
         <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E16" t="s">
         <v>32</v>
@@ -2513,25 +2519,25 @@
         <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
         <v>35</v>
       </c>
       <c r="K16" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L16" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M16" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" t="s">
         <v>113</v>
       </c>
-      <c r="N16" t="s">
-        <v>114</v>
-      </c>
       <c r="O16" s="3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -2546,25 +2552,25 @@
         <v>50</v>
       </c>
       <c r="W16" t="s">
+        <v>115</v>
+      </c>
+      <c r="X16" t="s">
         <v>116</v>
       </c>
-      <c r="X16" t="s">
-        <v>117</v>
-      </c>
       <c r="Y16" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AA16" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE16" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="45" x14ac:dyDescent="0.25">
@@ -2576,7 +2582,7 @@
         <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E17" t="s">
         <v>32</v>
@@ -2585,13 +2591,13 @@
         <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
         <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L17" t="s">
         <v>69</v>
@@ -2624,19 +2630,19 @@
         <v>74</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AA17" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD17" t="s">
         <v>70</v>
       </c>
       <c r="AE17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="30" x14ac:dyDescent="0.25">
@@ -2648,7 +2654,7 @@
         <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
@@ -2657,16 +2663,16 @@
         <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
         <v>35</v>
       </c>
       <c r="K18" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M18" t="s">
         <v>52</v>
@@ -2675,7 +2681,7 @@
         <v>53</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -2709,7 +2715,7 @@
         <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E19" t="s">
         <v>32</v>
@@ -2718,25 +2724,25 @@
         <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M19" t="s">
         <v>57</v>
       </c>
       <c r="N19" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -2767,34 +2773,34 @@
         <v>85</v>
       </c>
       <c r="AE19" t="s">
-        <v>86</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
         <v>91</v>
-      </c>
-      <c r="D20" t="s">
-        <v>312</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" t="s">
-        <v>92</v>
       </c>
       <c r="I20" t="s">
         <v>49</v>
       </c>
       <c r="K20" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="L20" t="s">
         <v>41</v>
@@ -2806,7 +2812,7 @@
         <v>50</v>
       </c>
       <c r="P20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -2831,31 +2837,31 @@
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
         <v>90</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
         <v>91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>312</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" t="s">
-        <v>92</v>
       </c>
       <c r="I21" t="s">
         <v>49</v>
       </c>
       <c r="K21" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="L21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M21" t="s">
         <v>52</v>
@@ -2864,7 +2870,7 @@
         <v>53</v>
       </c>
       <c r="P21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -2882,19 +2888,19 @@
         <v>1</v>
       </c>
       <c r="W21" t="s">
+        <v>93</v>
+      </c>
+      <c r="X21" t="s">
         <v>94</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="AA21" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD21" s="4" t="s">
         <v>77</v>
@@ -2906,13 +2912,13 @@
     <row r="22" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
         <v>90</v>
       </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
       <c r="D22" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E22" t="s">
         <v>32</v>
@@ -2921,13 +2927,13 @@
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I22" t="s">
         <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="L22" t="s">
         <v>41</v>
@@ -2964,13 +2970,13 @@
     <row r="23" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
         <v>90</v>
       </c>
-      <c r="C23" t="s">
-        <v>91</v>
-      </c>
       <c r="D23" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E23" t="s">
         <v>32</v>
@@ -2979,16 +2985,16 @@
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I23" t="s">
         <v>35</v>
       </c>
       <c r="K23" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="L23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M23" t="s">
         <v>52</v>
@@ -2997,7 +3003,7 @@
         <v>53</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -3012,52 +3018,52 @@
         <v>20</v>
       </c>
       <c r="W23" t="s">
+        <v>93</v>
+      </c>
+      <c r="X23" t="s">
         <v>94</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Y23" s="3" t="s">
+      <c r="Z23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="AA23" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD23" s="4" t="s">
         <v>77</v>
       </c>
       <c r="AE23" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
         <v>100</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
         <v>101</v>
-      </c>
-      <c r="D24" t="s">
-        <v>312</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" t="s">
-        <v>102</v>
       </c>
       <c r="I24" t="s">
         <v>49</v>
       </c>
       <c r="K24" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L24" t="s">
         <v>41</v>
@@ -3069,7 +3075,7 @@
         <v>50</v>
       </c>
       <c r="P24" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -3091,31 +3097,31 @@
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
         <v>100</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>304</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
         <v>101</v>
-      </c>
-      <c r="D25" t="s">
-        <v>312</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" t="s">
-        <v>102</v>
       </c>
       <c r="I25" t="s">
         <v>49</v>
       </c>
       <c r="K25" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M25" t="s">
         <v>52</v>
@@ -3124,7 +3130,7 @@
         <v>53</v>
       </c>
       <c r="P25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -3146,46 +3152,46 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
         <v>100</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s">
         <v>101</v>
-      </c>
-      <c r="D26" t="s">
-        <v>312</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s">
-        <v>102</v>
       </c>
       <c r="I26" t="s">
         <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M26" t="s">
         <v>57</v>
       </c>
       <c r="N26" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -3206,31 +3212,31 @@
         <v>82</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA26" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD26" t="s">
         <v>85</v>
       </c>
       <c r="AE26" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
         <v>100</v>
       </c>
-      <c r="C27" t="s">
-        <v>101</v>
-      </c>
       <c r="D27" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E27" t="s">
         <v>32</v>
@@ -3239,13 +3245,13 @@
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I27" t="s">
         <v>35</v>
       </c>
       <c r="K27" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s">
         <v>41</v>
@@ -3282,13 +3288,13 @@
     <row r="28" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
         <v>100</v>
       </c>
-      <c r="C28" t="s">
-        <v>101</v>
-      </c>
       <c r="D28" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E28" t="s">
         <v>32</v>
@@ -3297,16 +3303,16 @@
         <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I28" t="s">
         <v>35</v>
       </c>
       <c r="K28" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M28" t="s">
         <v>52</v>
@@ -3315,7 +3321,7 @@
         <v>53</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -3337,19 +3343,19 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
         <v>100</v>
       </c>
-      <c r="C29" t="s">
-        <v>101</v>
-      </c>
       <c r="D29" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E29" t="s">
         <v>32</v>
@@ -3358,25 +3364,25 @@
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I29" t="s">
         <v>35</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M29" t="s">
         <v>57</v>
       </c>
       <c r="N29" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -3397,31 +3403,31 @@
         <v>82</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA29" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD29" t="s">
         <v>85</v>
       </c>
       <c r="AE29" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
         <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E30" t="s">
         <v>32</v>
@@ -3430,13 +3436,13 @@
         <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I30" t="s">
         <v>49</v>
       </c>
       <c r="K30" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s">
         <v>41</v>
@@ -3448,7 +3454,7 @@
         <v>50</v>
       </c>
       <c r="P30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -3473,13 +3479,13 @@
     <row r="31" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
         <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E31" t="s">
         <v>32</v>
@@ -3488,25 +3494,25 @@
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I31" t="s">
         <v>49</v>
       </c>
       <c r="K31" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s">
+        <v>111</v>
+      </c>
+      <c r="M31" t="s">
         <v>112</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>113</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
         <v>114</v>
-      </c>
-      <c r="P31" t="s">
-        <v>115</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -3521,37 +3527,37 @@
         <v>50</v>
       </c>
       <c r="W31" t="s">
+        <v>115</v>
+      </c>
+      <c r="X31" t="s">
         <v>116</v>
       </c>
-      <c r="X31" t="s">
-        <v>117</v>
-      </c>
       <c r="Y31" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AA31" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE31" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
         <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E32" t="s">
         <v>32</v>
@@ -3560,16 +3566,16 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I32" t="s">
         <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M32" t="s">
         <v>70</v>
@@ -3599,31 +3605,31 @@
         <v>74</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AA32" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD32" t="s">
         <v>70</v>
       </c>
       <c r="AE32" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
         <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E33" t="s">
         <v>32</v>
@@ -3632,25 +3638,25 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I33" t="s">
         <v>49</v>
       </c>
       <c r="K33" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s">
+        <v>118</v>
+      </c>
+      <c r="M33" t="s">
         <v>119</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>120</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
         <v>121</v>
-      </c>
-      <c r="P33" t="s">
-        <v>122</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -3665,37 +3671,37 @@
         <v>10</v>
       </c>
       <c r="W33" t="s">
+        <v>122</v>
+      </c>
+      <c r="X33" t="s">
         <v>123</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Y33" s="3" t="s">
+      <c r="Z33" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="AA33" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE33" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
         <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
@@ -3704,13 +3710,13 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I34" t="s">
         <v>49</v>
       </c>
       <c r="K34" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s">
         <v>55</v>
@@ -3722,7 +3728,7 @@
         <v>53</v>
       </c>
       <c r="P34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -3741,19 +3747,19 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
         <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E35" t="s">
         <v>32</v>
@@ -3762,25 +3768,25 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" t="s">
         <v>49</v>
       </c>
       <c r="K35" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M35" t="s">
         <v>57</v>
       </c>
       <c r="N35" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -3802,28 +3808,28 @@
       </c>
       <c r="Z35"/>
       <c r="AB35" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC35" t="s">
         <v>130</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>131</v>
       </c>
       <c r="AD35" t="s">
         <v>85</v>
       </c>
       <c r="AE35" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
         <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E36" t="s">
         <v>32</v>
@@ -3832,13 +3838,13 @@
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I36" t="s">
         <v>35</v>
       </c>
       <c r="K36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L36" t="s">
         <v>41</v>
@@ -3875,13 +3881,13 @@
     <row r="37" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
         <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E37" t="s">
         <v>32</v>
@@ -3890,25 +3896,25 @@
         <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I37" t="s">
         <v>35</v>
       </c>
       <c r="K37" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s">
+        <v>111</v>
+      </c>
+      <c r="M37" t="s">
         <v>112</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>113</v>
       </c>
-      <c r="N37" t="s">
-        <v>114</v>
-      </c>
       <c r="O37" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -3923,37 +3929,37 @@
         <v>50</v>
       </c>
       <c r="W37" t="s">
+        <v>115</v>
+      </c>
+      <c r="X37" t="s">
         <v>116</v>
       </c>
-      <c r="X37" t="s">
-        <v>117</v>
-      </c>
       <c r="Y37" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AA37" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE37" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
         <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E38" t="s">
         <v>32</v>
@@ -3962,16 +3968,16 @@
         <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I38" t="s">
         <v>35</v>
       </c>
       <c r="K38" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M38" t="s">
         <v>70</v>
@@ -3980,7 +3986,7 @@
         <v>71</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -4001,31 +4007,31 @@
         <v>74</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AA38" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD38" t="s">
         <v>70</v>
       </c>
       <c r="AE38" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
         <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E39" t="s">
         <v>32</v>
@@ -4034,25 +4040,25 @@
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I39" t="s">
         <v>35</v>
       </c>
       <c r="K39" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L39" t="s">
+        <v>118</v>
+      </c>
+      <c r="M39" t="s">
         <v>119</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>120</v>
       </c>
-      <c r="N39" t="s">
-        <v>121</v>
-      </c>
       <c r="O39" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -4067,37 +4073,37 @@
         <v>10</v>
       </c>
       <c r="W39" t="s">
+        <v>122</v>
+      </c>
+      <c r="X39" t="s">
         <v>123</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Y39" s="3" t="s">
+      <c r="Z39" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Z39" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="AA39" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE39" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E40" t="s">
         <v>32</v>
@@ -4106,16 +4112,16 @@
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I40" t="s">
         <v>35</v>
       </c>
       <c r="K40" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M40" t="s">
         <v>52</v>
@@ -4124,7 +4130,7 @@
         <v>53</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q40">
         <v>5</v>
@@ -4143,19 +4149,19 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
         <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E41" t="s">
         <v>32</v>
@@ -4164,25 +4170,25 @@
         <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I41" t="s">
         <v>35</v>
       </c>
       <c r="K41" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M41" t="s">
         <v>57</v>
       </c>
       <c r="N41" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -4204,43 +4210,43 @@
       </c>
       <c r="Z41"/>
       <c r="AB41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC41" t="s">
         <v>130</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>131</v>
       </c>
       <c r="AD41" t="s">
         <v>85</v>
       </c>
       <c r="AE41" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s">
         <v>140</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>304</v>
+      </c>
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" t="s">
         <v>141</v>
-      </c>
-      <c r="D42" t="s">
-        <v>312</v>
-      </c>
-      <c r="E42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" t="s">
-        <v>142</v>
       </c>
       <c r="I42" t="s">
         <v>49</v>
       </c>
       <c r="K42" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L42" t="s">
         <v>41</v>
@@ -4252,7 +4258,7 @@
         <v>50</v>
       </c>
       <c r="P42" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -4277,40 +4283,40 @@
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
         <v>140</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>304</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" t="s">
         <v>141</v>
-      </c>
-      <c r="D43" t="s">
-        <v>312</v>
-      </c>
-      <c r="E43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" t="s">
-        <v>142</v>
       </c>
       <c r="I43" t="s">
         <v>49</v>
       </c>
       <c r="K43" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L43" t="s">
+        <v>142</v>
+      </c>
+      <c r="M43" t="s">
         <v>143</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>144</v>
       </c>
-      <c r="N43" t="s">
+      <c r="P43" t="s">
         <v>145</v>
-      </c>
-      <c r="P43" t="s">
-        <v>146</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -4325,53 +4331,53 @@
         <v>50</v>
       </c>
       <c r="W43" t="s">
+        <v>146</v>
+      </c>
+      <c r="X43" t="s">
         <v>147</v>
-      </c>
-      <c r="X43" t="s">
-        <v>148</v>
       </c>
       <c r="Z43"/>
       <c r="AB43" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC43" t="s">
         <v>149</v>
       </c>
-      <c r="AC43" t="s">
-        <v>150</v>
-      </c>
       <c r="AD43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AE43" t="s">
-        <v>266</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" t="s">
         <v>140</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>304</v>
+      </c>
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" t="s">
         <v>141</v>
-      </c>
-      <c r="D44" t="s">
-        <v>312</v>
-      </c>
-      <c r="E44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" t="s">
-        <v>142</v>
       </c>
       <c r="I44" t="s">
         <v>49</v>
       </c>
       <c r="K44" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M44" t="s">
         <v>70</v>
@@ -4401,58 +4407,58 @@
         <v>74</v>
       </c>
       <c r="Y44" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z44" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="AA44" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD44" t="s">
         <v>70</v>
       </c>
       <c r="AE44" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
         <v>140</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>304</v>
+      </c>
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" t="s">
         <v>141</v>
-      </c>
-      <c r="D45" t="s">
-        <v>312</v>
-      </c>
-      <c r="E45" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" t="s">
-        <v>142</v>
       </c>
       <c r="I45" t="s">
         <v>49</v>
       </c>
       <c r="K45" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M45" t="s">
+        <v>119</v>
+      </c>
+      <c r="N45" t="s">
         <v>120</v>
       </c>
-      <c r="N45" t="s">
+      <c r="P45" t="s">
         <v>121</v>
-      </c>
-      <c r="P45" t="s">
-        <v>122</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -4467,55 +4473,55 @@
         <v>10</v>
       </c>
       <c r="W45" t="s">
+        <v>122</v>
+      </c>
+      <c r="X45" t="s">
         <v>123</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Y45" s="3" t="s">
+      <c r="Z45" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="AA45" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE45" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" t="s">
         <v>140</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>304</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" t="s">
         <v>141</v>
-      </c>
-      <c r="D46" t="s">
-        <v>312</v>
-      </c>
-      <c r="E46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" t="s">
-        <v>142</v>
       </c>
       <c r="I46" t="s">
         <v>49</v>
       </c>
       <c r="K46" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M46" t="s">
         <v>52</v>
@@ -4524,7 +4530,7 @@
         <v>53</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -4546,46 +4552,46 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
         <v>140</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>304</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" t="s">
         <v>141</v>
-      </c>
-      <c r="D47" t="s">
-        <v>312</v>
-      </c>
-      <c r="E47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" t="s">
-        <v>142</v>
       </c>
       <c r="I47" t="s">
         <v>49</v>
       </c>
       <c r="K47" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M47" t="s">
         <v>57</v>
       </c>
       <c r="N47" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -4605,32 +4611,29 @@
       <c r="X47" t="s">
         <v>82</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z47" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>313</v>
+      <c r="AB47" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>329</v>
       </c>
       <c r="AD47" s="4" t="s">
         <v>85</v>
       </c>
       <c r="AE47" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
         <v>140</v>
       </c>
-      <c r="C48" t="s">
-        <v>141</v>
-      </c>
       <c r="D48" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E48" t="s">
         <v>32</v>
@@ -4639,13 +4642,13 @@
         <v>33</v>
       </c>
       <c r="H48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I48" t="s">
         <v>35</v>
       </c>
       <c r="K48" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="L48" t="s">
         <v>41</v>
@@ -4657,7 +4660,7 @@
         <v>50</v>
       </c>
       <c r="P48" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -4682,13 +4685,13 @@
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" t="s">
         <v>140</v>
       </c>
-      <c r="C49" t="s">
-        <v>141</v>
-      </c>
       <c r="D49" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E49" t="s">
         <v>32</v>
@@ -4697,25 +4700,25 @@
         <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I49" t="s">
         <v>35</v>
       </c>
       <c r="K49" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="L49" t="s">
+        <v>142</v>
+      </c>
+      <c r="M49" t="s">
         <v>143</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>144</v>
       </c>
-      <c r="N49" t="s">
+      <c r="P49" t="s">
         <v>145</v>
-      </c>
-      <c r="P49" t="s">
-        <v>146</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -4730,35 +4733,35 @@
         <v>50</v>
       </c>
       <c r="W49" t="s">
+        <v>146</v>
+      </c>
+      <c r="X49" t="s">
         <v>147</v>
-      </c>
-      <c r="X49" t="s">
-        <v>148</v>
       </c>
       <c r="Z49"/>
       <c r="AB49" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC49" t="s">
         <v>149</v>
       </c>
-      <c r="AC49" t="s">
-        <v>150</v>
-      </c>
       <c r="AD49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AE49" t="s">
-        <v>266</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" t="s">
         <v>140</v>
       </c>
-      <c r="C50" t="s">
-        <v>141</v>
-      </c>
       <c r="D50" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E50" t="s">
         <v>32</v>
@@ -4767,16 +4770,16 @@
         <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I50" t="s">
         <v>35</v>
       </c>
       <c r="K50" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="L50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M50" t="s">
         <v>70</v>
@@ -4806,31 +4809,31 @@
         <v>74</v>
       </c>
       <c r="Y50" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z50" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="Z50" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="AA50" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD50" t="s">
         <v>70</v>
       </c>
       <c r="AE50" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" t="s">
         <v>140</v>
       </c>
-      <c r="C51" t="s">
-        <v>141</v>
-      </c>
       <c r="D51" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E51" t="s">
         <v>32</v>
@@ -4839,25 +4842,25 @@
         <v>33</v>
       </c>
       <c r="H51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I51" t="s">
         <v>35</v>
       </c>
       <c r="K51" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="L51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M51" t="s">
+        <v>119</v>
+      </c>
+      <c r="N51" t="s">
         <v>120</v>
       </c>
-      <c r="N51" t="s">
+      <c r="P51" t="s">
         <v>121</v>
-      </c>
-      <c r="P51" t="s">
-        <v>122</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -4872,37 +4875,37 @@
         <v>10</v>
       </c>
       <c r="W51" t="s">
+        <v>122</v>
+      </c>
+      <c r="X51" t="s">
         <v>123</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Y51" s="3" t="s">
+      <c r="Z51" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Z51" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="AA51" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE51" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" t="s">
         <v>140</v>
       </c>
-      <c r="C52" t="s">
-        <v>141</v>
-      </c>
       <c r="D52" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E52" t="s">
         <v>32</v>
@@ -4911,16 +4914,16 @@
         <v>33</v>
       </c>
       <c r="H52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I52" t="s">
         <v>35</v>
       </c>
       <c r="K52" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="L52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M52" t="s">
         <v>52</v>
@@ -4929,7 +4932,7 @@
         <v>53</v>
       </c>
       <c r="P52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -4948,19 +4951,19 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" t="s">
         <v>140</v>
       </c>
-      <c r="C53" t="s">
-        <v>141</v>
-      </c>
       <c r="D53" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E53" t="s">
         <v>32</v>
@@ -4969,25 +4972,25 @@
         <v>33</v>
       </c>
       <c r="H53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I53" t="s">
         <v>35</v>
       </c>
       <c r="K53" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M53" t="s">
         <v>57</v>
       </c>
       <c r="N53" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -5007,47 +5010,44 @@
       <c r="X53" t="s">
         <v>82</v>
       </c>
-      <c r="Y53" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z53" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>313</v>
+      <c r="AB53" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>329</v>
       </c>
       <c r="AD53" s="4" t="s">
         <v>85</v>
       </c>
       <c r="AE53" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
         <v>161</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>304</v>
+      </c>
+      <c r="E54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" t="s">
         <v>162</v>
-      </c>
-      <c r="D54" t="s">
-        <v>312</v>
-      </c>
-      <c r="E54" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
-      <c r="H54" t="s">
-        <v>163</v>
       </c>
       <c r="I54" t="s">
         <v>49</v>
       </c>
       <c r="K54" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L54" t="s">
         <v>41</v>
@@ -5059,7 +5059,7 @@
         <v>50</v>
       </c>
       <c r="P54" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -5084,40 +5084,40 @@
     <row r="55" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>304</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" t="s">
         <v>162</v>
-      </c>
-      <c r="D55" t="s">
-        <v>312</v>
-      </c>
-      <c r="E55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" t="s">
-        <v>33</v>
-      </c>
-      <c r="H55" t="s">
-        <v>163</v>
       </c>
       <c r="I55" t="s">
         <v>49</v>
       </c>
       <c r="K55" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M55" t="s">
+        <v>112</v>
+      </c>
+      <c r="N55" t="s">
         <v>113</v>
       </c>
-      <c r="N55" t="s">
+      <c r="P55" t="s">
         <v>114</v>
-      </c>
-      <c r="P55" t="s">
-        <v>115</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -5132,55 +5132,55 @@
         <v>50</v>
       </c>
       <c r="W55" t="s">
+        <v>115</v>
+      </c>
+      <c r="X55" t="s">
         <v>116</v>
       </c>
-      <c r="X55" t="s">
-        <v>117</v>
-      </c>
       <c r="Y55" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Z55" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AA55" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE55" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" t="s">
         <v>161</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>304</v>
+      </c>
+      <c r="E56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" t="s">
         <v>162</v>
-      </c>
-      <c r="D56" t="s">
-        <v>312</v>
-      </c>
-      <c r="E56" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" t="s">
-        <v>163</v>
       </c>
       <c r="I56" t="s">
         <v>49</v>
       </c>
       <c r="K56" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M56" t="s">
         <v>70</v>
@@ -5210,58 +5210,58 @@
         <v>74</v>
       </c>
       <c r="Y56" s="3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="Z56" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AA56" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD56" t="s">
         <v>70</v>
       </c>
       <c r="AE56" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" t="s">
         <v>161</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" t="s">
         <v>162</v>
-      </c>
-      <c r="D57" t="s">
-        <v>312</v>
-      </c>
-      <c r="E57" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" t="s">
-        <v>33</v>
-      </c>
-      <c r="H57" t="s">
-        <v>163</v>
       </c>
       <c r="I57" t="s">
         <v>49</v>
       </c>
       <c r="K57" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M57" t="s">
+        <v>119</v>
+      </c>
+      <c r="N57" t="s">
         <v>120</v>
       </c>
-      <c r="N57" t="s">
+      <c r="P57" t="s">
         <v>121</v>
-      </c>
-      <c r="P57" t="s">
-        <v>122</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -5276,55 +5276,55 @@
         <v>10</v>
       </c>
       <c r="W57" t="s">
+        <v>122</v>
+      </c>
+      <c r="X57" t="s">
         <v>123</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Y57" s="3" t="s">
+      <c r="Z57" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="AA57" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE57" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" t="s">
         <v>161</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>304</v>
+      </c>
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" t="s">
         <v>162</v>
-      </c>
-      <c r="D58" t="s">
-        <v>312</v>
-      </c>
-      <c r="E58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" t="s">
-        <v>33</v>
-      </c>
-      <c r="H58" t="s">
-        <v>163</v>
       </c>
       <c r="I58" t="s">
         <v>49</v>
       </c>
       <c r="K58" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M58" t="s">
         <v>52</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="P58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -5355,46 +5355,46 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" t="s">
         <v>161</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>304</v>
+      </c>
+      <c r="E59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" t="s">
         <v>162</v>
-      </c>
-      <c r="D59" t="s">
-        <v>312</v>
-      </c>
-      <c r="E59" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" t="s">
-        <v>163</v>
       </c>
       <c r="I59" t="s">
         <v>49</v>
       </c>
       <c r="K59" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M59" t="s">
         <v>57</v>
       </c>
       <c r="N59" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -5416,28 +5416,28 @@
       </c>
       <c r="Z59"/>
       <c r="AB59" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC59" t="s">
         <v>130</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>131</v>
       </c>
       <c r="AD59" t="s">
         <v>85</v>
       </c>
       <c r="AE59" t="s">
-        <v>171</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
         <v>161</v>
       </c>
-      <c r="C60" t="s">
-        <v>162</v>
-      </c>
       <c r="D60" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E60" t="s">
         <v>32</v>
@@ -5446,13 +5446,13 @@
         <v>33</v>
       </c>
       <c r="H60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I60" t="s">
         <v>35</v>
       </c>
       <c r="K60" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L60" t="s">
         <v>41</v>
@@ -5489,13 +5489,13 @@
     <row r="61" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
         <v>161</v>
       </c>
-      <c r="C61" t="s">
-        <v>162</v>
-      </c>
       <c r="D61" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E61" t="s">
         <v>32</v>
@@ -5504,25 +5504,25 @@
         <v>33</v>
       </c>
       <c r="H61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I61" t="s">
         <v>35</v>
       </c>
       <c r="K61" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M61" t="s">
+        <v>112</v>
+      </c>
+      <c r="N61" t="s">
         <v>113</v>
       </c>
-      <c r="N61" t="s">
-        <v>114</v>
-      </c>
       <c r="O61" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -5537,37 +5537,37 @@
         <v>50</v>
       </c>
       <c r="W61" t="s">
+        <v>115</v>
+      </c>
+      <c r="X61" t="s">
         <v>116</v>
       </c>
-      <c r="X61" t="s">
-        <v>117</v>
-      </c>
       <c r="Y61" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Z61" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AA61" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE61" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" t="s">
         <v>161</v>
       </c>
-      <c r="C62" t="s">
-        <v>162</v>
-      </c>
       <c r="D62" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E62" t="s">
         <v>32</v>
@@ -5576,16 +5576,16 @@
         <v>33</v>
       </c>
       <c r="H62" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I62" t="s">
         <v>35</v>
       </c>
       <c r="K62" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M62" t="s">
         <v>70</v>
@@ -5594,7 +5594,7 @@
         <v>71</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -5615,31 +5615,31 @@
         <v>74</v>
       </c>
       <c r="Y62" s="3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="Z62" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AA62" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD62" t="s">
         <v>70</v>
       </c>
       <c r="AE62" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" t="s">
         <v>161</v>
       </c>
-      <c r="C63" t="s">
-        <v>162</v>
-      </c>
       <c r="D63" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E63" t="s">
         <v>32</v>
@@ -5648,25 +5648,25 @@
         <v>33</v>
       </c>
       <c r="H63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I63" t="s">
         <v>35</v>
       </c>
       <c r="K63" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M63" t="s">
+        <v>119</v>
+      </c>
+      <c r="N63" t="s">
         <v>120</v>
       </c>
-      <c r="N63" t="s">
-        <v>121</v>
-      </c>
       <c r="O63" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -5681,37 +5681,37 @@
         <v>10</v>
       </c>
       <c r="W63" t="s">
+        <v>122</v>
+      </c>
+      <c r="X63" t="s">
         <v>123</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Y63" s="3" t="s">
+      <c r="Z63" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Z63" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="AA63" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE63" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" t="s">
         <v>161</v>
       </c>
-      <c r="C64" t="s">
-        <v>162</v>
-      </c>
       <c r="D64" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E64" t="s">
         <v>32</v>
@@ -5720,16 +5720,16 @@
         <v>33</v>
       </c>
       <c r="H64" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I64" t="s">
         <v>35</v>
       </c>
       <c r="K64" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L64" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M64" t="s">
         <v>52</v>
@@ -5738,7 +5738,7 @@
         <v>53</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -5760,19 +5760,19 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" t="s">
         <v>161</v>
       </c>
-      <c r="C65" t="s">
-        <v>162</v>
-      </c>
       <c r="D65" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E65" t="s">
         <v>32</v>
@@ -5781,25 +5781,25 @@
         <v>33</v>
       </c>
       <c r="H65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I65" t="s">
         <v>35</v>
       </c>
       <c r="K65" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M65" t="s">
         <v>57</v>
       </c>
       <c r="N65" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -5821,43 +5821,43 @@
       </c>
       <c r="Z65"/>
       <c r="AB65" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC65" t="s">
         <v>130</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>131</v>
       </c>
       <c r="AD65" t="s">
         <v>85</v>
       </c>
       <c r="AE65" t="s">
-        <v>171</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" t="s">
+        <v>304</v>
+      </c>
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" t="s">
         <v>175</v>
-      </c>
-      <c r="C66" t="s">
-        <v>176</v>
-      </c>
-      <c r="D66" t="s">
-        <v>312</v>
-      </c>
-      <c r="E66" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" t="s">
-        <v>177</v>
       </c>
       <c r="I66" t="s">
         <v>49</v>
       </c>
       <c r="K66" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="L66" t="s">
         <v>41</v>
@@ -5869,7 +5869,7 @@
         <v>50</v>
       </c>
       <c r="P66" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -5894,31 +5894,31 @@
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" t="s">
+        <v>304</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" t="s">
         <v>175</v>
-      </c>
-      <c r="C67" t="s">
-        <v>176</v>
-      </c>
-      <c r="D67" t="s">
-        <v>312</v>
-      </c>
-      <c r="E67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" t="s">
-        <v>33</v>
-      </c>
-      <c r="H67" t="s">
-        <v>177</v>
       </c>
       <c r="I67" t="s">
         <v>49</v>
       </c>
       <c r="K67" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="L67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M67" t="s">
         <v>52</v>
@@ -5927,7 +5927,7 @@
         <v>53</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -5946,46 +5946,46 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" t="s">
+        <v>304</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s">
         <v>175</v>
-      </c>
-      <c r="C68" t="s">
-        <v>176</v>
-      </c>
-      <c r="D68" t="s">
-        <v>312</v>
-      </c>
-      <c r="E68" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" t="s">
-        <v>33</v>
-      </c>
-      <c r="H68" t="s">
-        <v>177</v>
       </c>
       <c r="I68" t="s">
         <v>49</v>
       </c>
       <c r="K68" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="L68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M68" t="s">
         <v>57</v>
       </c>
       <c r="N68" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>3</v>
@@ -6007,28 +6007,28 @@
       </c>
       <c r="Z68"/>
       <c r="AB68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AC68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AD68" t="s">
         <v>85</v>
       </c>
       <c r="AE68" t="s">
-        <v>184</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D69" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E69" t="s">
         <v>32</v>
@@ -6037,13 +6037,13 @@
         <v>33</v>
       </c>
       <c r="H69" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I69" t="s">
         <v>35</v>
       </c>
       <c r="K69" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L69" t="s">
         <v>41</v>
@@ -6080,13 +6080,13 @@
     <row r="70" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D70" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E70" t="s">
         <v>32</v>
@@ -6095,16 +6095,16 @@
         <v>33</v>
       </c>
       <c r="H70" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I70" t="s">
         <v>35</v>
       </c>
       <c r="K70" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L70" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M70" t="s">
         <v>52</v>
@@ -6113,7 +6113,7 @@
         <v>53</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -6135,19 +6135,19 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D71" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E71" t="s">
         <v>32</v>
@@ -6156,25 +6156,25 @@
         <v>33</v>
       </c>
       <c r="H71" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I71" t="s">
         <v>35</v>
       </c>
       <c r="K71" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L71" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M71" t="s">
         <v>57</v>
       </c>
       <c r="N71" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -6196,28 +6196,28 @@
       </c>
       <c r="Z71"/>
       <c r="AB71" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AC71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AD71" t="s">
         <v>85</v>
       </c>
       <c r="AE71" t="s">
-        <v>184</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D72" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E72" t="s">
         <v>32</v>
@@ -6226,13 +6226,13 @@
         <v>33</v>
       </c>
       <c r="H72" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I72" t="s">
         <v>49</v>
       </c>
       <c r="K72" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L72" t="s">
         <v>41</v>
@@ -6244,7 +6244,7 @@
         <v>50</v>
       </c>
       <c r="P72" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -6269,13 +6269,13 @@
     <row r="73" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D73" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E73" t="s">
         <v>32</v>
@@ -6284,25 +6284,25 @@
         <v>33</v>
       </c>
       <c r="H73" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I73" t="s">
         <v>49</v>
       </c>
       <c r="K73" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L73" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="M73" t="s">
+        <v>112</v>
+      </c>
+      <c r="N73" t="s">
         <v>113</v>
       </c>
-      <c r="N73" t="s">
+      <c r="P73" t="s">
         <v>114</v>
-      </c>
-      <c r="P73" t="s">
-        <v>115</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -6317,37 +6317,37 @@
         <v>50</v>
       </c>
       <c r="W73" t="s">
+        <v>115</v>
+      </c>
+      <c r="X73" t="s">
         <v>116</v>
       </c>
-      <c r="X73" t="s">
-        <v>117</v>
-      </c>
       <c r="Y73" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Z73" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AA73" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE73" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D74" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E74" t="s">
         <v>32</v>
@@ -6356,16 +6356,16 @@
         <v>33</v>
       </c>
       <c r="H74" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I74" t="s">
         <v>49</v>
       </c>
       <c r="K74" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L74" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M74" t="s">
         <v>70</v>
@@ -6395,31 +6395,31 @@
         <v>74</v>
       </c>
       <c r="Y74" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Z74" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AA74" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD74" t="s">
         <v>70</v>
       </c>
       <c r="AE74" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E75" t="s">
         <v>32</v>
@@ -6428,16 +6428,16 @@
         <v>33</v>
       </c>
       <c r="H75" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I75" t="s">
         <v>49</v>
       </c>
       <c r="K75" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L75" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M75" t="s">
         <v>52</v>
@@ -6446,7 +6446,7 @@
         <v>53</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -6465,19 +6465,19 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D76" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E76" t="s">
         <v>32</v>
@@ -6486,25 +6486,25 @@
         <v>33</v>
       </c>
       <c r="H76" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I76" t="s">
         <v>49</v>
       </c>
       <c r="K76" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M76" t="s">
         <v>57</v>
       </c>
       <c r="N76" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -6535,19 +6535,19 @@
         <v>85</v>
       </c>
       <c r="AE76" t="s">
-        <v>196</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E77" t="s">
         <v>32</v>
@@ -6556,13 +6556,13 @@
         <v>33</v>
       </c>
       <c r="H77" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I77" t="s">
         <v>35</v>
       </c>
       <c r="K77" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L77" t="s">
         <v>41</v>
@@ -6599,13 +6599,13 @@
     <row r="78" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C78" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E78" t="s">
         <v>32</v>
@@ -6614,25 +6614,25 @@
         <v>33</v>
       </c>
       <c r="H78" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I78" t="s">
         <v>35</v>
       </c>
       <c r="K78" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L78" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="M78" t="s">
+        <v>112</v>
+      </c>
+      <c r="N78" t="s">
         <v>113</v>
       </c>
-      <c r="N78" t="s">
-        <v>114</v>
-      </c>
       <c r="O78" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -6647,37 +6647,37 @@
         <v>50</v>
       </c>
       <c r="W78" t="s">
+        <v>115</v>
+      </c>
+      <c r="X78" t="s">
         <v>116</v>
       </c>
-      <c r="X78" t="s">
-        <v>117</v>
-      </c>
       <c r="Y78" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Z78" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AA78" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE78" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D79" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E79" t="s">
         <v>32</v>
@@ -6686,16 +6686,16 @@
         <v>33</v>
       </c>
       <c r="H79" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I79" t="s">
         <v>35</v>
       </c>
       <c r="K79" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L79" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M79" t="s">
         <v>70</v>
@@ -6725,31 +6725,31 @@
         <v>74</v>
       </c>
       <c r="Y79" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Z79" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AA79" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD79" t="s">
         <v>70</v>
       </c>
       <c r="AE79" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E80" t="s">
         <v>32</v>
@@ -6758,16 +6758,16 @@
         <v>33</v>
       </c>
       <c r="H80" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I80" t="s">
         <v>35</v>
       </c>
       <c r="K80" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L80" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M80" t="s">
         <v>52</v>
@@ -6776,7 +6776,7 @@
         <v>53</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -6798,19 +6798,19 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D81" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E81" t="s">
         <v>32</v>
@@ -6819,25 +6819,25 @@
         <v>33</v>
       </c>
       <c r="H81" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I81" t="s">
         <v>35</v>
       </c>
       <c r="K81" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L81" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M81" t="s">
         <v>57</v>
       </c>
       <c r="N81" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -6868,19 +6868,19 @@
         <v>85</v>
       </c>
       <c r="AE81" t="s">
-        <v>196</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D82" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E82" t="s">
         <v>32</v>
@@ -6889,13 +6889,13 @@
         <v>33</v>
       </c>
       <c r="H82" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I82" t="s">
         <v>49</v>
       </c>
       <c r="K82" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L82" t="s">
         <v>41</v>
@@ -6907,7 +6907,7 @@
         <v>50</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -6932,13 +6932,13 @@
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D83" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E83" t="s">
         <v>32</v>
@@ -6947,16 +6947,16 @@
         <v>33</v>
       </c>
       <c r="H83" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I83" t="s">
         <v>49</v>
       </c>
       <c r="K83" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L83" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M83" t="s">
         <v>52</v>
@@ -6965,7 +6965,7 @@
         <v>53</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -6987,19 +6987,19 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D84" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E84" t="s">
         <v>32</v>
@@ -7008,16 +7008,16 @@
         <v>33</v>
       </c>
       <c r="H84" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I84" t="s">
         <v>49</v>
       </c>
       <c r="K84" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L84" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M84" t="s">
         <v>57</v>
@@ -7026,7 +7026,7 @@
         <v>58</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -7047,31 +7047,31 @@
         <v>82</v>
       </c>
       <c r="Y84" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Z84" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AA84" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD84" t="s">
         <v>85</v>
       </c>
       <c r="AE84" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D85" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E85" t="s">
         <v>32</v>
@@ -7080,16 +7080,16 @@
         <v>33</v>
       </c>
       <c r="H85" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I85" t="s">
         <v>49</v>
       </c>
       <c r="K85" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L85" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M85" t="s">
         <v>70</v>
@@ -7119,31 +7119,31 @@
         <v>74</v>
       </c>
       <c r="Y85" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Z85" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA85" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD85" t="s">
         <v>70</v>
       </c>
       <c r="AE85" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D86" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E86" t="s">
         <v>32</v>
@@ -7152,13 +7152,13 @@
         <v>33</v>
       </c>
       <c r="H86" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I86" t="s">
         <v>35</v>
       </c>
       <c r="K86" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L86" t="s">
         <v>41</v>
@@ -7195,13 +7195,13 @@
     <row r="87" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E87" t="s">
         <v>32</v>
@@ -7210,16 +7210,16 @@
         <v>33</v>
       </c>
       <c r="H87" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I87" t="s">
         <v>35</v>
       </c>
       <c r="K87" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L87" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M87" t="s">
         <v>52</v>
@@ -7228,7 +7228,7 @@
         <v>53</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -7250,19 +7250,19 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D88" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E88" t="s">
         <v>32</v>
@@ -7271,16 +7271,16 @@
         <v>33</v>
       </c>
       <c r="H88" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I88" t="s">
         <v>35</v>
       </c>
       <c r="K88" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L88" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M88" t="s">
         <v>57</v>
@@ -7289,7 +7289,7 @@
         <v>58</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>3</v>
@@ -7310,31 +7310,31 @@
         <v>82</v>
       </c>
       <c r="Y88" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Z88" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AA88" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD88" t="s">
         <v>85</v>
       </c>
       <c r="AE88" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C89" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D89" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E89" t="s">
         <v>32</v>
@@ -7343,16 +7343,16 @@
         <v>33</v>
       </c>
       <c r="H89" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I89" t="s">
         <v>35</v>
       </c>
       <c r="K89" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L89" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M89" t="s">
         <v>70</v>
@@ -7361,7 +7361,7 @@
         <v>71</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -7382,31 +7382,31 @@
         <v>74</v>
       </c>
       <c r="Y89" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Z89" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA89" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD89" t="s">
         <v>70</v>
       </c>
       <c r="AE89" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C90" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D90" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E90" t="s">
         <v>32</v>
@@ -7415,13 +7415,13 @@
         <v>33</v>
       </c>
       <c r="H90" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I90" t="s">
         <v>49</v>
       </c>
       <c r="K90" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L90" t="s">
         <v>41</v>
@@ -7433,7 +7433,7 @@
         <v>50</v>
       </c>
       <c r="P90" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -7458,13 +7458,13 @@
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C91" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D91" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E91" t="s">
         <v>32</v>
@@ -7473,16 +7473,16 @@
         <v>33</v>
       </c>
       <c r="H91" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I91" t="s">
         <v>49</v>
       </c>
       <c r="K91" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L91" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M91" t="s">
         <v>52</v>
@@ -7491,7 +7491,7 @@
         <v>53</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>2</v>
@@ -7513,19 +7513,19 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C92" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D92" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E92" t="s">
         <v>32</v>
@@ -7534,25 +7534,25 @@
         <v>33</v>
       </c>
       <c r="H92" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I92" t="s">
         <v>49</v>
       </c>
       <c r="K92" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L92" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M92" t="s">
         <v>57</v>
       </c>
       <c r="N92" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -7573,31 +7573,31 @@
         <v>82</v>
       </c>
       <c r="Y92" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Z92" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AA92" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD92" t="s">
         <v>85</v>
       </c>
       <c r="AE92" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C93" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D93" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E93" t="s">
         <v>32</v>
@@ -7606,13 +7606,13 @@
         <v>33</v>
       </c>
       <c r="H93" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I93" t="s">
         <v>35</v>
       </c>
       <c r="K93" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L93" t="s">
         <v>41</v>
@@ -7649,13 +7649,13 @@
     <row r="94" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C94" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D94" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E94" t="s">
         <v>32</v>
@@ -7664,16 +7664,16 @@
         <v>33</v>
       </c>
       <c r="H94" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I94" t="s">
         <v>35</v>
       </c>
       <c r="K94" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L94" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M94" t="s">
         <v>52</v>
@@ -7682,7 +7682,7 @@
         <v>53</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -7704,19 +7704,19 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C95" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D95" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E95" t="s">
         <v>32</v>
@@ -7725,25 +7725,25 @@
         <v>33</v>
       </c>
       <c r="H95" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I95" t="s">
         <v>35</v>
       </c>
       <c r="K95" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L95" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M95" t="s">
         <v>57</v>
       </c>
       <c r="N95" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="O95" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -7764,31 +7764,31 @@
         <v>82</v>
       </c>
       <c r="Y95" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Z95" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AA95" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD95" t="s">
         <v>85</v>
       </c>
       <c r="AE95" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C96" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D96" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E96" t="s">
         <v>32</v>
@@ -7797,13 +7797,13 @@
         <v>33</v>
       </c>
       <c r="H96" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I96" t="s">
         <v>49</v>
       </c>
       <c r="K96" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L96" t="s">
         <v>41</v>
@@ -7815,7 +7815,7 @@
         <v>50</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -7840,13 +7840,13 @@
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C97" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D97" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E97" t="s">
         <v>32</v>
@@ -7855,16 +7855,16 @@
         <v>33</v>
       </c>
       <c r="H97" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I97" t="s">
         <v>49</v>
       </c>
       <c r="K97" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L97" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M97" t="s">
         <v>70</v>
@@ -7895,28 +7895,28 @@
       </c>
       <c r="Z97"/>
       <c r="AB97" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AC97" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AD97" t="s">
         <v>70</v>
       </c>
       <c r="AE97" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C98" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D98" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E98" t="s">
         <v>32</v>
@@ -7925,16 +7925,16 @@
         <v>33</v>
       </c>
       <c r="H98" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I98" t="s">
         <v>49</v>
       </c>
       <c r="K98" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L98" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M98" t="s">
         <v>52</v>
@@ -7943,7 +7943,7 @@
         <v>53</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -7965,19 +7965,19 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C99" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D99" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E99" t="s">
         <v>32</v>
@@ -7986,25 +7986,25 @@
         <v>33</v>
       </c>
       <c r="H99" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I99" t="s">
         <v>49</v>
       </c>
       <c r="K99" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L99" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M99" t="s">
         <v>57</v>
       </c>
       <c r="N99" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -8025,31 +8025,31 @@
         <v>82</v>
       </c>
       <c r="Y99" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z99" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA99" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD99" t="s">
         <v>85</v>
       </c>
       <c r="AE99" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C100" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D100" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E100" t="s">
         <v>32</v>
@@ -8058,13 +8058,13 @@
         <v>33</v>
       </c>
       <c r="H100" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I100" t="s">
         <v>35</v>
       </c>
       <c r="K100" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L100" t="s">
         <v>41</v>
@@ -8076,7 +8076,7 @@
         <v>50</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -8101,13 +8101,13 @@
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C101" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D101" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E101" t="s">
         <v>32</v>
@@ -8116,16 +8116,16 @@
         <v>33</v>
       </c>
       <c r="H101" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I101" t="s">
         <v>35</v>
       </c>
       <c r="K101" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L101" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M101" t="s">
         <v>70</v>
@@ -8156,28 +8156,28 @@
       </c>
       <c r="Z101"/>
       <c r="AB101" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AC101" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AD101" t="s">
         <v>70</v>
       </c>
       <c r="AE101" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C102" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D102" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E102" t="s">
         <v>32</v>
@@ -8186,16 +8186,16 @@
         <v>33</v>
       </c>
       <c r="H102" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I102" t="s">
         <v>35</v>
       </c>
       <c r="K102" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L102" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M102" t="s">
         <v>52</v>
@@ -8204,7 +8204,7 @@
         <v>53</v>
       </c>
       <c r="P102" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -8226,19 +8226,19 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C103" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D103" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E103" t="s">
         <v>32</v>
@@ -8247,25 +8247,25 @@
         <v>33</v>
       </c>
       <c r="H103" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I103" t="s">
         <v>35</v>
       </c>
       <c r="K103" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L103" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M103" t="s">
         <v>57</v>
       </c>
       <c r="N103" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="P103" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -8286,19 +8286,19 @@
         <v>82</v>
       </c>
       <c r="Y103" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z103" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA103" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AD103" t="s">
         <v>85</v>
       </c>
       <c r="AE103" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="18" x14ac:dyDescent="0.25">

--- a/curation/draft/collection/collection_specialization_VS.xlsx
+++ b/curation/draft/collection/collection_specialization_VS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F809345E-EAC0-1842-812D-CFA9EE36E20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B80EB9-7414-F442-A8B8-5E2BE53C51B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="352">
   <si>
     <t>package_date</t>
   </si>
@@ -1086,9 +1086,6 @@
   </si>
   <si>
     <t>C67153</t>
-  </si>
-  <si>
-    <t>With Timepoint</t>
   </si>
   <si>
     <t>2-2</t>
@@ -1129,18 +1126,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1185,30 +1176,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1518,6800 +1508,6798 @@
   <dimension ref="A1:AG117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M124" sqref="M124"/>
+      <selection pane="bottomLeft" activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="27.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="48" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="1" customWidth="1"/>
-    <col min="15" max="15" width="37" style="2" customWidth="1"/>
-    <col min="16" max="16" width="37" style="1" customWidth="1"/>
-    <col min="17" max="17" width="22" style="1" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.1640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.83203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.83203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5" style="1" customWidth="1"/>
-    <col min="24" max="24" width="19.83203125" style="1" customWidth="1"/>
-    <col min="25" max="26" width="37" style="2" customWidth="1"/>
-    <col min="27" max="27" width="22.1640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="30" style="1" customWidth="1"/>
-    <col min="29" max="29" width="16.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="34.5" style="1" customWidth="1"/>
-    <col min="31" max="31" width="63.5" style="1" customWidth="1"/>
-    <col min="32" max="32" width="27.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="22.33203125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="48" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="37" style="1" customWidth="1"/>
+    <col min="16" max="16" width="37" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
+    <col min="18" max="18" width="26.33203125" customWidth="1"/>
+    <col min="19" max="19" width="18.1640625" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" customWidth="1"/>
+    <col min="22" max="22" width="16.83203125" customWidth="1"/>
+    <col min="23" max="23" width="14.5" customWidth="1"/>
+    <col min="24" max="24" width="19.83203125" customWidth="1"/>
+    <col min="25" max="26" width="37" style="1" customWidth="1"/>
+    <col min="27" max="27" width="22.1640625" customWidth="1"/>
+    <col min="28" max="28" width="30" customWidth="1"/>
+    <col min="29" max="29" width="16.6640625" customWidth="1"/>
+    <col min="30" max="30" width="34.5" customWidth="1"/>
+    <col min="31" max="31" width="63.5" customWidth="1"/>
+    <col min="32" max="32" width="27.6640625" customWidth="1"/>
+    <col min="33" max="33" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>257</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2">
         <v>1</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2">
         <v>1</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" t="s">
         <v>261</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" t="s">
         <v>258</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" t="s">
         <v>242</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>257</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" t="s">
         <v>202</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3">
         <v>10</v>
       </c>
-      <c r="Z3" s="1"/>
-      <c r="AD3" s="1" t="s">
+      <c r="Z3"/>
+      <c r="AD3" t="s">
         <v>44</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
         <v>277</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>276</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>278</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>202</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4">
         <v>10</v>
       </c>
-      <c r="Z4" s="1"/>
-      <c r="AD4" s="1" t="s">
+      <c r="Z4"/>
+      <c r="AD4" t="s">
         <v>44</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AE4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
         <v>277</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>276</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>278</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>2</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5">
         <v>2</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AD5" s="1" t="s">
+      <c r="Z5"/>
+      <c r="AD5" t="s">
         <v>72</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AE5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="D6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
         <v>277</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>276</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>278</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" t="s">
         <v>243</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6">
         <v>3</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" t="s">
         <v>38</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6">
         <v>3</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" t="s">
         <v>57</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" t="s">
         <v>58</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Y6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="Z6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AA6" t="s">
         <v>242</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AD6" t="s">
         <v>78</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AE6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
         <v>301</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>313</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>314</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7">
         <v>1</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" t="s">
         <v>43</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7">
         <v>10</v>
       </c>
-      <c r="Z7" s="1"/>
-      <c r="AD7" s="1" t="s">
+      <c r="Z7"/>
+      <c r="AD7" t="s">
         <v>44</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AE7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
         <v>301</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>313</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>314</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
         <v>330</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" t="s">
         <v>330</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" t="s">
         <v>349</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" t="s">
         <v>331</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8">
         <v>2</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" t="s">
         <v>38</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8">
         <v>40</v>
       </c>
-      <c r="Z8" s="1"/>
-      <c r="AB8" s="1" t="s">
+      <c r="Z8"/>
+      <c r="AB8" t="s">
         <v>333</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AC8" t="s">
         <v>45</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AD8" t="s">
         <v>332</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AE8" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="D9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
         <v>301</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>313</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>314</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9">
         <v>3</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9">
         <v>4</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9">
         <v>2</v>
       </c>
-      <c r="Z9" s="1"/>
-      <c r="AD9" s="1" t="s">
+      <c r="Z9"/>
+      <c r="AD9" t="s">
         <v>72</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AE9" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="D10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
         <v>301</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>313</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>314</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>243</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10">
         <v>4</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" t="s">
         <v>37</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10">
         <v>3</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" t="s">
         <v>57</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="X10" t="s">
         <v>58</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Y10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AA10" t="s">
         <v>242</v>
       </c>
-      <c r="AD10" s="7" t="s">
+      <c r="AD10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AE10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="D11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
         <v>279</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>276</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>289</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11">
         <v>1</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11">
         <v>10</v>
       </c>
-      <c r="Z11" s="1"/>
-      <c r="AD11" s="1" t="s">
+      <c r="Z11"/>
+      <c r="AD11" t="s">
         <v>44</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AE11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="D12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
         <v>279</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>276</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>289</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>251</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" t="s">
         <v>99</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12">
         <v>2</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" t="s">
         <v>38</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12">
         <v>50</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" t="s">
         <v>101</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" t="s">
         <v>102</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="Y12" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="Z12" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AA12" t="s">
         <v>242</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AD12" t="s">
         <v>98</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AE12" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
         <v>279</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>276</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>289</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>64</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" t="s">
         <v>65</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13">
         <v>3</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" t="s">
         <v>38</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13">
         <v>50</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" t="s">
         <v>68</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X13" t="s">
         <v>69</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="Y13" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="Z13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AA13" t="s">
         <v>242</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AD13" t="s">
         <v>65</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AE13" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="D14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
         <v>279</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>276</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>289</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" t="s">
         <v>49</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" t="s">
         <v>50</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14">
         <v>4</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" t="s">
         <v>37</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
         <v>71</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14">
         <v>3</v>
       </c>
-      <c r="Z14" s="1"/>
-      <c r="AD14" s="1" t="s">
+      <c r="Z14"/>
+      <c r="AD14" t="s">
         <v>72</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AE14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="D15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
         <v>279</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>276</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>289</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" t="s">
         <v>54</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" t="s">
         <v>244</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15">
         <v>5</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" t="s">
         <v>37</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" t="s">
         <v>38</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15">
         <v>10</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" t="s">
         <v>74</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X15" t="s">
         <v>75</v>
       </c>
-      <c r="Z15" s="1"/>
-      <c r="AB15" s="1" t="s">
+      <c r="Z15"/>
+      <c r="AB15" t="s">
         <v>76</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AC15" t="s">
         <v>77</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AD15" t="s">
         <v>78</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AE15" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="D16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
         <v>280</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>276</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>290</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" t="s">
         <v>47</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" t="s">
         <v>202</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16">
         <v>1</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" t="s">
         <v>42</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" t="s">
         <v>43</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16">
         <v>10</v>
       </c>
-      <c r="Z16" s="1"/>
-      <c r="AD16" s="1" t="s">
+      <c r="Z16"/>
+      <c r="AD16" t="s">
         <v>44</v>
       </c>
-      <c r="AE16" s="1" t="s">
+      <c r="AE16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="D17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
         <v>280</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>276</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>290</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>88</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" t="s">
         <v>49</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" t="s">
         <v>83</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17">
         <v>2</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" t="s">
         <v>37</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" t="s">
         <v>51</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17">
         <v>4</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17">
         <v>1</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" t="s">
         <v>84</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="X17" t="s">
         <v>85</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Y17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="Z17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AA17" t="s">
         <v>242</v>
       </c>
-      <c r="AD17" s="7" t="s">
+      <c r="AD17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AE17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="D18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
         <v>303</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>313</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>316</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" t="s">
         <v>40</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" t="s">
         <v>47</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18">
         <v>1</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" t="s">
         <v>42</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" t="s">
         <v>43</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18">
         <v>10</v>
       </c>
-      <c r="Z18" s="1"/>
-      <c r="AD18" s="1" t="s">
+      <c r="Z18"/>
+      <c r="AD18" t="s">
         <v>44</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AE18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="D19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
         <v>303</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>313</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>316</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" t="s">
         <v>330</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" t="s">
         <v>330</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" t="s">
         <v>349</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" t="s">
         <v>331</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19">
         <v>2</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" t="s">
         <v>42</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" t="s">
         <v>38</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19">
         <v>40</v>
       </c>
-      <c r="Z19" s="1"/>
-      <c r="AB19" s="1" t="s">
+      <c r="Z19"/>
+      <c r="AB19" t="s">
         <v>83</v>
       </c>
-      <c r="AC19" s="12" t="s">
+      <c r="AC19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AD19" t="s">
         <v>332</v>
       </c>
-      <c r="AE19" s="1" t="s">
+      <c r="AE19" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="D20" t="s">
+        <v>241</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
         <v>303</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>313</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
         <v>316</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" t="s">
         <v>49</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" t="s">
         <v>50</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20">
         <v>3</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" t="s">
         <v>38</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20">
         <v>20</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" t="s">
         <v>84</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="X20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" s="2" t="s">
+      <c r="Y20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z20" s="2" t="s">
+      <c r="Z20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AA20" t="s">
         <v>242</v>
       </c>
-      <c r="AD20" s="7" t="s">
+      <c r="AD20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE20" s="1" t="s">
+      <c r="AE20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="D21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
         <v>281</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>276</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" t="s">
         <v>291</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" t="s">
         <v>40</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" t="s">
         <v>47</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" t="s">
         <v>202</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21">
         <v>1</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="S21" t="s">
         <v>43</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21">
         <v>10</v>
       </c>
-      <c r="Z21" s="1"/>
-      <c r="AD21" s="1" t="s">
+      <c r="Z21"/>
+      <c r="AD21" t="s">
         <v>44</v>
       </c>
-      <c r="AE21" s="1" t="s">
+      <c r="AE21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="D22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" t="s">
         <v>281</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>276</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>291</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" t="s">
         <v>49</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" t="s">
         <v>91</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22">
         <v>2</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" t="s">
         <v>37</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S22" t="s">
         <v>51</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22">
         <v>4</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22">
         <v>2</v>
       </c>
-      <c r="Z22" s="1"/>
-      <c r="AD22" s="1" t="s">
+      <c r="Z22"/>
+      <c r="AD22" t="s">
         <v>72</v>
       </c>
-      <c r="AE22" s="1" t="s">
+      <c r="AE22" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="D23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
         <v>281</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>276</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" t="s">
         <v>291</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" t="s">
         <v>95</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" t="s">
         <v>54</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" t="s">
         <v>245</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" t="s">
         <v>92</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23">
         <v>3</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" t="s">
         <v>37</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" t="s">
         <v>38</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23">
         <v>2</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" t="s">
         <v>74</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="X23" t="s">
         <v>75</v>
       </c>
-      <c r="Y23" s="2" t="s">
+      <c r="Y23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z23" s="2" t="s">
+      <c r="Z23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AA23" t="s">
         <v>242</v>
       </c>
-      <c r="AD23" s="1" t="s">
+      <c r="AD23" t="s">
         <v>78</v>
       </c>
-      <c r="AE23" s="1" t="s">
+      <c r="AE23" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="D24" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
         <v>304</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>313</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" t="s">
         <v>317</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" t="s">
         <v>40</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" t="s">
         <v>47</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24">
         <v>1</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" t="s">
         <v>42</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" t="s">
         <v>43</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24">
         <v>10</v>
       </c>
-      <c r="Z24" s="1"/>
-      <c r="AD24" s="1" t="s">
+      <c r="Z24"/>
+      <c r="AD24" t="s">
         <v>44</v>
       </c>
-      <c r="AE24" s="1" t="s">
+      <c r="AE24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="D25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
         <v>304</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>313</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" t="s">
         <v>317</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" t="s">
         <v>330</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" t="s">
         <v>330</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" t="s">
         <v>349</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="P25" t="s">
         <v>331</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25">
         <v>2</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" t="s">
         <v>42</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" t="s">
         <v>38</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T25">
         <v>40</v>
       </c>
-      <c r="Z25" s="1"/>
-      <c r="AB25" s="1" t="s">
+      <c r="Z25"/>
+      <c r="AB25" t="s">
         <v>91</v>
       </c>
-      <c r="AC25" s="12" t="s">
+      <c r="AC25" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="AD25" s="1" t="s">
+      <c r="AD25" t="s">
         <v>332</v>
       </c>
-      <c r="AE25" s="1" t="s">
+      <c r="AE25" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="D26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s">
         <v>304</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>313</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" t="s">
         <v>317</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" t="s">
         <v>49</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" t="s">
         <v>49</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" t="s">
         <v>50</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26">
         <v>3</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" t="s">
         <v>37</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="S26" t="s">
         <v>51</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T26">
         <v>4</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26">
         <v>2</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AD26" s="1" t="s">
+      <c r="Z26"/>
+      <c r="AD26" t="s">
         <v>72</v>
       </c>
-      <c r="AE26" s="1" t="s">
+      <c r="AE26" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="D27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" t="s">
         <v>304</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>313</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" t="s">
         <v>317</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" t="s">
         <v>54</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" t="s">
         <v>54</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" t="s">
         <v>245</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27">
         <v>4</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="R27" t="s">
         <v>37</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" t="s">
         <v>38</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T27">
         <v>2</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="W27" t="s">
         <v>74</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="X27" t="s">
         <v>75</v>
       </c>
-      <c r="Y27" s="2" t="s">
+      <c r="Y27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z27" s="2" t="s">
+      <c r="Z27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA27" s="1" t="s">
+      <c r="AA27" t="s">
         <v>242</v>
       </c>
-      <c r="AD27" s="1" t="s">
+      <c r="AD27" t="s">
         <v>78</v>
       </c>
-      <c r="AE27" s="1" t="s">
+      <c r="AE27" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="D28" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" t="s">
         <v>299</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>276</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" t="s">
         <v>300</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" t="s">
         <v>40</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" t="s">
         <v>40</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" t="s">
         <v>47</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" t="s">
         <v>202</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28">
         <v>1</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="R28" t="s">
         <v>42</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="S28" t="s">
         <v>43</v>
       </c>
-      <c r="T28" s="1">
+      <c r="T28">
         <v>10</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AD28" s="1" t="s">
+      <c r="Z28"/>
+      <c r="AD28" t="s">
         <v>44</v>
       </c>
-      <c r="AE28" s="1" t="s">
+      <c r="AE28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="D29" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" t="s">
         <v>299</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>276</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" t="s">
         <v>300</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" t="s">
         <v>97</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" t="s">
         <v>98</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" t="s">
         <v>99</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" t="s">
         <v>100</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29">
         <v>2</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="R29" t="s">
         <v>42</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="S29" t="s">
         <v>38</v>
       </c>
-      <c r="T29" s="1">
+      <c r="T29">
         <v>50</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" t="s">
         <v>101</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="X29" t="s">
         <v>102</v>
       </c>
-      <c r="Y29" s="2" t="s">
+      <c r="Y29" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Z29" s="2" t="s">
+      <c r="Z29" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AA29" s="1" t="s">
+      <c r="AA29" t="s">
         <v>242</v>
       </c>
-      <c r="AD29" s="1" t="s">
+      <c r="AD29" t="s">
         <v>98</v>
       </c>
-      <c r="AE29" s="1" t="s">
+      <c r="AE29" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="1" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="D30" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" t="s">
         <v>299</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>276</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" t="s">
         <v>300</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" t="s">
         <v>103</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" t="s">
         <v>65</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" t="s">
         <v>66</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="P30" t="s">
         <v>67</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30">
         <v>3</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="R30" t="s">
         <v>42</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="S30" t="s">
         <v>38</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T30">
         <v>50</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="W30" t="s">
         <v>68</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="X30" t="s">
         <v>69</v>
       </c>
-      <c r="Y30" s="2" t="s">
+      <c r="Y30" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Z30" s="2" t="s">
+      <c r="Z30" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AA30" s="1" t="s">
+      <c r="AA30" t="s">
         <v>242</v>
       </c>
-      <c r="AD30" s="1" t="s">
+      <c r="AD30" t="s">
         <v>65</v>
       </c>
-      <c r="AE30" s="1" t="s">
+      <c r="AE30" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="1" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="D31" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" t="s">
         <v>299</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>276</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" t="s">
         <v>300</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" t="s">
         <v>104</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" t="s">
         <v>105</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" t="s">
         <v>106</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P31" t="s">
         <v>107</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31">
         <v>4</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="R31" t="s">
         <v>42</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="S31" t="s">
         <v>38</v>
       </c>
-      <c r="T31" s="1">
+      <c r="T31">
         <v>10</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="W31" t="s">
         <v>108</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="X31" t="s">
         <v>109</v>
       </c>
-      <c r="Y31" s="2" t="s">
+      <c r="Y31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z31" s="2" t="s">
+      <c r="Z31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AA31" t="s">
         <v>242</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AD31" t="s">
         <v>105</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="AE31" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="D32" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" t="s">
         <v>299</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>276</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" t="s">
         <v>300</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" t="s">
         <v>119</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" t="s">
         <v>49</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" t="s">
         <v>50</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="P32" t="s">
         <v>112</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32">
         <v>5</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="R32" t="s">
         <v>37</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="S32" t="s">
         <v>71</v>
       </c>
-      <c r="T32" s="1">
+      <c r="T32">
         <v>3</v>
       </c>
-      <c r="Z32" s="1"/>
-      <c r="AD32" s="1" t="s">
+      <c r="Z32"/>
+      <c r="AD32" t="s">
         <v>72</v>
       </c>
-      <c r="AE32" s="1" t="s">
+      <c r="AE32" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="D33" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
         <v>299</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>276</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" t="s">
         <v>300</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" t="s">
         <v>121</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" t="s">
         <v>54</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" t="s">
         <v>246</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P33" t="s">
         <v>113</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33">
         <v>6</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="R33" t="s">
         <v>37</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="S33" t="s">
         <v>38</v>
       </c>
-      <c r="T33" s="1">
+      <c r="T33">
         <v>10</v>
       </c>
-      <c r="W33" s="1" t="s">
+      <c r="W33" t="s">
         <v>74</v>
       </c>
-      <c r="X33" s="1" t="s">
+      <c r="X33" t="s">
         <v>75</v>
       </c>
-      <c r="Z33" s="1"/>
-      <c r="AB33" s="1" t="s">
+      <c r="Z33"/>
+      <c r="AB33" t="s">
         <v>114</v>
       </c>
-      <c r="AC33" s="1" t="s">
+      <c r="AC33" t="s">
         <v>115</v>
       </c>
-      <c r="AD33" s="1" t="s">
+      <c r="AD33" t="s">
         <v>78</v>
       </c>
-      <c r="AE33" s="1" t="s">
+      <c r="AE33" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="1" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="D34" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" t="s">
         <v>305</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>313</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" t="s">
         <v>318</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" t="s">
         <v>40</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="O34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34">
         <v>1</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="R34" t="s">
         <v>42</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="S34" t="s">
         <v>43</v>
       </c>
-      <c r="T34" s="1">
+      <c r="T34">
         <v>10</v>
       </c>
-      <c r="Z34" s="1"/>
-      <c r="AD34" s="1" t="s">
+      <c r="Z34"/>
+      <c r="AD34" t="s">
         <v>44</v>
       </c>
-      <c r="AE34" s="1" t="s">
+      <c r="AE34" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="D35" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s">
         <v>305</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>313</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" t="s">
         <v>318</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" t="s">
         <v>330</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" t="s">
         <v>330</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" t="s">
         <v>349</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="P35" t="s">
         <v>331</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35">
         <v>2</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="R35" t="s">
         <v>42</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="S35" t="s">
         <v>38</v>
       </c>
-      <c r="T35" s="1">
+      <c r="T35">
         <v>40</v>
       </c>
-      <c r="Z35" s="1"/>
-      <c r="AB35" s="1" t="s">
+      <c r="Z35"/>
+      <c r="AB35" t="s">
         <v>112</v>
       </c>
-      <c r="AC35" s="12" t="s">
+      <c r="AC35" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AD35" s="1" t="s">
+      <c r="AD35" t="s">
         <v>332</v>
       </c>
-      <c r="AE35" s="1" t="s">
+      <c r="AE35" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="D36" t="s">
+        <v>241</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" t="s">
         <v>305</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>313</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" t="s">
         <v>318</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" t="s">
         <v>98</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" t="s">
         <v>98</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" t="s">
         <v>99</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="O36" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36">
         <v>3</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="R36" t="s">
         <v>42</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="S36" t="s">
         <v>38</v>
       </c>
-      <c r="T36" s="1">
+      <c r="T36">
         <v>50</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="W36" t="s">
         <v>101</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="X36" t="s">
         <v>102</v>
       </c>
-      <c r="Y36" s="2" t="s">
+      <c r="Y36" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Z36" s="2" t="s">
+      <c r="Z36" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AA36" s="1" t="s">
+      <c r="AA36" t="s">
         <v>242</v>
       </c>
-      <c r="AD36" s="1" t="s">
+      <c r="AD36" t="s">
         <v>98</v>
       </c>
-      <c r="AE36" s="1" t="s">
+      <c r="AE36" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="D37" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s">
         <v>305</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>313</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" t="s">
         <v>318</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" t="s">
         <v>65</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" t="s">
         <v>65</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N37" t="s">
         <v>66</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="O37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37">
         <v>4</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="R37" t="s">
         <v>42</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="S37" t="s">
         <v>38</v>
       </c>
-      <c r="T37" s="1">
+      <c r="T37">
         <v>50</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="W37" t="s">
         <v>68</v>
       </c>
-      <c r="X37" s="1" t="s">
+      <c r="X37" t="s">
         <v>69</v>
       </c>
-      <c r="Y37" s="2" t="s">
+      <c r="Y37" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Z37" s="2" t="s">
+      <c r="Z37" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AA37" s="1" t="s">
+      <c r="AA37" t="s">
         <v>242</v>
       </c>
-      <c r="AD37" s="1" t="s">
+      <c r="AD37" t="s">
         <v>65</v>
       </c>
-      <c r="AE37" s="1" t="s">
+      <c r="AE37" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="1" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="D38" t="s">
+        <v>241</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
         <v>305</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>313</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" t="s">
         <v>318</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" t="s">
         <v>105</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" t="s">
         <v>105</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="N38" t="s">
         <v>106</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38">
         <v>5</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="R38" t="s">
         <v>42</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="S38" t="s">
         <v>38</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38">
         <v>10</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="W38" t="s">
         <v>108</v>
       </c>
-      <c r="X38" s="1" t="s">
+      <c r="X38" t="s">
         <v>109</v>
       </c>
-      <c r="Y38" s="2" t="s">
+      <c r="Y38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z38" s="2" t="s">
+      <c r="Z38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA38" s="1" t="s">
+      <c r="AA38" t="s">
         <v>242</v>
       </c>
-      <c r="AD38" s="1" t="s">
+      <c r="AD38" t="s">
         <v>105</v>
       </c>
-      <c r="AE38" s="1" t="s">
+      <c r="AE38" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="D39" t="s">
+        <v>241</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>313</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" t="s">
         <v>318</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" t="s">
         <v>49</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" t="s">
         <v>49</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" t="s">
         <v>50</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39">
         <v>6</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="R39" t="s">
         <v>37</v>
       </c>
-      <c r="S39" s="1" t="s">
+      <c r="S39" t="s">
         <v>71</v>
       </c>
-      <c r="T39" s="1">
+      <c r="T39">
         <v>3</v>
       </c>
-      <c r="Z39" s="1"/>
-      <c r="AD39" s="1" t="s">
+      <c r="Z39"/>
+      <c r="AD39" t="s">
         <v>72</v>
       </c>
-      <c r="AE39" s="1" t="s">
+      <c r="AE39" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="1" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="D40" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" t="s">
         <v>305</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>313</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" t="s">
         <v>318</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" t="s">
         <v>54</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" t="s">
         <v>54</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" t="s">
         <v>246</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="O40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40">
         <v>7</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="R40" t="s">
         <v>37</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="S40" t="s">
         <v>38</v>
       </c>
-      <c r="T40" s="1">
+      <c r="T40">
         <v>10</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="W40" t="s">
         <v>74</v>
       </c>
-      <c r="X40" s="1" t="s">
+      <c r="X40" t="s">
         <v>75</v>
       </c>
-      <c r="Z40" s="1"/>
-      <c r="AB40" s="1" t="s">
+      <c r="Z40"/>
+      <c r="AB40" t="s">
         <v>114</v>
       </c>
-      <c r="AC40" s="1" t="s">
+      <c r="AC40" t="s">
         <v>115</v>
       </c>
-      <c r="AD40" s="1" t="s">
+      <c r="AD40" t="s">
         <v>78</v>
       </c>
-      <c r="AE40" s="1" t="s">
+      <c r="AE40" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="1" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="D41" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" t="s">
         <v>282</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>276</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" t="s">
         <v>292</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" t="s">
         <v>40</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" t="s">
         <v>40</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" t="s">
         <v>47</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="P41" t="s">
         <v>202</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41">
         <v>1</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="R41" t="s">
         <v>42</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="S41" t="s">
         <v>43</v>
       </c>
-      <c r="T41" s="1">
+      <c r="T41">
         <v>10</v>
       </c>
-      <c r="Z41" s="1"/>
-      <c r="AD41" s="1" t="s">
+      <c r="Z41"/>
+      <c r="AD41" t="s">
         <v>44</v>
       </c>
-      <c r="AE41" s="1" t="s">
+      <c r="AE41" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="D42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" t="s">
         <v>282</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>276</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" t="s">
         <v>292</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" t="s">
         <v>125</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" t="s">
         <v>126</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N42" t="s">
         <v>127</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="P42" t="s">
         <v>128</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42">
         <v>2</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="R42" t="s">
         <v>42</v>
       </c>
-      <c r="S42" s="1" t="s">
+      <c r="S42" t="s">
         <v>38</v>
       </c>
-      <c r="T42" s="1">
+      <c r="T42">
         <v>50</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="W42" t="s">
         <v>129</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="X42" t="s">
         <v>130</v>
       </c>
-      <c r="Z42" s="1"/>
-      <c r="AB42" s="1" t="s">
+      <c r="Z42"/>
+      <c r="AB42" t="s">
         <v>131</v>
       </c>
-      <c r="AC42" s="1" t="s">
+      <c r="AC42" t="s">
         <v>132</v>
       </c>
-      <c r="AD42" s="1" t="s">
+      <c r="AD42" t="s">
         <v>126</v>
       </c>
-      <c r="AE42" s="1" t="s">
+      <c r="AE42" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="D43" t="s">
+        <v>241</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" t="s">
         <v>282</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>276</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" t="s">
         <v>292</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" t="s">
         <v>133</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" t="s">
         <v>65</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" t="s">
         <v>66</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="P43" t="s">
         <v>67</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q43">
         <v>3</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="R43" t="s">
         <v>42</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="S43" t="s">
         <v>38</v>
       </c>
-      <c r="T43" s="1">
+      <c r="T43">
         <v>50</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="W43" t="s">
         <v>68</v>
       </c>
-      <c r="X43" s="1" t="s">
+      <c r="X43" t="s">
         <v>69</v>
       </c>
-      <c r="Y43" s="2" t="s">
+      <c r="Y43" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Z43" s="2" t="s">
+      <c r="Z43" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AA43" s="1" t="s">
+      <c r="AA43" t="s">
         <v>242</v>
       </c>
-      <c r="AD43" s="1" t="s">
+      <c r="AD43" t="s">
         <v>65</v>
       </c>
-      <c r="AE43" s="1" t="s">
+      <c r="AE43" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>124</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="D44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" t="s">
         <v>282</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>276</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" t="s">
         <v>292</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" t="s">
         <v>136</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" t="s">
         <v>105</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N44" t="s">
         <v>106</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="P44" t="s">
         <v>107</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44">
         <v>4</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="R44" t="s">
         <v>42</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="S44" t="s">
         <v>38</v>
       </c>
-      <c r="T44" s="1">
+      <c r="T44">
         <v>10</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="W44" t="s">
         <v>108</v>
       </c>
-      <c r="X44" s="1" t="s">
+      <c r="X44" t="s">
         <v>109</v>
       </c>
-      <c r="Y44" s="2" t="s">
+      <c r="Y44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z44" s="2" t="s">
+      <c r="Z44" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA44" s="1" t="s">
+      <c r="AA44" t="s">
         <v>242</v>
       </c>
-      <c r="AD44" s="1" t="s">
+      <c r="AD44" t="s">
         <v>105</v>
       </c>
-      <c r="AE44" s="1" t="s">
+      <c r="AE44" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="1" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="D45" t="s">
+        <v>241</v>
+      </c>
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" t="s">
         <v>282</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>276</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" t="s">
         <v>292</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" t="s">
         <v>139</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" t="s">
         <v>49</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="N45" t="s">
         <v>50</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="P45" t="s">
         <v>137</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45">
         <v>5</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="R45" t="s">
         <v>37</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="S45" t="s">
         <v>51</v>
       </c>
-      <c r="T45" s="1">
+      <c r="T45">
         <v>4</v>
       </c>
-      <c r="U45" s="1">
+      <c r="U45">
         <v>1</v>
       </c>
-      <c r="Z45" s="1"/>
-      <c r="AD45" s="1" t="s">
+      <c r="Z45"/>
+      <c r="AD45" t="s">
         <v>72</v>
       </c>
-      <c r="AE45" s="1" t="s">
+      <c r="AE45" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="1" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="D46" t="s">
+        <v>241</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" t="s">
         <v>282</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>276</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" t="s">
         <v>292</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" t="s">
         <v>140</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" t="s">
         <v>54</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N46" t="s">
         <v>247</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="P46" t="s">
         <v>138</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46">
         <v>6</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="R46" t="s">
         <v>37</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="S46" t="s">
         <v>38</v>
       </c>
-      <c r="T46" s="1">
+      <c r="T46">
         <v>10</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="W46" t="s">
         <v>74</v>
       </c>
-      <c r="X46" s="1" t="s">
+      <c r="X46" t="s">
         <v>75</v>
       </c>
-      <c r="AB46" s="1" t="s">
+      <c r="AB46" t="s">
         <v>219</v>
       </c>
-      <c r="AC46" s="1" t="s">
+      <c r="AC46" t="s">
         <v>266</v>
       </c>
-      <c r="AD46" s="7" t="s">
+      <c r="AD46" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AE46" s="1" t="s">
+      <c r="AE46" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="D47" t="s">
+        <v>241</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" t="s">
         <v>306</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>313</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" t="s">
         <v>319</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" t="s">
         <v>40</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="N47" t="s">
         <v>47</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="P47" t="s">
         <v>202</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47">
         <v>1</v>
       </c>
-      <c r="R47" s="1" t="s">
+      <c r="R47" t="s">
         <v>42</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="S47" t="s">
         <v>43</v>
       </c>
-      <c r="T47" s="1">
+      <c r="T47">
         <v>10</v>
       </c>
-      <c r="Z47" s="1"/>
-      <c r="AD47" s="1" t="s">
+      <c r="Z47"/>
+      <c r="AD47" t="s">
         <v>44</v>
       </c>
-      <c r="AE47" s="1" t="s">
+      <c r="AE47" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="D48" t="s">
+        <v>241</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" t="s">
         <v>306</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>313</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="K48" t="s">
         <v>319</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" t="s">
         <v>330</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="M48" t="s">
         <v>330</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="N48" t="s">
         <v>349</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="P48" t="s">
         <v>331</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q48">
         <v>2</v>
       </c>
-      <c r="R48" s="1" t="s">
+      <c r="R48" t="s">
         <v>42</v>
       </c>
-      <c r="S48" s="1" t="s">
+      <c r="S48" t="s">
         <v>38</v>
       </c>
-      <c r="T48" s="1">
+      <c r="T48">
         <v>40</v>
       </c>
-      <c r="Z48" s="1"/>
-      <c r="AB48" s="1" t="s">
+      <c r="Z48"/>
+      <c r="AB48" t="s">
         <v>137</v>
       </c>
-      <c r="AC48" s="12" t="s">
+      <c r="AC48" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AD48" s="1" t="s">
+      <c r="AD48" t="s">
         <v>332</v>
       </c>
-      <c r="AE48" s="1" t="s">
+      <c r="AE48" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="1" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="D49" t="s">
+        <v>241</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" t="s">
         <v>306</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>313</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K49" t="s">
         <v>319</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" t="s">
         <v>126</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" t="s">
         <v>126</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="N49" t="s">
         <v>127</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="P49" t="s">
         <v>128</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q49">
         <v>3</v>
       </c>
-      <c r="R49" s="1" t="s">
+      <c r="R49" t="s">
         <v>42</v>
       </c>
-      <c r="S49" s="1" t="s">
+      <c r="S49" t="s">
         <v>38</v>
       </c>
-      <c r="T49" s="1">
+      <c r="T49">
         <v>50</v>
       </c>
-      <c r="W49" s="1" t="s">
+      <c r="W49" t="s">
         <v>129</v>
       </c>
-      <c r="X49" s="1" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
-      <c r="Z49" s="1"/>
-      <c r="AB49" s="1" t="s">
+      <c r="Z49"/>
+      <c r="AB49" t="s">
         <v>131</v>
       </c>
-      <c r="AC49" s="1" t="s">
+      <c r="AC49" t="s">
         <v>132</v>
       </c>
-      <c r="AD49" s="1" t="s">
+      <c r="AD49" t="s">
         <v>126</v>
       </c>
-      <c r="AE49" s="1" t="s">
+      <c r="AE49" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="D50" t="s">
+        <v>241</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" t="s">
         <v>306</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>313</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K50" t="s">
         <v>319</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" t="s">
         <v>65</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M50" t="s">
         <v>65</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="N50" t="s">
         <v>66</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="P50" t="s">
         <v>67</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50">
         <v>4</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="R50" t="s">
         <v>42</v>
       </c>
-      <c r="S50" s="1" t="s">
+      <c r="S50" t="s">
         <v>38</v>
       </c>
-      <c r="T50" s="1">
+      <c r="T50">
         <v>50</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="W50" t="s">
         <v>68</v>
       </c>
-      <c r="X50" s="1" t="s">
+      <c r="X50" t="s">
         <v>69</v>
       </c>
-      <c r="Y50" s="2" t="s">
+      <c r="Y50" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Z50" s="2" t="s">
+      <c r="Z50" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AA50" s="1" t="s">
+      <c r="AA50" t="s">
         <v>242</v>
       </c>
-      <c r="AD50" s="1" t="s">
+      <c r="AD50" t="s">
         <v>65</v>
       </c>
-      <c r="AE50" s="1" t="s">
+      <c r="AE50" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="4"/>
+      <c r="B51" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="D51" t="s">
+        <v>241</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" t="s">
         <v>306</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
         <v>313</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="K51" t="s">
         <v>319</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L51" t="s">
         <v>105</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" t="s">
         <v>105</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="N51" t="s">
         <v>106</v>
       </c>
-      <c r="P51" s="1" t="s">
+      <c r="P51" t="s">
         <v>107</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51">
         <v>5</v>
       </c>
-      <c r="R51" s="1" t="s">
+      <c r="R51" t="s">
         <v>42</v>
       </c>
-      <c r="S51" s="1" t="s">
+      <c r="S51" t="s">
         <v>38</v>
       </c>
-      <c r="T51" s="1">
+      <c r="T51">
         <v>10</v>
       </c>
-      <c r="W51" s="1" t="s">
+      <c r="W51" t="s">
         <v>108</v>
       </c>
-      <c r="X51" s="1" t="s">
+      <c r="X51" t="s">
         <v>109</v>
       </c>
-      <c r="Y51" s="2" t="s">
+      <c r="Y51" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z51" s="2" t="s">
+      <c r="Z51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA51" s="1" t="s">
+      <c r="AA51" t="s">
         <v>242</v>
       </c>
-      <c r="AD51" s="1" t="s">
+      <c r="AD51" t="s">
         <v>105</v>
       </c>
-      <c r="AE51" s="1" t="s">
+      <c r="AE51" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="1" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>124</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="D52" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" t="s">
         <v>306</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" t="s">
         <v>313</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="K52" t="s">
         <v>319</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" t="s">
         <v>49</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" t="s">
         <v>49</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="N52" t="s">
         <v>50</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="P52" t="s">
         <v>137</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52">
         <v>6</v>
       </c>
-      <c r="R52" s="1" t="s">
+      <c r="R52" t="s">
         <v>37</v>
       </c>
-      <c r="S52" s="1" t="s">
+      <c r="S52" t="s">
         <v>71</v>
       </c>
-      <c r="T52" s="1">
+      <c r="T52">
         <v>3</v>
       </c>
-      <c r="Z52" s="1"/>
-      <c r="AD52" s="1" t="s">
+      <c r="Z52"/>
+      <c r="AD52" t="s">
         <v>72</v>
       </c>
-      <c r="AE52" s="1" t="s">
+      <c r="AE52" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="1" t="s">
+      <c r="A53" s="4"/>
+      <c r="B53" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" s="1" t="s">
+      <c r="D53" t="s">
+        <v>241</v>
+      </c>
+      <c r="E53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" t="s">
         <v>306</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" t="s">
         <v>313</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="K53" t="s">
         <v>319</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="L53" t="s">
         <v>54</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M53" t="s">
         <v>54</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="N53" t="s">
         <v>247</v>
       </c>
-      <c r="P53" s="1" t="s">
+      <c r="P53" t="s">
         <v>138</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q53">
         <v>7</v>
       </c>
-      <c r="R53" s="1" t="s">
+      <c r="R53" t="s">
         <v>37</v>
       </c>
-      <c r="S53" s="1" t="s">
+      <c r="S53" t="s">
         <v>38</v>
       </c>
-      <c r="T53" s="1">
+      <c r="T53">
         <v>10</v>
       </c>
-      <c r="W53" s="1" t="s">
+      <c r="W53" t="s">
         <v>74</v>
       </c>
-      <c r="X53" s="1" t="s">
+      <c r="X53" t="s">
         <v>75</v>
       </c>
-      <c r="AB53" s="1" t="s">
+      <c r="AB53" t="s">
         <v>219</v>
       </c>
-      <c r="AC53" s="1" t="s">
+      <c r="AC53" t="s">
         <v>266</v>
       </c>
-      <c r="AD53" s="7" t="s">
+      <c r="AD53" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AE53" s="1" t="s">
+      <c r="AE53" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>142</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="D54" t="s">
+        <v>241</v>
+      </c>
+      <c r="E54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" t="s">
         <v>283</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" t="s">
         <v>276</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K54" t="s">
         <v>293</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" t="s">
         <v>40</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" t="s">
         <v>40</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" t="s">
         <v>47</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="P54" t="s">
         <v>202</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="Q54">
         <v>1</v>
       </c>
-      <c r="R54" s="1" t="s">
+      <c r="R54" t="s">
         <v>42</v>
       </c>
-      <c r="S54" s="1" t="s">
+      <c r="S54" t="s">
         <v>43</v>
       </c>
-      <c r="T54" s="1">
+      <c r="T54">
         <v>10</v>
       </c>
-      <c r="Z54" s="1"/>
-      <c r="AD54" s="1" t="s">
+      <c r="Z54"/>
+      <c r="AD54" t="s">
         <v>44</v>
       </c>
-      <c r="AE54" s="1" t="s">
+      <c r="AE54" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="1" t="s">
+      <c r="A55" s="4"/>
+      <c r="B55" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>142</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="D55" t="s">
+        <v>241</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" t="s">
         <v>283</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" t="s">
         <v>276</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K55" t="s">
         <v>293</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="L55" t="s">
         <v>143</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" t="s">
         <v>98</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="N55" t="s">
         <v>99</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="P55" t="s">
         <v>100</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="Q55">
         <v>2</v>
       </c>
-      <c r="R55" s="1" t="s">
+      <c r="R55" t="s">
         <v>42</v>
       </c>
-      <c r="S55" s="1" t="s">
+      <c r="S55" t="s">
         <v>38</v>
       </c>
-      <c r="T55" s="1">
+      <c r="T55">
         <v>50</v>
       </c>
-      <c r="W55" s="1" t="s">
+      <c r="W55" t="s">
         <v>101</v>
       </c>
-      <c r="X55" s="1" t="s">
+      <c r="X55" t="s">
         <v>102</v>
       </c>
-      <c r="Y55" s="2" t="s">
+      <c r="Y55" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Z55" s="2" t="s">
+      <c r="Z55" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AA55" s="1" t="s">
+      <c r="AA55" t="s">
         <v>242</v>
       </c>
-      <c r="AD55" s="1" t="s">
+      <c r="AD55" t="s">
         <v>98</v>
       </c>
-      <c r="AE55" s="1" t="s">
+      <c r="AE55" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="48" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="4"/>
+      <c r="B56" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" s="1" t="s">
+      <c r="D56" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" t="s">
         <v>283</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" t="s">
         <v>276</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="K56" t="s">
         <v>293</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="L56" t="s">
         <v>144</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" t="s">
         <v>65</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="N56" t="s">
         <v>66</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="P56" t="s">
         <v>67</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="Q56">
         <v>3</v>
       </c>
-      <c r="R56" s="1" t="s">
+      <c r="R56" t="s">
         <v>42</v>
       </c>
-      <c r="S56" s="1" t="s">
+      <c r="S56" t="s">
         <v>38</v>
       </c>
-      <c r="T56" s="1">
+      <c r="T56">
         <v>50</v>
       </c>
-      <c r="W56" s="1" t="s">
+      <c r="W56" t="s">
         <v>68</v>
       </c>
-      <c r="X56" s="1" t="s">
+      <c r="X56" t="s">
         <v>69</v>
       </c>
-      <c r="Y56" s="2" t="s">
+      <c r="Y56" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Z56" s="2" t="s">
+      <c r="Z56" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AA56" s="1" t="s">
+      <c r="AA56" t="s">
         <v>242</v>
       </c>
-      <c r="AD56" s="1" t="s">
+      <c r="AD56" t="s">
         <v>65</v>
       </c>
-      <c r="AE56" s="1" t="s">
+      <c r="AE56" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="4"/>
+      <c r="B57" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H57" s="1" t="s">
+      <c r="D57" t="s">
+        <v>241</v>
+      </c>
+      <c r="E57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" t="s">
         <v>283</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" t="s">
         <v>276</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="K57" t="s">
         <v>293</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="L57" t="s">
         <v>145</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" t="s">
         <v>105</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="N57" t="s">
         <v>106</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="P57" t="s">
         <v>107</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q57">
         <v>4</v>
       </c>
-      <c r="R57" s="1" t="s">
+      <c r="R57" t="s">
         <v>42</v>
       </c>
-      <c r="S57" s="1" t="s">
+      <c r="S57" t="s">
         <v>38</v>
       </c>
-      <c r="T57" s="1">
+      <c r="T57">
         <v>10</v>
       </c>
-      <c r="W57" s="1" t="s">
+      <c r="W57" t="s">
         <v>108</v>
       </c>
-      <c r="X57" s="1" t="s">
+      <c r="X57" t="s">
         <v>109</v>
       </c>
-      <c r="Y57" s="2" t="s">
+      <c r="Y57" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z57" s="2" t="s">
+      <c r="Z57" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA57" s="1" t="s">
+      <c r="AA57" t="s">
         <v>242</v>
       </c>
-      <c r="AD57" s="1" t="s">
+      <c r="AD57" t="s">
         <v>105</v>
       </c>
-      <c r="AE57" s="1" t="s">
+      <c r="AE57" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="4"/>
+      <c r="B58" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H58" s="1" t="s">
+      <c r="D58" t="s">
+        <v>241</v>
+      </c>
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" t="s">
         <v>283</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" t="s">
         <v>276</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="K58" t="s">
         <v>293</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L58" t="s">
         <v>149</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" t="s">
         <v>49</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="N58" t="s">
         <v>50</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="P58" t="s">
         <v>146</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q58">
         <v>5</v>
       </c>
-      <c r="R58" s="1" t="s">
+      <c r="R58" t="s">
         <v>37</v>
       </c>
-      <c r="S58" s="1" t="s">
+      <c r="S58" t="s">
         <v>51</v>
       </c>
-      <c r="T58" s="1">
+      <c r="T58">
         <v>4</v>
       </c>
-      <c r="U58" s="1">
+      <c r="U58">
         <v>1</v>
       </c>
-      <c r="Z58" s="1"/>
-      <c r="AD58" s="1" t="s">
+      <c r="Z58"/>
+      <c r="AD58" t="s">
         <v>72</v>
       </c>
-      <c r="AE58" s="1" t="s">
+      <c r="AE58" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="1" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>142</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" s="1" t="s">
+      <c r="D59" t="s">
+        <v>241</v>
+      </c>
+      <c r="E59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" t="s">
         <v>283</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" t="s">
         <v>276</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="K59" t="s">
         <v>293</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="L59" t="s">
         <v>150</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="M59" t="s">
         <v>54</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="N59" t="s">
         <v>246</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="P59" t="s">
         <v>148</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q59">
         <v>6</v>
       </c>
-      <c r="R59" s="1" t="s">
+      <c r="R59" t="s">
         <v>37</v>
       </c>
-      <c r="S59" s="1" t="s">
+      <c r="S59" t="s">
         <v>38</v>
       </c>
-      <c r="T59" s="1">
+      <c r="T59">
         <v>2</v>
       </c>
-      <c r="W59" s="1" t="s">
+      <c r="W59" t="s">
         <v>74</v>
       </c>
-      <c r="X59" s="1" t="s">
+      <c r="X59" t="s">
         <v>75</v>
       </c>
-      <c r="Z59" s="1"/>
-      <c r="AB59" s="1" t="s">
+      <c r="Z59"/>
+      <c r="AB59" t="s">
         <v>114</v>
       </c>
-      <c r="AC59" s="1" t="s">
+      <c r="AC59" t="s">
         <v>115</v>
       </c>
-      <c r="AD59" s="1" t="s">
+      <c r="AD59" t="s">
         <v>78</v>
       </c>
-      <c r="AE59" s="1" t="s">
+      <c r="AE59" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="1" t="s">
+      <c r="A60" s="4"/>
+      <c r="B60" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>142</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H60" s="1" t="s">
+      <c r="D60" t="s">
+        <v>241</v>
+      </c>
+      <c r="E60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" t="s">
         <v>307</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" t="s">
         <v>313</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="K60" t="s">
         <v>320</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="L60" t="s">
         <v>40</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" t="s">
         <v>40</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="N60" t="s">
         <v>47</v>
       </c>
-      <c r="O60" s="2" t="s">
+      <c r="O60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q60" s="1">
+      <c r="Q60">
         <v>1</v>
       </c>
-      <c r="R60" s="1" t="s">
+      <c r="R60" t="s">
         <v>42</v>
       </c>
-      <c r="S60" s="1" t="s">
+      <c r="S60" t="s">
         <v>43</v>
       </c>
-      <c r="T60" s="1">
+      <c r="T60">
         <v>10</v>
       </c>
-      <c r="Z60" s="1"/>
-      <c r="AD60" s="1" t="s">
+      <c r="Z60"/>
+      <c r="AD60" t="s">
         <v>44</v>
       </c>
-      <c r="AE60" s="1" t="s">
+      <c r="AE60" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="1" t="s">
+      <c r="A61" s="4"/>
+      <c r="B61" t="s">
         <v>160</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H61" s="1" t="s">
+      <c r="D61" t="s">
+        <v>241</v>
+      </c>
+      <c r="E61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" t="s">
         <v>307</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" t="s">
         <v>313</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K61" t="s">
         <v>320</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" t="s">
         <v>330</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" t="s">
         <v>330</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="N61" t="s">
         <v>349</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="P61" t="s">
         <v>331</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="Q61">
         <v>2</v>
       </c>
-      <c r="R61" s="1" t="s">
+      <c r="R61" t="s">
         <v>42</v>
       </c>
-      <c r="S61" s="1" t="s">
+      <c r="S61" t="s">
         <v>38</v>
       </c>
-      <c r="T61" s="1">
+      <c r="T61">
         <v>40</v>
       </c>
-      <c r="Z61" s="1"/>
-      <c r="AB61" s="1" t="s">
+      <c r="Z61"/>
+      <c r="AB61" t="s">
         <v>146</v>
       </c>
-      <c r="AC61" s="1" t="s">
+      <c r="AC61" t="s">
         <v>141</v>
       </c>
-      <c r="AD61" s="1" t="s">
+      <c r="AD61" t="s">
         <v>332</v>
       </c>
-      <c r="AE61" s="1" t="s">
+      <c r="AE61" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="1" t="s">
+      <c r="A62" s="4"/>
+      <c r="B62" t="s">
         <v>141</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>142</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H62" s="1" t="s">
+      <c r="D62" t="s">
+        <v>241</v>
+      </c>
+      <c r="E62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" t="s">
         <v>307</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" t="s">
         <v>313</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="K62" t="s">
         <v>320</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="L62" t="s">
         <v>98</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" t="s">
         <v>98</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="N62" t="s">
         <v>99</v>
       </c>
-      <c r="O62" s="2" t="s">
+      <c r="O62" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="Q62">
         <v>3</v>
       </c>
-      <c r="R62" s="1" t="s">
+      <c r="R62" t="s">
         <v>42</v>
       </c>
-      <c r="S62" s="1" t="s">
+      <c r="S62" t="s">
         <v>38</v>
       </c>
-      <c r="T62" s="1">
+      <c r="T62">
         <v>50</v>
       </c>
-      <c r="W62" s="1" t="s">
+      <c r="W62" t="s">
         <v>101</v>
       </c>
-      <c r="X62" s="1" t="s">
+      <c r="X62" t="s">
         <v>102</v>
       </c>
-      <c r="Y62" s="2" t="s">
+      <c r="Y62" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Z62" s="2" t="s">
+      <c r="Z62" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AA62" s="1" t="s">
+      <c r="AA62" t="s">
         <v>242</v>
       </c>
-      <c r="AD62" s="1" t="s">
+      <c r="AD62" t="s">
         <v>98</v>
       </c>
-      <c r="AE62" s="1" t="s">
+      <c r="AE62" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="48" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="1" t="s">
+      <c r="A63" s="4"/>
+      <c r="B63" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>142</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H63" s="1" t="s">
+      <c r="D63" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" t="s">
         <v>307</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" t="s">
         <v>313</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="K63" t="s">
         <v>320</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="L63" t="s">
         <v>65</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M63" t="s">
         <v>65</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="N63" t="s">
         <v>66</v>
       </c>
-      <c r="O63" s="2" t="s">
+      <c r="O63" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="Q63" s="1">
+      <c r="Q63">
         <v>4</v>
       </c>
-      <c r="R63" s="1" t="s">
+      <c r="R63" t="s">
         <v>42</v>
       </c>
-      <c r="S63" s="1" t="s">
+      <c r="S63" t="s">
         <v>38</v>
       </c>
-      <c r="T63" s="1">
+      <c r="T63">
         <v>50</v>
       </c>
-      <c r="W63" s="1" t="s">
+      <c r="W63" t="s">
         <v>68</v>
       </c>
-      <c r="X63" s="1" t="s">
+      <c r="X63" t="s">
         <v>69</v>
       </c>
-      <c r="Y63" s="2" t="s">
+      <c r="Y63" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Z63" s="2" t="s">
+      <c r="Z63" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AA63" s="1" t="s">
+      <c r="AA63" t="s">
         <v>242</v>
       </c>
-      <c r="AD63" s="1" t="s">
+      <c r="AD63" t="s">
         <v>65</v>
       </c>
-      <c r="AE63" s="1" t="s">
+      <c r="AE63" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="1" t="s">
+      <c r="A64" s="4"/>
+      <c r="B64" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>142</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" s="1" t="s">
+      <c r="D64" t="s">
+        <v>241</v>
+      </c>
+      <c r="E64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" t="s">
         <v>307</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" t="s">
         <v>313</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K64" t="s">
         <v>320</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L64" t="s">
         <v>105</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" t="s">
         <v>105</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="N64" t="s">
         <v>106</v>
       </c>
-      <c r="O64" s="2" t="s">
+      <c r="O64" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="Q64" s="1">
+      <c r="Q64">
         <v>5</v>
       </c>
-      <c r="R64" s="1" t="s">
+      <c r="R64" t="s">
         <v>42</v>
       </c>
-      <c r="S64" s="1" t="s">
+      <c r="S64" t="s">
         <v>38</v>
       </c>
-      <c r="T64" s="1">
+      <c r="T64">
         <v>10</v>
       </c>
-      <c r="W64" s="1" t="s">
+      <c r="W64" t="s">
         <v>108</v>
       </c>
-      <c r="X64" s="1" t="s">
+      <c r="X64" t="s">
         <v>109</v>
       </c>
-      <c r="Y64" s="2" t="s">
+      <c r="Y64" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z64" s="2" t="s">
+      <c r="Z64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA64" s="1" t="s">
+      <c r="AA64" t="s">
         <v>242</v>
       </c>
-      <c r="AD64" s="1" t="s">
+      <c r="AD64" t="s">
         <v>105</v>
       </c>
-      <c r="AE64" s="1" t="s">
+      <c r="AE64" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="1" t="s">
+      <c r="A65" s="4"/>
+      <c r="B65" t="s">
         <v>141</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>142</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H65" s="1" t="s">
+      <c r="D65" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" t="s">
         <v>313</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K65" t="s">
         <v>320</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="L65" t="s">
         <v>49</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M65" t="s">
         <v>49</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="N65" t="s">
         <v>50</v>
       </c>
-      <c r="O65" s="2" t="s">
+      <c r="O65" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="Q65">
         <v>6</v>
       </c>
-      <c r="R65" s="1" t="s">
+      <c r="R65" t="s">
         <v>37</v>
       </c>
-      <c r="S65" s="1" t="s">
+      <c r="S65" t="s">
         <v>51</v>
       </c>
-      <c r="T65" s="1">
+      <c r="T65">
         <v>4</v>
       </c>
-      <c r="U65" s="1">
+      <c r="U65">
         <v>1</v>
       </c>
-      <c r="Z65" s="1"/>
-      <c r="AD65" s="1" t="s">
+      <c r="Z65"/>
+      <c r="AD65" t="s">
         <v>72</v>
       </c>
-      <c r="AE65" s="1" t="s">
+      <c r="AE65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="1" t="s">
+      <c r="A66" s="4"/>
+      <c r="B66" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" s="1" t="s">
+      <c r="D66" t="s">
+        <v>241</v>
+      </c>
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" t="s">
         <v>307</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" t="s">
         <v>313</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K66" t="s">
         <v>320</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="L66" t="s">
         <v>54</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="M66" t="s">
         <v>54</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="N66" t="s">
         <v>246</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="O66" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="Q66">
         <v>7</v>
       </c>
-      <c r="R66" s="1" t="s">
+      <c r="R66" t="s">
         <v>37</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="S66" t="s">
         <v>38</v>
       </c>
-      <c r="T66" s="1">
+      <c r="T66">
         <v>2</v>
       </c>
-      <c r="W66" s="1" t="s">
+      <c r="W66" t="s">
         <v>74</v>
       </c>
-      <c r="X66" s="1" t="s">
+      <c r="X66" t="s">
         <v>75</v>
       </c>
-      <c r="Z66" s="1"/>
-      <c r="AB66" s="1" t="s">
+      <c r="Z66"/>
+      <c r="AB66" t="s">
         <v>114</v>
       </c>
-      <c r="AC66" s="1" t="s">
+      <c r="AC66" t="s">
         <v>115</v>
       </c>
-      <c r="AD66" s="1" t="s">
+      <c r="AD66" t="s">
         <v>78</v>
       </c>
-      <c r="AE66" s="1" t="s">
+      <c r="AE66" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="1" t="s">
+      <c r="A67" s="4"/>
+      <c r="B67" t="s">
         <v>151</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>152</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H67" s="1" t="s">
+      <c r="D67" t="s">
+        <v>241</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" t="s">
         <v>284</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" t="s">
         <v>276</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="K67" t="s">
         <v>294</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="L67" t="s">
         <v>40</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="M67" t="s">
         <v>40</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="N67" t="s">
         <v>47</v>
       </c>
-      <c r="P67" s="1" t="s">
+      <c r="P67" t="s">
         <v>202</v>
       </c>
-      <c r="Q67" s="1">
+      <c r="Q67">
         <v>1</v>
       </c>
-      <c r="R67" s="1" t="s">
+      <c r="R67" t="s">
         <v>42</v>
       </c>
-      <c r="S67" s="1" t="s">
+      <c r="S67" t="s">
         <v>43</v>
       </c>
-      <c r="T67" s="1">
+      <c r="T67">
         <v>10</v>
       </c>
-      <c r="Z67" s="1"/>
-      <c r="AD67" s="1" t="s">
+      <c r="Z67"/>
+      <c r="AD67" t="s">
         <v>44</v>
       </c>
-      <c r="AE67" s="1" t="s">
+      <c r="AE67" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="1" t="s">
+      <c r="A68" s="4"/>
+      <c r="B68" t="s">
         <v>151</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>152</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H68" s="1" t="s">
+      <c r="D68" t="s">
+        <v>241</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s">
         <v>284</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I68" t="s">
         <v>276</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="K68" t="s">
         <v>294</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="L68" t="s">
         <v>158</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="M68" t="s">
         <v>49</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="N68" t="s">
         <v>50</v>
       </c>
-      <c r="P68" s="1" t="s">
+      <c r="P68" t="s">
         <v>153</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="Q68">
         <v>2</v>
       </c>
-      <c r="R68" s="1" t="s">
+      <c r="R68" t="s">
         <v>37</v>
       </c>
-      <c r="S68" s="1" t="s">
+      <c r="S68" t="s">
         <v>71</v>
       </c>
-      <c r="T68" s="1">
+      <c r="T68">
         <v>2</v>
       </c>
-      <c r="Z68" s="1"/>
-      <c r="AD68" s="1" t="s">
+      <c r="Z68"/>
+      <c r="AD68" t="s">
         <v>72</v>
       </c>
-      <c r="AE68" s="1" t="s">
+      <c r="AE68" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="1" t="s">
+      <c r="A69" s="4"/>
+      <c r="B69" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>152</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H69" s="1" t="s">
+      <c r="D69" t="s">
+        <v>241</v>
+      </c>
+      <c r="E69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" t="s">
         <v>284</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" t="s">
         <v>276</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="K69" t="s">
         <v>294</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="L69" t="s">
         <v>159</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="M69" t="s">
         <v>54</v>
       </c>
-      <c r="N69" s="1" t="s">
+      <c r="N69" t="s">
         <v>246</v>
       </c>
-      <c r="P69" s="1" t="s">
+      <c r="P69" t="s">
         <v>155</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="Q69">
         <v>3</v>
       </c>
-      <c r="R69" s="1" t="s">
+      <c r="R69" t="s">
         <v>37</v>
       </c>
-      <c r="S69" s="1" t="s">
+      <c r="S69" t="s">
         <v>38</v>
       </c>
-      <c r="T69" s="1">
+      <c r="T69">
         <v>10</v>
       </c>
-      <c r="W69" s="1" t="s">
+      <c r="W69" t="s">
         <v>74</v>
       </c>
-      <c r="X69" s="1" t="s">
+      <c r="X69" t="s">
         <v>75</v>
       </c>
-      <c r="Z69" s="1"/>
-      <c r="AB69" s="1" t="s">
+      <c r="Z69"/>
+      <c r="AB69" t="s">
         <v>156</v>
       </c>
-      <c r="AC69" s="1" t="s">
+      <c r="AC69" t="s">
         <v>157</v>
       </c>
-      <c r="AD69" s="1" t="s">
+      <c r="AD69" t="s">
         <v>78</v>
       </c>
-      <c r="AE69" s="1" t="s">
+      <c r="AE69" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="1" t="s">
+      <c r="A70" s="4"/>
+      <c r="B70" t="s">
         <v>151</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>152</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" s="1" t="s">
+      <c r="D70" t="s">
+        <v>241</v>
+      </c>
+      <c r="E70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" t="s">
         <v>308</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" t="s">
         <v>313</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K70" t="s">
         <v>321</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="L70" t="s">
         <v>40</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="M70" t="s">
         <v>40</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="N70" t="s">
         <v>47</v>
       </c>
-      <c r="O70" s="2" t="s">
+      <c r="O70" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q70" s="1">
+      <c r="Q70">
         <v>1</v>
       </c>
-      <c r="R70" s="1" t="s">
+      <c r="R70" t="s">
         <v>42</v>
       </c>
-      <c r="S70" s="1" t="s">
+      <c r="S70" t="s">
         <v>43</v>
       </c>
-      <c r="T70" s="1">
+      <c r="T70">
         <v>10</v>
       </c>
-      <c r="Z70" s="1"/>
-      <c r="AD70" s="1" t="s">
+      <c r="Z70"/>
+      <c r="AD70" t="s">
         <v>44</v>
       </c>
-      <c r="AE70" s="1" t="s">
+      <c r="AE70" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="1" t="s">
+      <c r="A71" s="4"/>
+      <c r="B71" t="s">
         <v>151</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>152</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H71" s="1" t="s">
+      <c r="D71" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" t="s">
         <v>308</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" t="s">
         <v>313</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K71" t="s">
         <v>321</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="L71" t="s">
         <v>330</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="M71" t="s">
         <v>330</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="N71" t="s">
         <v>349</v>
       </c>
-      <c r="P71" s="1" t="s">
+      <c r="P71" t="s">
         <v>331</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="Q71">
         <v>2</v>
       </c>
-      <c r="R71" s="1" t="s">
+      <c r="R71" t="s">
         <v>42</v>
       </c>
-      <c r="S71" s="1" t="s">
+      <c r="S71" t="s">
         <v>38</v>
       </c>
-      <c r="T71" s="1">
+      <c r="T71">
         <v>40</v>
       </c>
-      <c r="Z71" s="1"/>
-      <c r="AB71" s="1" t="s">
+      <c r="Z71"/>
+      <c r="AB71" t="s">
         <v>153</v>
       </c>
-      <c r="AC71" s="12" t="s">
+      <c r="AC71" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AD71" s="1" t="s">
+      <c r="AD71" t="s">
         <v>332</v>
       </c>
-      <c r="AE71" s="1" t="s">
+      <c r="AE71" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="1" t="s">
+      <c r="A72" s="4"/>
+      <c r="B72" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>152</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H72" s="1" t="s">
+      <c r="D72" t="s">
+        <v>241</v>
+      </c>
+      <c r="E72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" t="s">
         <v>308</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" t="s">
         <v>313</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K72" t="s">
         <v>321</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L72" t="s">
         <v>49</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="M72" t="s">
         <v>49</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="N72" t="s">
         <v>50</v>
       </c>
-      <c r="O72" s="2" t="s">
+      <c r="O72" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="Q72" s="1">
+      <c r="Q72">
         <v>3</v>
       </c>
-      <c r="R72" s="1" t="s">
+      <c r="R72" t="s">
         <v>37</v>
       </c>
-      <c r="S72" s="1" t="s">
+      <c r="S72" t="s">
         <v>51</v>
       </c>
-      <c r="T72" s="1">
+      <c r="T72">
         <v>4</v>
       </c>
-      <c r="U72" s="1">
+      <c r="U72">
         <v>1</v>
       </c>
-      <c r="Z72" s="1"/>
-      <c r="AD72" s="1" t="s">
+      <c r="Z72"/>
+      <c r="AD72" t="s">
         <v>72</v>
       </c>
-      <c r="AE72" s="1" t="s">
+      <c r="AE72" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:31" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="1" t="s">
+      <c r="A73" s="4"/>
+      <c r="B73" t="s">
         <v>151</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>152</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H73" s="1" t="s">
+      <c r="D73" t="s">
+        <v>241</v>
+      </c>
+      <c r="E73" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" t="s">
         <v>308</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I73" t="s">
         <v>313</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K73" t="s">
         <v>321</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="L73" t="s">
         <v>54</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="M73" t="s">
         <v>54</v>
       </c>
-      <c r="N73" s="1" t="s">
+      <c r="N73" t="s">
         <v>246</v>
       </c>
-      <c r="O73" s="2" t="s">
+      <c r="O73" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="Q73">
         <v>4</v>
       </c>
-      <c r="R73" s="1" t="s">
+      <c r="R73" t="s">
         <v>37</v>
       </c>
-      <c r="S73" s="1" t="s">
+      <c r="S73" t="s">
         <v>38</v>
       </c>
-      <c r="T73" s="1">
+      <c r="T73">
         <v>2</v>
       </c>
-      <c r="W73" s="1" t="s">
+      <c r="W73" t="s">
         <v>74</v>
       </c>
-      <c r="X73" s="1" t="s">
+      <c r="X73" t="s">
         <v>75</v>
       </c>
-      <c r="Z73" s="1"/>
-      <c r="AB73" s="1" t="s">
+      <c r="Z73"/>
+      <c r="AB73" t="s">
         <v>156</v>
       </c>
-      <c r="AC73" s="1" t="s">
+      <c r="AC73" t="s">
         <v>157</v>
       </c>
-      <c r="AD73" s="1" t="s">
+      <c r="AD73" t="s">
         <v>78</v>
       </c>
-      <c r="AE73" s="1" t="s">
+      <c r="AE73" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="1" t="s">
+      <c r="A74" s="4"/>
+      <c r="B74" t="s">
         <v>160</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>161</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H74" s="1" t="s">
+      <c r="D74" t="s">
+        <v>241</v>
+      </c>
+      <c r="E74" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" t="s">
         <v>285</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" t="s">
         <v>276</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="K74" t="s">
         <v>295</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="L74" t="s">
         <v>40</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="M74" t="s">
         <v>40</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="N74" t="s">
         <v>47</v>
       </c>
-      <c r="O74" s="2" t="s">
+      <c r="O74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q74" s="1">
+      <c r="Q74">
         <v>1</v>
       </c>
-      <c r="R74" s="1" t="s">
+      <c r="R74" t="s">
         <v>42</v>
       </c>
-      <c r="S74" s="1" t="s">
+      <c r="S74" t="s">
         <v>43</v>
       </c>
-      <c r="T74" s="1">
+      <c r="T74">
         <v>10</v>
       </c>
-      <c r="Z74" s="1"/>
-      <c r="AD74" s="1" t="s">
+      <c r="Z74"/>
+      <c r="AD74" t="s">
         <v>44</v>
       </c>
-      <c r="AE74" s="1" t="s">
+      <c r="AE74" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="1" t="s">
+      <c r="A75" s="4"/>
+      <c r="B75" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H75" s="1" t="s">
+      <c r="D75" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" t="s">
         <v>285</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I75" t="s">
         <v>276</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="K75" t="s">
         <v>295</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="L75" t="s">
         <v>250</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="M75" t="s">
         <v>98</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="N75" t="s">
         <v>99</v>
       </c>
-      <c r="O75" s="2" t="s">
+      <c r="O75" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="Q75">
         <v>2</v>
       </c>
-      <c r="R75" s="1" t="s">
+      <c r="R75" t="s">
         <v>42</v>
       </c>
-      <c r="S75" s="1" t="s">
+      <c r="S75" t="s">
         <v>38</v>
       </c>
-      <c r="T75" s="1">
+      <c r="T75">
         <v>50</v>
       </c>
-      <c r="W75" s="1" t="s">
+      <c r="W75" t="s">
         <v>101</v>
       </c>
-      <c r="X75" s="1" t="s">
+      <c r="X75" t="s">
         <v>102</v>
       </c>
-      <c r="Y75" s="2" t="s">
+      <c r="Y75" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Z75" s="2" t="s">
+      <c r="Z75" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AA75" s="1" t="s">
+      <c r="AA75" t="s">
         <v>242</v>
       </c>
-      <c r="AD75" s="1" t="s">
+      <c r="AD75" t="s">
         <v>98</v>
       </c>
-      <c r="AE75" s="1" t="s">
+      <c r="AE75" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="1" t="s">
+      <c r="A76" s="4"/>
+      <c r="B76" t="s">
         <v>160</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>161</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" s="1" t="s">
+      <c r="D76" t="s">
+        <v>241</v>
+      </c>
+      <c r="E76" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" t="s">
         <v>285</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" t="s">
         <v>276</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K76" t="s">
         <v>295</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L76" t="s">
         <v>162</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="M76" t="s">
         <v>65</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="N76" t="s">
         <v>66</v>
       </c>
-      <c r="O76" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q76" s="1">
+      <c r="O76" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q76">
         <v>3</v>
       </c>
-      <c r="R76" s="1" t="s">
+      <c r="R76" t="s">
         <v>42</v>
       </c>
-      <c r="S76" s="1" t="s">
+      <c r="S76" t="s">
         <v>38</v>
       </c>
-      <c r="T76" s="1">
+      <c r="T76">
         <v>10</v>
       </c>
-      <c r="W76" s="1" t="s">
+      <c r="W76" t="s">
         <v>68</v>
       </c>
-      <c r="X76" s="1" t="s">
+      <c r="X76" t="s">
         <v>69</v>
       </c>
-      <c r="Y76" s="2" t="s">
+      <c r="Y76" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Z76" s="2" t="s">
+      <c r="Z76" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AA76" s="1" t="s">
+      <c r="AA76" t="s">
         <v>242</v>
       </c>
-      <c r="AD76" s="1" t="s">
+      <c r="AD76" t="s">
         <v>65</v>
       </c>
-      <c r="AE76" s="1" t="s">
+      <c r="AE76" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="1" t="s">
+      <c r="A77" s="4"/>
+      <c r="B77" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>161</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H77" s="1" t="s">
+      <c r="D77" t="s">
+        <v>241</v>
+      </c>
+      <c r="E77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" t="s">
         <v>285</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I77" t="s">
         <v>276</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="K77" t="s">
         <v>295</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="L77" t="s">
         <v>165</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="M77" t="s">
         <v>49</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="N77" t="s">
         <v>50</v>
       </c>
-      <c r="O77" s="2" t="s">
+      <c r="O77" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="Q77">
         <v>4</v>
       </c>
-      <c r="R77" s="1" t="s">
+      <c r="R77" t="s">
         <v>37</v>
       </c>
-      <c r="S77" s="1" t="s">
+      <c r="S77" t="s">
         <v>71</v>
       </c>
-      <c r="T77" s="1">
+      <c r="T77">
         <v>3</v>
       </c>
-      <c r="Z77" s="1"/>
-      <c r="AD77" s="1" t="s">
+      <c r="Z77"/>
+      <c r="AD77" t="s">
         <v>72</v>
       </c>
-      <c r="AE77" s="1" t="s">
+      <c r="AE77" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="1" t="s">
+      <c r="A78" s="4"/>
+      <c r="B78" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>161</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H78" s="1" t="s">
+      <c r="D78" t="s">
+        <v>241</v>
+      </c>
+      <c r="E78" t="s">
+        <v>32</v>
+      </c>
+      <c r="G78" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" t="s">
         <v>285</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I78" t="s">
         <v>276</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="K78" t="s">
         <v>295</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="L78" t="s">
         <v>166</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="M78" t="s">
         <v>54</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="N78" t="s">
         <v>244</v>
       </c>
-      <c r="O78" s="2" t="s">
+      <c r="O78" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Q78" s="1">
+      <c r="Q78">
         <v>5</v>
       </c>
-      <c r="R78" s="1" t="s">
+      <c r="R78" t="s">
         <v>37</v>
       </c>
-      <c r="S78" s="1" t="s">
+      <c r="S78" t="s">
         <v>38</v>
       </c>
-      <c r="T78" s="1">
+      <c r="T78">
         <v>10</v>
       </c>
-      <c r="W78" s="1" t="s">
+      <c r="W78" t="s">
         <v>74</v>
       </c>
-      <c r="X78" s="1" t="s">
+      <c r="X78" t="s">
         <v>75</v>
       </c>
-      <c r="Z78" s="1"/>
-      <c r="AB78" s="1" t="s">
+      <c r="Z78"/>
+      <c r="AB78" t="s">
         <v>76</v>
       </c>
-      <c r="AC78" s="1" t="s">
+      <c r="AC78" t="s">
         <v>77</v>
       </c>
-      <c r="AD78" s="1" t="s">
+      <c r="AD78" t="s">
         <v>78</v>
       </c>
-      <c r="AE78" s="1" t="s">
+      <c r="AE78" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="1" t="s">
+      <c r="A79" s="4"/>
+      <c r="B79" t="s">
         <v>167</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>168</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" s="1" t="s">
+      <c r="D79" t="s">
+        <v>241</v>
+      </c>
+      <c r="E79" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" t="s">
         <v>286</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I79" t="s">
         <v>276</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="K79" t="s">
         <v>296</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="L79" t="s">
         <v>40</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="M79" t="s">
         <v>40</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="N79" t="s">
         <v>47</v>
       </c>
-      <c r="P79" s="1" t="s">
+      <c r="P79" t="s">
         <v>202</v>
       </c>
-      <c r="Q79" s="1">
+      <c r="Q79">
         <v>1</v>
       </c>
-      <c r="R79" s="1" t="s">
+      <c r="R79" t="s">
         <v>42</v>
       </c>
-      <c r="S79" s="1" t="s">
+      <c r="S79" t="s">
         <v>43</v>
       </c>
-      <c r="T79" s="1">
+      <c r="T79">
         <v>10</v>
       </c>
-      <c r="Z79" s="1"/>
-      <c r="AD79" s="1" t="s">
+      <c r="Z79"/>
+      <c r="AD79" t="s">
         <v>44</v>
       </c>
-      <c r="AE79" s="1" t="s">
+      <c r="AE79" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="1" t="s">
+      <c r="A80" s="4"/>
+      <c r="B80" t="s">
         <v>167</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>168</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" s="1" t="s">
+      <c r="D80" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" t="s">
         <v>286</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I80" t="s">
         <v>276</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="K80" t="s">
         <v>296</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="L80" t="s">
         <v>179</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="M80" t="s">
         <v>49</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="N80" t="s">
         <v>50</v>
       </c>
-      <c r="P80" s="1" t="s">
+      <c r="P80" t="s">
         <v>169</v>
       </c>
-      <c r="Q80" s="1">
+      <c r="Q80">
         <v>2</v>
       </c>
-      <c r="R80" s="1" t="s">
+      <c r="R80" t="s">
         <v>37</v>
       </c>
-      <c r="S80" s="1" t="s">
+      <c r="S80" t="s">
         <v>51</v>
       </c>
-      <c r="T80" s="1">
+      <c r="T80">
         <v>4</v>
       </c>
-      <c r="U80" s="1">
+      <c r="U80">
         <v>1</v>
       </c>
-      <c r="Z80" s="1"/>
-      <c r="AD80" s="1" t="s">
+      <c r="Z80"/>
+      <c r="AD80" t="s">
         <v>72</v>
       </c>
-      <c r="AE80" s="1" t="s">
+      <c r="AE80" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="1" t="s">
+      <c r="A81" s="4"/>
+      <c r="B81" t="s">
         <v>167</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>168</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H81" s="1" t="s">
+      <c r="D81" t="s">
+        <v>241</v>
+      </c>
+      <c r="E81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" t="s">
         <v>286</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" t="s">
         <v>276</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="K81" t="s">
         <v>296</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="L81" t="s">
         <v>180</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="M81" t="s">
         <v>54</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="N81" t="s">
         <v>55</v>
       </c>
-      <c r="P81" s="1" t="s">
+      <c r="P81" t="s">
         <v>171</v>
       </c>
-      <c r="Q81" s="1">
+      <c r="Q81">
         <v>3</v>
       </c>
-      <c r="R81" s="1" t="s">
+      <c r="R81" t="s">
         <v>37</v>
       </c>
-      <c r="S81" s="1" t="s">
+      <c r="S81" t="s">
         <v>38</v>
       </c>
-      <c r="T81" s="1">
+      <c r="T81">
         <v>2</v>
       </c>
-      <c r="W81" s="1" t="s">
+      <c r="W81" t="s">
         <v>74</v>
       </c>
-      <c r="X81" s="1" t="s">
+      <c r="X81" t="s">
         <v>75</v>
       </c>
-      <c r="Y81" s="2" t="s">
+      <c r="Y81" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Z81" s="2" t="s">
+      <c r="Z81" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AA81" s="1" t="s">
+      <c r="AA81" t="s">
         <v>242</v>
       </c>
-      <c r="AD81" s="1" t="s">
+      <c r="AD81" t="s">
         <v>78</v>
       </c>
-      <c r="AE81" s="1" t="s">
+      <c r="AE81" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="1" t="s">
+      <c r="A82" s="4"/>
+      <c r="B82" t="s">
         <v>167</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>168</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H82" s="1" t="s">
+      <c r="D82" t="s">
+        <v>241</v>
+      </c>
+      <c r="E82" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" t="s">
         <v>286</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I82" t="s">
         <v>276</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="K82" t="s">
         <v>296</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="L82" t="s">
         <v>175</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="M82" t="s">
         <v>65</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="N82" t="s">
         <v>66</v>
       </c>
-      <c r="P82" s="1" t="s">
+      <c r="P82" t="s">
         <v>67</v>
       </c>
-      <c r="Q82" s="1">
+      <c r="Q82">
         <v>4</v>
       </c>
-      <c r="R82" s="1" t="s">
+      <c r="R82" t="s">
         <v>42</v>
       </c>
-      <c r="S82" s="1" t="s">
+      <c r="S82" t="s">
         <v>38</v>
       </c>
-      <c r="T82" s="1">
+      <c r="T82">
         <v>11</v>
       </c>
-      <c r="W82" s="1" t="s">
+      <c r="W82" t="s">
         <v>68</v>
       </c>
-      <c r="X82" s="1" t="s">
+      <c r="X82" t="s">
         <v>69</v>
       </c>
-      <c r="Y82" s="2" t="s">
+      <c r="Y82" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="Z82" s="2" t="s">
+      <c r="Z82" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AA82" s="1" t="s">
+      <c r="AA82" t="s">
         <v>242</v>
       </c>
-      <c r="AD82" s="1" t="s">
+      <c r="AD82" t="s">
         <v>65</v>
       </c>
-      <c r="AE82" s="1" t="s">
+      <c r="AE82" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="1" t="s">
+      <c r="A83" s="4"/>
+      <c r="B83" t="s">
         <v>167</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>168</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H83" s="1" t="s">
+      <c r="D83" t="s">
+        <v>241</v>
+      </c>
+      <c r="E83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" t="s">
         <v>310</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I83" t="s">
         <v>313</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="K83" t="s">
         <v>323</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="L83" t="s">
         <v>40</v>
       </c>
-      <c r="M83" s="1" t="s">
+      <c r="M83" t="s">
         <v>40</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="N83" t="s">
         <v>47</v>
       </c>
-      <c r="O83" s="2" t="s">
+      <c r="O83" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q83" s="1">
+      <c r="Q83">
         <v>1</v>
       </c>
-      <c r="R83" s="1" t="s">
+      <c r="R83" t="s">
         <v>42</v>
       </c>
-      <c r="S83" s="1" t="s">
+      <c r="S83" t="s">
         <v>43</v>
       </c>
-      <c r="T83" s="1">
+      <c r="T83">
         <v>10</v>
       </c>
-      <c r="Z83" s="1"/>
-      <c r="AD83" s="1" t="s">
+      <c r="Z83"/>
+      <c r="AD83" t="s">
         <v>44</v>
       </c>
-      <c r="AE83" s="1" t="s">
+      <c r="AE83" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="1" t="s">
+      <c r="A84" s="4"/>
+      <c r="B84" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>168</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H84" s="1" t="s">
+      <c r="D84" t="s">
+        <v>241</v>
+      </c>
+      <c r="E84" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" t="s">
         <v>310</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I84" t="s">
         <v>313</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="K84" t="s">
         <v>323</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="L84" t="s">
         <v>330</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="M84" t="s">
         <v>330</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="N84" t="s">
         <v>349</v>
       </c>
-      <c r="P84" s="1" t="s">
+      <c r="P84" t="s">
         <v>331</v>
       </c>
-      <c r="Q84" s="1">
+      <c r="Q84">
         <v>2</v>
       </c>
-      <c r="R84" s="1" t="s">
+      <c r="R84" t="s">
         <v>42</v>
       </c>
-      <c r="S84" s="1" t="s">
+      <c r="S84" t="s">
         <v>38</v>
       </c>
-      <c r="T84" s="1">
+      <c r="T84">
         <v>40</v>
       </c>
-      <c r="Z84" s="1"/>
-      <c r="AB84" s="1" t="s">
+      <c r="Z84"/>
+      <c r="AB84" t="s">
         <v>169</v>
       </c>
-      <c r="AC84" s="12" t="s">
+      <c r="AC84" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AD84" s="1" t="s">
+      <c r="AD84" t="s">
         <v>332</v>
       </c>
-      <c r="AE84" s="1" t="s">
+      <c r="AE84" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="1" t="s">
+      <c r="A85" s="4"/>
+      <c r="B85" t="s">
         <v>167</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>168</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H85" s="1" t="s">
+      <c r="D85" t="s">
+        <v>241</v>
+      </c>
+      <c r="E85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" t="s">
         <v>310</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="I85" t="s">
         <v>313</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="K85" t="s">
         <v>323</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="L85" t="s">
         <v>49</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="M85" t="s">
         <v>49</v>
       </c>
-      <c r="N85" s="1" t="s">
+      <c r="N85" t="s">
         <v>50</v>
       </c>
-      <c r="O85" s="2" t="s">
+      <c r="O85" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="Q85" s="1">
+      <c r="Q85">
         <v>3</v>
       </c>
-      <c r="R85" s="1" t="s">
+      <c r="R85" t="s">
         <v>37</v>
       </c>
-      <c r="S85" s="1" t="s">
+      <c r="S85" t="s">
         <v>51</v>
       </c>
-      <c r="T85" s="1">
+      <c r="T85">
         <v>4</v>
       </c>
-      <c r="U85" s="1">
+      <c r="U85">
         <v>1</v>
       </c>
-      <c r="Z85" s="1"/>
-      <c r="AD85" s="1" t="s">
+      <c r="Z85"/>
+      <c r="AD85" t="s">
         <v>72</v>
       </c>
-      <c r="AE85" s="1" t="s">
+      <c r="AE85" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="1" t="s">
+      <c r="A86" s="4"/>
+      <c r="B86" t="s">
         <v>167</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>168</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" s="1" t="s">
+      <c r="D86" t="s">
+        <v>241</v>
+      </c>
+      <c r="E86" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" t="s">
         <v>310</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I86" t="s">
         <v>313</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="K86" t="s">
         <v>323</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="L86" t="s">
         <v>54</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="M86" t="s">
         <v>54</v>
       </c>
-      <c r="N86" s="1" t="s">
+      <c r="N86" t="s">
         <v>55</v>
       </c>
-      <c r="O86" s="2" t="s">
+      <c r="O86" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Q86" s="1">
+      <c r="Q86">
         <v>4</v>
       </c>
-      <c r="R86" s="1" t="s">
+      <c r="R86" t="s">
         <v>37</v>
       </c>
-      <c r="S86" s="1" t="s">
+      <c r="S86" t="s">
         <v>38</v>
       </c>
-      <c r="T86" s="1">
+      <c r="T86">
         <v>2</v>
       </c>
-      <c r="W86" s="1" t="s">
+      <c r="W86" t="s">
         <v>74</v>
       </c>
-      <c r="X86" s="1" t="s">
+      <c r="X86" t="s">
         <v>75</v>
       </c>
-      <c r="Y86" s="2" t="s">
+      <c r="Y86" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Z86" s="2" t="s">
+      <c r="Z86" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AA86" s="1" t="s">
+      <c r="AA86" t="s">
         <v>242</v>
       </c>
-      <c r="AD86" s="1" t="s">
+      <c r="AD86" t="s">
         <v>78</v>
       </c>
-      <c r="AE86" s="1" t="s">
+      <c r="AE86" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
-      <c r="B87" s="1" t="s">
+      <c r="A87" s="4"/>
+      <c r="B87" t="s">
         <v>167</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>168</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H87" s="1" t="s">
+      <c r="D87" t="s">
+        <v>241</v>
+      </c>
+      <c r="E87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" t="s">
         <v>310</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="I87" t="s">
         <v>313</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="K87" t="s">
         <v>323</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="L87" t="s">
         <v>65</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="M87" t="s">
         <v>65</v>
       </c>
-      <c r="N87" s="1" t="s">
+      <c r="N87" t="s">
         <v>66</v>
       </c>
-      <c r="O87" s="2" t="s">
+      <c r="O87" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Q87" s="1">
+      <c r="Q87">
         <v>5</v>
       </c>
-      <c r="R87" s="1" t="s">
+      <c r="R87" t="s">
         <v>42</v>
       </c>
-      <c r="S87" s="1" t="s">
+      <c r="S87" t="s">
         <v>38</v>
       </c>
-      <c r="T87" s="1">
+      <c r="T87">
         <v>11</v>
       </c>
-      <c r="W87" s="1" t="s">
+      <c r="W87" t="s">
         <v>68</v>
       </c>
-      <c r="X87" s="1" t="s">
+      <c r="X87" t="s">
         <v>69</v>
       </c>
-      <c r="Y87" s="2" t="s">
+      <c r="Y87" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="Z87" s="2" t="s">
+      <c r="Z87" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AA87" s="1" t="s">
+      <c r="AA87" t="s">
         <v>242</v>
       </c>
-      <c r="AD87" s="1" t="s">
+      <c r="AD87" t="s">
         <v>65</v>
       </c>
-      <c r="AE87" s="1" t="s">
+      <c r="AE87" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-      <c r="B88" s="1" t="s">
+      <c r="A88" s="4"/>
+      <c r="B88" t="s">
         <v>183</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>184</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H88" s="1" t="s">
+      <c r="D88" t="s">
+        <v>241</v>
+      </c>
+      <c r="E88" t="s">
+        <v>32</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" t="s">
         <v>287</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="I88" t="s">
         <v>276</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="K88" t="s">
         <v>297</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="L88" t="s">
         <v>40</v>
       </c>
-      <c r="M88" s="1" t="s">
+      <c r="M88" t="s">
         <v>40</v>
       </c>
-      <c r="N88" s="1" t="s">
+      <c r="N88" t="s">
         <v>47</v>
       </c>
-      <c r="P88" s="1" t="s">
+      <c r="P88" t="s">
         <v>202</v>
       </c>
-      <c r="Q88" s="1">
+      <c r="Q88">
         <v>1</v>
       </c>
-      <c r="R88" s="1" t="s">
+      <c r="R88" t="s">
         <v>42</v>
       </c>
-      <c r="S88" s="1" t="s">
+      <c r="S88" t="s">
         <v>43</v>
       </c>
-      <c r="T88" s="1">
+      <c r="T88">
         <v>10</v>
       </c>
-      <c r="Z88" s="1"/>
-      <c r="AD88" s="1" t="s">
+      <c r="Z88"/>
+      <c r="AD88" t="s">
         <v>44</v>
       </c>
-      <c r="AE88" s="1" t="s">
+      <c r="AE88" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="1" t="s">
+      <c r="A89" s="4"/>
+      <c r="B89" t="s">
         <v>183</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>184</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H89" s="1" t="s">
+      <c r="D89" t="s">
+        <v>241</v>
+      </c>
+      <c r="E89" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" t="s">
         <v>287</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I89" t="s">
         <v>276</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="K89" t="s">
         <v>297</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="L89" t="s">
         <v>190</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="M89" t="s">
         <v>49</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="N89" t="s">
         <v>50</v>
       </c>
-      <c r="P89" s="1" t="s">
+      <c r="P89" t="s">
         <v>185</v>
       </c>
-      <c r="Q89" s="1">
+      <c r="Q89">
         <v>2</v>
       </c>
-      <c r="R89" s="1" t="s">
+      <c r="R89" t="s">
         <v>37</v>
       </c>
-      <c r="S89" s="1" t="s">
+      <c r="S89" t="s">
         <v>51</v>
       </c>
-      <c r="T89" s="1">
+      <c r="T89">
         <v>4</v>
       </c>
-      <c r="U89" s="1">
+      <c r="U89">
         <v>2</v>
       </c>
-      <c r="Z89" s="1"/>
-      <c r="AD89" s="1" t="s">
+      <c r="Z89"/>
+      <c r="AD89" t="s">
         <v>72</v>
       </c>
-      <c r="AE89" s="1" t="s">
+      <c r="AE89" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="1" t="s">
+      <c r="A90" s="4"/>
+      <c r="B90" t="s">
         <v>183</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>184</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H90" s="1" t="s">
+      <c r="D90" t="s">
+        <v>241</v>
+      </c>
+      <c r="E90" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" t="s">
+        <v>33</v>
+      </c>
+      <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="I90" t="s">
         <v>276</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="K90" t="s">
         <v>297</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="L90" t="s">
         <v>191</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="M90" t="s">
         <v>54</v>
       </c>
-      <c r="N90" s="1" t="s">
+      <c r="N90" t="s">
         <v>248</v>
       </c>
-      <c r="P90" s="1" t="s">
+      <c r="P90" t="s">
         <v>187</v>
       </c>
-      <c r="Q90" s="1">
+      <c r="Q90">
         <v>3</v>
       </c>
-      <c r="R90" s="1" t="s">
+      <c r="R90" t="s">
         <v>37</v>
       </c>
-      <c r="S90" s="1" t="s">
+      <c r="S90" t="s">
         <v>38</v>
       </c>
-      <c r="T90" s="1">
+      <c r="T90">
         <v>10</v>
       </c>
-      <c r="W90" s="1" t="s">
+      <c r="W90" t="s">
         <v>74</v>
       </c>
-      <c r="X90" s="1" t="s">
+      <c r="X90" t="s">
         <v>75</v>
       </c>
-      <c r="Y90" s="2" t="s">
+      <c r="Y90" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Z90" s="2" t="s">
+      <c r="Z90" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AA90" s="1" t="s">
+      <c r="AA90" t="s">
         <v>242</v>
       </c>
-      <c r="AD90" s="1" t="s">
+      <c r="AD90" t="s">
         <v>78</v>
       </c>
-      <c r="AE90" s="1" t="s">
+      <c r="AE90" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="1" t="s">
+      <c r="A91" s="4"/>
+      <c r="B91" t="s">
         <v>183</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>184</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H91" s="1" t="s">
+      <c r="D91" t="s">
+        <v>241</v>
+      </c>
+      <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" t="s">
+        <v>33</v>
+      </c>
+      <c r="H91" t="s">
         <v>311</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I91" t="s">
         <v>313</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="K91" t="s">
         <v>324</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="L91" t="s">
         <v>40</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="M91" t="s">
         <v>40</v>
       </c>
-      <c r="N91" s="1" t="s">
+      <c r="N91" t="s">
         <v>47</v>
       </c>
-      <c r="O91" s="2" t="s">
+      <c r="O91" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q91" s="1">
+      <c r="Q91">
         <v>1</v>
       </c>
-      <c r="R91" s="1" t="s">
+      <c r="R91" t="s">
         <v>42</v>
       </c>
-      <c r="S91" s="1" t="s">
+      <c r="S91" t="s">
         <v>43</v>
       </c>
-      <c r="T91" s="1">
+      <c r="T91">
         <v>10</v>
       </c>
-      <c r="Z91" s="1"/>
-      <c r="AD91" s="1" t="s">
+      <c r="Z91"/>
+      <c r="AD91" t="s">
         <v>44</v>
       </c>
-      <c r="AE91" s="1" t="s">
+      <c r="AE91" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="1" t="s">
+      <c r="A92" s="4"/>
+      <c r="B92" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>184</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H92" s="1" t="s">
+      <c r="D92" t="s">
+        <v>241</v>
+      </c>
+      <c r="E92" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" t="s">
         <v>311</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="I92" t="s">
         <v>313</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="K92" t="s">
         <v>324</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="L92" t="s">
         <v>330</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="M92" t="s">
         <v>330</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="N92" t="s">
         <v>349</v>
       </c>
-      <c r="P92" s="1" t="s">
+      <c r="P92" t="s">
         <v>331</v>
       </c>
-      <c r="Q92" s="1">
+      <c r="Q92">
         <v>2</v>
       </c>
-      <c r="R92" s="1" t="s">
+      <c r="R92" t="s">
         <v>42</v>
       </c>
-      <c r="S92" s="1" t="s">
+      <c r="S92" t="s">
         <v>38</v>
       </c>
-      <c r="T92" s="1">
+      <c r="T92">
         <v>40</v>
       </c>
-      <c r="Z92" s="1"/>
-      <c r="AB92" s="1" t="s">
+      <c r="Z92"/>
+      <c r="AB92" t="s">
         <v>334</v>
       </c>
-      <c r="AC92" s="12" t="s">
+      <c r="AC92" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="AD92" s="1" t="s">
+      <c r="AD92" t="s">
         <v>332</v>
       </c>
-      <c r="AE92" s="1" t="s">
+      <c r="AE92" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="1" t="s">
+      <c r="A93" s="4"/>
+      <c r="B93" t="s">
         <v>183</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>184</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H93" s="1" t="s">
+      <c r="D93" t="s">
+        <v>241</v>
+      </c>
+      <c r="E93" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93" t="s">
         <v>311</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="I93" t="s">
         <v>313</v>
       </c>
-      <c r="K93" s="1" t="s">
+      <c r="K93" t="s">
         <v>324</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="L93" t="s">
         <v>49</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="M93" t="s">
         <v>49</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="N93" t="s">
         <v>50</v>
       </c>
-      <c r="O93" s="2" t="s">
+      <c r="O93" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q93" s="1">
+      <c r="Q93">
         <v>3</v>
       </c>
-      <c r="R93" s="1" t="s">
+      <c r="R93" t="s">
         <v>37</v>
       </c>
-      <c r="S93" s="1" t="s">
+      <c r="S93" t="s">
         <v>51</v>
       </c>
-      <c r="T93" s="1">
+      <c r="T93">
         <v>4</v>
       </c>
-      <c r="U93" s="1">
+      <c r="U93">
         <v>1</v>
       </c>
-      <c r="Z93" s="1"/>
-      <c r="AD93" s="1" t="s">
+      <c r="Z93"/>
+      <c r="AD93" t="s">
         <v>72</v>
       </c>
-      <c r="AE93" s="1" t="s">
+      <c r="AE93" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="32" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="1" t="s">
+      <c r="A94" s="4"/>
+      <c r="B94" t="s">
         <v>183</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>184</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H94" s="1" t="s">
+      <c r="D94" t="s">
+        <v>241</v>
+      </c>
+      <c r="E94" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" t="s">
         <v>311</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I94" t="s">
         <v>313</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="K94" t="s">
         <v>324</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="L94" t="s">
         <v>54</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="M94" t="s">
         <v>54</v>
       </c>
-      <c r="N94" s="1" t="s">
+      <c r="N94" t="s">
         <v>248</v>
       </c>
-      <c r="O94" s="2" t="s">
+      <c r="O94" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="Q94" s="1">
+      <c r="Q94">
         <v>4</v>
       </c>
-      <c r="R94" s="1" t="s">
+      <c r="R94" t="s">
         <v>37</v>
       </c>
-      <c r="S94" s="1" t="s">
+      <c r="S94" t="s">
         <v>38</v>
       </c>
-      <c r="T94" s="1">
+      <c r="T94">
         <v>2</v>
       </c>
-      <c r="W94" s="1" t="s">
+      <c r="W94" t="s">
         <v>74</v>
       </c>
-      <c r="X94" s="1" t="s">
+      <c r="X94" t="s">
         <v>75</v>
       </c>
-      <c r="Y94" s="2" t="s">
+      <c r="Y94" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Z94" s="2" t="s">
+      <c r="Z94" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AA94" s="1" t="s">
+      <c r="AA94" t="s">
         <v>242</v>
       </c>
-      <c r="AD94" s="1" t="s">
+      <c r="AD94" t="s">
         <v>78</v>
       </c>
-      <c r="AE94" s="1" t="s">
+      <c r="AE94" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="1" t="s">
+      <c r="A95" s="4"/>
+      <c r="B95" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>193</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H95" s="1" t="s">
+      <c r="D95" t="s">
+        <v>241</v>
+      </c>
+      <c r="E95" t="s">
+        <v>32</v>
+      </c>
+      <c r="G95" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" t="s">
         <v>288</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I95" t="s">
         <v>276</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="K95" t="s">
         <v>298</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="L95" t="s">
         <v>40</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="M95" t="s">
         <v>40</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="N95" t="s">
         <v>47</v>
       </c>
-      <c r="P95" s="1" t="s">
+      <c r="P95" t="s">
         <v>202</v>
       </c>
-      <c r="Q95" s="1">
+      <c r="Q95">
         <v>1</v>
       </c>
-      <c r="R95" s="1" t="s">
+      <c r="R95" t="s">
         <v>42</v>
       </c>
-      <c r="S95" s="1" t="s">
+      <c r="S95" t="s">
         <v>43</v>
       </c>
-      <c r="T95" s="1">
+      <c r="T95">
         <v>10</v>
       </c>
-      <c r="Z95" s="1"/>
-      <c r="AD95" s="1" t="s">
+      <c r="Z95"/>
+      <c r="AD95" t="s">
         <v>44</v>
       </c>
-      <c r="AE95" s="1" t="s">
+      <c r="AE95" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="1" t="s">
+      <c r="A96" s="4"/>
+      <c r="B96" t="s">
         <v>192</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>193</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H96" s="1" t="s">
+      <c r="D96" t="s">
+        <v>241</v>
+      </c>
+      <c r="E96" t="s">
+        <v>32</v>
+      </c>
+      <c r="G96" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" t="s">
         <v>288</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I96" t="s">
         <v>276</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="K96" t="s">
         <v>298</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="L96" t="s">
         <v>194</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="M96" t="s">
         <v>65</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="N96" t="s">
         <v>66</v>
       </c>
-      <c r="P96" s="1" t="s">
+      <c r="P96" t="s">
         <v>67</v>
       </c>
-      <c r="Q96" s="1">
+      <c r="Q96">
         <v>2</v>
       </c>
-      <c r="R96" s="1" t="s">
+      <c r="R96" t="s">
         <v>42</v>
       </c>
-      <c r="S96" s="1" t="s">
+      <c r="S96" t="s">
         <v>38</v>
       </c>
-      <c r="T96" s="1">
+      <c r="T96">
         <v>50</v>
       </c>
-      <c r="W96" s="1" t="s">
+      <c r="W96" t="s">
         <v>68</v>
       </c>
-      <c r="X96" s="1" t="s">
+      <c r="X96" t="s">
         <v>69</v>
       </c>
-      <c r="Z96" s="1"/>
-      <c r="AB96" s="1" t="s">
+      <c r="Z96"/>
+      <c r="AB96" t="s">
         <v>195</v>
       </c>
-      <c r="AC96" s="1" t="s">
+      <c r="AC96" t="s">
         <v>196</v>
       </c>
-      <c r="AD96" s="1" t="s">
+      <c r="AD96" t="s">
         <v>65</v>
       </c>
-      <c r="AE96" s="1" t="s">
+      <c r="AE96" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="1" t="s">
+      <c r="A97" s="4"/>
+      <c r="B97" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>193</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H97" s="1" t="s">
+      <c r="D97" t="s">
+        <v>241</v>
+      </c>
+      <c r="E97" t="s">
+        <v>32</v>
+      </c>
+      <c r="G97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H97" t="s">
         <v>288</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I97" t="s">
         <v>276</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="K97" t="s">
         <v>298</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="L97" t="s">
         <v>199</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="M97" t="s">
         <v>49</v>
       </c>
-      <c r="N97" s="1" t="s">
+      <c r="N97" t="s">
         <v>50</v>
       </c>
-      <c r="P97" s="1" t="s">
+      <c r="P97" t="s">
         <v>197</v>
       </c>
-      <c r="Q97" s="1">
+      <c r="Q97">
         <v>3</v>
       </c>
-      <c r="R97" s="1" t="s">
+      <c r="R97" t="s">
         <v>37</v>
       </c>
-      <c r="S97" s="1" t="s">
+      <c r="S97" t="s">
         <v>51</v>
       </c>
-      <c r="T97" s="1">
+      <c r="T97">
         <v>4</v>
       </c>
-      <c r="U97" s="1">
+      <c r="U97">
         <v>1</v>
       </c>
-      <c r="Z97" s="1"/>
-      <c r="AD97" s="1" t="s">
+      <c r="Z97"/>
+      <c r="AD97" t="s">
         <v>72</v>
       </c>
-      <c r="AE97" s="1" t="s">
+      <c r="AE97" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="1" t="s">
+      <c r="A98" s="4"/>
+      <c r="B98" t="s">
         <v>192</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>193</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H98" s="1" t="s">
+      <c r="D98" t="s">
+        <v>241</v>
+      </c>
+      <c r="E98" t="s">
+        <v>32</v>
+      </c>
+      <c r="G98" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" t="s">
         <v>288</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I98" t="s">
         <v>276</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="K98" t="s">
         <v>298</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="L98" t="s">
         <v>200</v>
       </c>
-      <c r="M98" s="1" t="s">
+      <c r="M98" t="s">
         <v>54</v>
       </c>
-      <c r="N98" s="1" t="s">
+      <c r="N98" t="s">
         <v>249</v>
       </c>
-      <c r="P98" s="1" t="s">
+      <c r="P98" t="s">
         <v>198</v>
       </c>
-      <c r="Q98" s="1">
+      <c r="Q98">
         <v>4</v>
       </c>
-      <c r="R98" s="1" t="s">
+      <c r="R98" t="s">
         <v>37</v>
       </c>
-      <c r="S98" s="1" t="s">
+      <c r="S98" t="s">
         <v>38</v>
       </c>
-      <c r="T98" s="1">
+      <c r="T98">
         <v>2</v>
       </c>
-      <c r="W98" s="1" t="s">
+      <c r="W98" t="s">
         <v>74</v>
       </c>
-      <c r="X98" s="1" t="s">
+      <c r="X98" t="s">
         <v>75</v>
       </c>
-      <c r="Y98" s="2" t="s">
+      <c r="Y98" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z98" s="2" t="s">
+      <c r="Z98" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA98" s="1" t="s">
+      <c r="AA98" t="s">
         <v>242</v>
       </c>
-      <c r="AD98" s="1" t="s">
+      <c r="AD98" t="s">
         <v>78</v>
       </c>
-      <c r="AE98" s="1" t="s">
+      <c r="AE98" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="1" t="s">
+      <c r="A99" s="4"/>
+      <c r="B99" t="s">
         <v>192</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>193</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H99" s="1" t="s">
+      <c r="D99" t="s">
+        <v>241</v>
+      </c>
+      <c r="E99" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s">
+        <v>33</v>
+      </c>
+      <c r="H99" t="s">
         <v>312</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I99" t="s">
         <v>313</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="K99" t="s">
         <v>325</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="L99" t="s">
         <v>40</v>
       </c>
-      <c r="M99" s="1" t="s">
+      <c r="M99" t="s">
         <v>40</v>
       </c>
-      <c r="N99" s="1" t="s">
+      <c r="N99" t="s">
         <v>47</v>
       </c>
-      <c r="P99" s="1" t="s">
+      <c r="P99" t="s">
         <v>202</v>
       </c>
-      <c r="Q99" s="1">
+      <c r="Q99">
         <v>1</v>
       </c>
-      <c r="R99" s="1" t="s">
+      <c r="R99" t="s">
         <v>42</v>
       </c>
-      <c r="S99" s="1" t="s">
+      <c r="S99" t="s">
         <v>43</v>
       </c>
-      <c r="T99" s="1">
+      <c r="T99">
         <v>10</v>
       </c>
-      <c r="Z99" s="1"/>
-      <c r="AD99" s="1" t="s">
+      <c r="Z99"/>
+      <c r="AD99" t="s">
         <v>44</v>
       </c>
-      <c r="AE99" s="1" t="s">
+      <c r="AE99" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="1" t="s">
+      <c r="A100" s="4"/>
+      <c r="B100" t="s">
         <v>192</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>193</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H100" s="1" t="s">
+      <c r="D100" t="s">
+        <v>241</v>
+      </c>
+      <c r="E100" t="s">
+        <v>32</v>
+      </c>
+      <c r="G100" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" t="s">
         <v>312</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I100" t="s">
         <v>313</v>
       </c>
-      <c r="K100" s="1" t="s">
+      <c r="K100" t="s">
         <v>325</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="L100" t="s">
         <v>330</v>
       </c>
-      <c r="M100" s="1" t="s">
+      <c r="M100" t="s">
         <v>330</v>
       </c>
-      <c r="N100" s="1" t="s">
+      <c r="N100" t="s">
         <v>349</v>
       </c>
-      <c r="P100" s="1" t="s">
+      <c r="P100" t="s">
         <v>331</v>
       </c>
-      <c r="Q100" s="1">
+      <c r="Q100">
         <v>2</v>
       </c>
-      <c r="R100" s="1" t="s">
+      <c r="R100" t="s">
         <v>42</v>
       </c>
-      <c r="S100" s="1" t="s">
+      <c r="S100" t="s">
         <v>38</v>
       </c>
-      <c r="T100" s="1">
+      <c r="T100">
         <v>40</v>
       </c>
-      <c r="Z100" s="1"/>
-      <c r="AB100" s="1" t="s">
+      <c r="Z100"/>
+      <c r="AB100" t="s">
         <v>197</v>
       </c>
-      <c r="AC100" s="12" t="s">
+      <c r="AC100" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AD100" s="1" t="s">
+      <c r="AD100" t="s">
         <v>332</v>
       </c>
-      <c r="AE100" s="1" t="s">
+      <c r="AE100" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="1" t="s">
+      <c r="A101" s="4"/>
+      <c r="B101" t="s">
         <v>192</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>193</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H101" s="1" t="s">
+      <c r="D101" t="s">
+        <v>241</v>
+      </c>
+      <c r="E101" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s">
+        <v>33</v>
+      </c>
+      <c r="H101" t="s">
         <v>312</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="I101" t="s">
         <v>313</v>
       </c>
-      <c r="K101" s="1" t="s">
+      <c r="K101" t="s">
         <v>325</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="L101" t="s">
         <v>65</v>
       </c>
-      <c r="M101" s="1" t="s">
+      <c r="M101" t="s">
         <v>65</v>
       </c>
-      <c r="N101" s="1" t="s">
+      <c r="N101" t="s">
         <v>66</v>
       </c>
-      <c r="P101" s="1" t="s">
+      <c r="P101" t="s">
         <v>67</v>
       </c>
-      <c r="Q101" s="1">
+      <c r="Q101">
         <v>2</v>
       </c>
-      <c r="R101" s="1" t="s">
+      <c r="R101" t="s">
         <v>42</v>
       </c>
-      <c r="S101" s="1" t="s">
+      <c r="S101" t="s">
         <v>38</v>
       </c>
-      <c r="T101" s="1">
+      <c r="T101">
         <v>50</v>
       </c>
-      <c r="W101" s="1" t="s">
+      <c r="W101" t="s">
         <v>68</v>
       </c>
-      <c r="X101" s="1" t="s">
+      <c r="X101" t="s">
         <v>69</v>
       </c>
-      <c r="Z101" s="1"/>
-      <c r="AB101" s="1" t="s">
+      <c r="Z101"/>
+      <c r="AB101" t="s">
         <v>195</v>
       </c>
-      <c r="AC101" s="1" t="s">
+      <c r="AC101" t="s">
         <v>196</v>
       </c>
-      <c r="AD101" s="1" t="s">
+      <c r="AD101" t="s">
         <v>65</v>
       </c>
-      <c r="AE101" s="1" t="s">
+      <c r="AE101" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="1" t="s">
+      <c r="A102" s="4"/>
+      <c r="B102" t="s">
         <v>192</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" t="s">
         <v>193</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H102" s="1" t="s">
+      <c r="D102" t="s">
+        <v>241</v>
+      </c>
+      <c r="E102" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102" t="s">
         <v>312</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="I102" t="s">
         <v>313</v>
       </c>
-      <c r="K102" s="1" t="s">
+      <c r="K102" t="s">
         <v>325</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="L102" t="s">
         <v>49</v>
       </c>
-      <c r="M102" s="1" t="s">
+      <c r="M102" t="s">
         <v>49</v>
       </c>
-      <c r="N102" s="1" t="s">
+      <c r="N102" t="s">
         <v>50</v>
       </c>
-      <c r="P102" s="1" t="s">
+      <c r="P102" t="s">
         <v>197</v>
       </c>
-      <c r="Q102" s="1">
+      <c r="Q102">
         <v>3</v>
       </c>
-      <c r="R102" s="1" t="s">
+      <c r="R102" t="s">
         <v>37</v>
       </c>
-      <c r="S102" s="1" t="s">
+      <c r="S102" t="s">
         <v>51</v>
       </c>
-      <c r="T102" s="1">
+      <c r="T102">
         <v>4</v>
       </c>
-      <c r="U102" s="1">
+      <c r="U102">
         <v>2</v>
       </c>
-      <c r="Z102" s="1"/>
-      <c r="AD102" s="1" t="s">
+      <c r="Z102"/>
+      <c r="AD102" t="s">
         <v>72</v>
       </c>
-      <c r="AE102" s="1" t="s">
+      <c r="AE102" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="1" t="s">
+      <c r="A103" s="4"/>
+      <c r="B103" t="s">
         <v>192</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" t="s">
         <v>193</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H103" s="1" t="s">
+      <c r="D103" t="s">
+        <v>241</v>
+      </c>
+      <c r="E103" t="s">
+        <v>32</v>
+      </c>
+      <c r="G103" t="s">
+        <v>33</v>
+      </c>
+      <c r="H103" t="s">
         <v>312</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="I103" t="s">
         <v>313</v>
       </c>
-      <c r="K103" s="1" t="s">
+      <c r="K103" t="s">
         <v>325</v>
       </c>
-      <c r="L103" s="1" t="s">
+      <c r="L103" t="s">
         <v>54</v>
       </c>
-      <c r="M103" s="1" t="s">
+      <c r="M103" t="s">
         <v>54</v>
       </c>
-      <c r="N103" s="1" t="s">
+      <c r="N103" t="s">
         <v>249</v>
       </c>
-      <c r="P103" s="1" t="s">
+      <c r="P103" t="s">
         <v>198</v>
       </c>
-      <c r="Q103" s="1">
+      <c r="Q103">
         <v>4</v>
       </c>
-      <c r="R103" s="1" t="s">
+      <c r="R103" t="s">
         <v>37</v>
       </c>
-      <c r="S103" s="1" t="s">
+      <c r="S103" t="s">
         <v>38</v>
       </c>
-      <c r="T103" s="1">
+      <c r="T103">
         <v>2</v>
       </c>
-      <c r="W103" s="1" t="s">
+      <c r="W103" t="s">
         <v>74</v>
       </c>
-      <c r="X103" s="1" t="s">
+      <c r="X103" t="s">
         <v>75</v>
       </c>
-      <c r="Y103" s="2" t="s">
+      <c r="Y103" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z103" s="2" t="s">
+      <c r="Z103" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA103" s="1" t="s">
+      <c r="AA103" t="s">
         <v>242</v>
       </c>
-      <c r="AD103" s="1" t="s">
+      <c r="AD103" t="s">
         <v>78</v>
       </c>
-      <c r="AE103" s="1" t="s">
+      <c r="AE103" t="s">
         <v>218</v>
       </c>
     </row>
@@ -8338,9 +8326,6 @@
       <c r="I104" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J104" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="K104" s="9" t="s">
         <v>315</v>
       </c>
@@ -8400,9 +8385,6 @@
       <c r="I105" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J105" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="K105" s="9" t="s">
         <v>315</v>
       </c>
@@ -8459,9 +8441,6 @@
       <c r="I106" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J106" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="K106" s="9" t="s">
         <v>315</v>
       </c>
@@ -8527,9 +8506,6 @@
       <c r="I107" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J107" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="K107" s="9" t="s">
         <v>315</v>
       </c>
@@ -8603,9 +8579,6 @@
       <c r="I108" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J108" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="K108" s="9" t="s">
         <v>315</v>
       </c>
@@ -8679,9 +8652,6 @@
       <c r="I109" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J109" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="K109" s="9" t="s">
         <v>315</v>
       </c>
@@ -8744,9 +8714,6 @@
       <c r="I110" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J110" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="K110" s="9" t="s">
         <v>315</v>
       </c>
@@ -8818,9 +8785,6 @@
       <c r="I111" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J111" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="K111" s="9" t="s">
         <v>322</v>
       </c>
@@ -8869,7 +8833,7 @@
         <v>241</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>33</v>
@@ -8879,9 +8843,6 @@
       </c>
       <c r="I112" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="J112" s="9" t="s">
-        <v>350</v>
       </c>
       <c r="K112" s="9" t="s">
         <v>322</v>
@@ -8939,9 +8900,6 @@
       <c r="I113" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J113" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="K113" s="9" t="s">
         <v>322</v>
       </c>
@@ -9007,9 +8965,6 @@
       <c r="I114" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J114" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="K114" s="9" t="s">
         <v>322</v>
       </c>
@@ -9083,9 +9038,6 @@
       <c r="I115" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J115" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="K115" s="9" t="s">
         <v>322</v>
       </c>
@@ -9159,9 +9111,6 @@
       <c r="I116" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J116" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="K116" s="9" t="s">
         <v>322</v>
       </c>
@@ -9223,9 +9172,6 @@
       </c>
       <c r="I117" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="J117" s="9" t="s">
-        <v>350</v>
       </c>
       <c r="K117" s="9" t="s">
         <v>322</v>

--- a/curation/draft/collection/collection_specialization_VS.xlsx
+++ b/curation/draft/collection/collection_specialization_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B80EB9-7414-F442-A8B8-5E2BE53C51B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633BC8B0-BFD7-F046-8AE5-9F47AFBBEF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Collection_VS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_VS!$A$1:$AH$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_VS!$A$1:$AI$117</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="353">
   <si>
     <t>package_date</t>
   </si>
@@ -1092,6 +1092,9 @@
   </si>
   <si>
     <t>What was the location of the subject during the Systolic Blood Pressure measurement?</t>
+  </si>
+  <si>
+    <t>categories</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1193,14 +1196,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1505,12 +1500,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG117"/>
+  <dimension ref="A1:AH117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J129" sqref="J129"/>
+      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1521,32 +1516,32 @@
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" customWidth="1"/>
     <col min="9" max="9" width="22.1640625" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="48" customWidth="1"/>
-    <col min="12" max="12" width="22.1640625" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="37" style="1" customWidth="1"/>
-    <col min="16" max="16" width="37" customWidth="1"/>
-    <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" customWidth="1"/>
-    <col min="19" max="19" width="18.1640625" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" customWidth="1"/>
-    <col min="21" max="21" width="14.83203125" customWidth="1"/>
-    <col min="22" max="22" width="16.83203125" customWidth="1"/>
-    <col min="23" max="23" width="14.5" customWidth="1"/>
-    <col min="24" max="24" width="19.83203125" customWidth="1"/>
-    <col min="25" max="26" width="37" style="1" customWidth="1"/>
-    <col min="27" max="27" width="22.1640625" customWidth="1"/>
-    <col min="28" max="28" width="30" customWidth="1"/>
-    <col min="29" max="29" width="16.6640625" customWidth="1"/>
-    <col min="30" max="30" width="34.5" customWidth="1"/>
-    <col min="31" max="31" width="63.5" customWidth="1"/>
-    <col min="32" max="32" width="27.6640625" customWidth="1"/>
-    <col min="33" max="33" width="22.33203125" customWidth="1"/>
+    <col min="10" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="48" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="37" style="1" customWidth="1"/>
+    <col min="17" max="17" width="37" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="19" max="19" width="26.33203125" customWidth="1"/>
+    <col min="20" max="20" width="18.1640625" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" customWidth="1"/>
+    <col min="22" max="22" width="14.83203125" customWidth="1"/>
+    <col min="23" max="23" width="16.83203125" customWidth="1"/>
+    <col min="24" max="24" width="14.5" customWidth="1"/>
+    <col min="25" max="25" width="19.83203125" customWidth="1"/>
+    <col min="26" max="27" width="37" style="1" customWidth="1"/>
+    <col min="28" max="28" width="22.1640625" customWidth="1"/>
+    <col min="29" max="29" width="30" customWidth="1"/>
+    <col min="30" max="30" width="16.6640625" customWidth="1"/>
+    <col min="31" max="31" width="34.5" customWidth="1"/>
+    <col min="32" max="32" width="63.5" customWidth="1"/>
+    <col min="33" max="33" width="27.6640625" customWidth="1"/>
+    <col min="34" max="34" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1578,76 +1573,79 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>35</v>
@@ -1664,56 +1662,56 @@
       <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>257</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
       </c>
       <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>38</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>261</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>258</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>242</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>35</v>
@@ -1730,42 +1728,42 @@
       <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>257</v>
-      </c>
-      <c r="L3" t="s">
-        <v>40</v>
       </c>
       <c r="M3" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>202</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>42</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>43</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>10</v>
       </c>
-      <c r="Z3"/>
-      <c r="AD3" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA3"/>
       <c r="AE3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>45</v>
@@ -1788,42 +1786,42 @@
       <c r="I4" t="s">
         <v>276</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>278</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
       </c>
       <c r="M4" t="s">
         <v>40</v>
       </c>
       <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
         <v>47</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>202</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>42</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>43</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>10</v>
       </c>
-      <c r="Z4"/>
-      <c r="AD4" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA4"/>
       <c r="AE4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>45</v>
@@ -1846,45 +1844,45 @@
       <c r="I5" t="s">
         <v>276</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>278</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>48</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>49</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>50</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>46</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>37</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>51</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>4</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>2</v>
       </c>
-      <c r="Z5"/>
-      <c r="AD5" t="s">
+      <c r="AA5"/>
+      <c r="AE5" t="s">
         <v>72</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>45</v>
@@ -1907,56 +1905,56 @@
       <c r="I6" t="s">
         <v>276</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>278</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>53</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>54</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>243</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>56</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>37</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>38</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>3</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>57</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>58</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB6" t="s">
         <v>242</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>78</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>45</v>
@@ -1979,42 +1977,42 @@
       <c r="I7" t="s">
         <v>313</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>314</v>
-      </c>
-      <c r="L7" t="s">
-        <v>40</v>
       </c>
       <c r="M7" t="s">
         <v>40</v>
       </c>
       <c r="N7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>42</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>43</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>10</v>
       </c>
-      <c r="Z7"/>
-      <c r="AD7" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA7"/>
       <c r="AE7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>45</v>
@@ -2037,48 +2035,48 @@
       <c r="I8" t="s">
         <v>313</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>314</v>
-      </c>
-      <c r="L8" t="s">
-        <v>330</v>
       </c>
       <c r="M8" t="s">
         <v>330</v>
       </c>
       <c r="N8" t="s">
+        <v>330</v>
+      </c>
+      <c r="O8" t="s">
         <v>349</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>331</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>42</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>38</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>40</v>
       </c>
-      <c r="Z8"/>
-      <c r="AB8" t="s">
+      <c r="AA8"/>
+      <c r="AC8" t="s">
         <v>333</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>45</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>332</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>45</v>
@@ -2101,45 +2099,45 @@
       <c r="I9" t="s">
         <v>313</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>314</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
       </c>
       <c r="M9" t="s">
         <v>49</v>
       </c>
       <c r="N9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>3</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>37</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>51</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>4</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>2</v>
       </c>
-      <c r="Z9"/>
-      <c r="AD9" t="s">
+      <c r="AA9"/>
+      <c r="AE9" t="s">
         <v>72</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>45</v>
@@ -2162,56 +2160,56 @@
       <c r="I10" t="s">
         <v>313</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>314</v>
-      </c>
-      <c r="L10" t="s">
-        <v>54</v>
       </c>
       <c r="M10" t="s">
         <v>54</v>
       </c>
       <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" t="s">
         <v>243</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>4</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>37</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>38</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>3</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>57</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>58</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB10" t="s">
         <v>242</v>
       </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AE10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>62</v>
@@ -2234,42 +2232,42 @@
       <c r="I11" t="s">
         <v>276</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>289</v>
-      </c>
-      <c r="L11" t="s">
-        <v>40</v>
       </c>
       <c r="M11" t="s">
         <v>40</v>
       </c>
       <c r="N11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>42</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>43</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>10</v>
       </c>
-      <c r="Z11"/>
-      <c r="AD11" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA11"/>
       <c r="AE11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+      <c r="AF11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>62</v>
@@ -2292,53 +2290,53 @@
       <c r="I12" t="s">
         <v>276</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>289</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>251</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>98</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>99</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>42</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>38</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>50</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>101</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>102</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>242</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>98</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>62</v>
@@ -2361,56 +2359,56 @@
       <c r="I13" t="s">
         <v>276</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>289</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>64</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>65</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>3</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>42</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>38</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>50</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>68</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>69</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>242</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>65</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>62</v>
@@ -2433,39 +2431,39 @@
       <c r="I14" t="s">
         <v>276</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>289</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>79</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>49</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>50</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>4</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>37</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>71</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>3</v>
       </c>
-      <c r="Z14"/>
-      <c r="AD14" t="s">
+      <c r="AA14"/>
+      <c r="AE14" t="s">
         <v>72</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>62</v>
@@ -2488,54 +2486,54 @@
       <c r="I15" t="s">
         <v>276</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>289</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>80</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>54</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>244</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>5</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>37</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>38</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>10</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>74</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>75</v>
       </c>
-      <c r="Z15"/>
-      <c r="AB15" t="s">
+      <c r="AA15"/>
+      <c r="AC15" t="s">
         <v>76</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>77</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>78</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>81</v>
@@ -2558,42 +2556,42 @@
       <c r="I16" t="s">
         <v>276</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>290</v>
-      </c>
-      <c r="L16" t="s">
-        <v>40</v>
       </c>
       <c r="M16" t="s">
         <v>40</v>
       </c>
       <c r="N16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" t="s">
         <v>47</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>202</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>42</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>43</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>10</v>
       </c>
-      <c r="Z16"/>
-      <c r="AD16" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA16"/>
       <c r="AE16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>81</v>
@@ -2616,59 +2614,59 @@
       <c r="I17" t="s">
         <v>276</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>290</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>88</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>49</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>50</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>83</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>37</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>51</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>4</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>84</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>85</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>242</v>
       </c>
-      <c r="AD17" s="6" t="s">
+      <c r="AE17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>81</v>
@@ -2691,42 +2689,42 @@
       <c r="I18" t="s">
         <v>313</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>316</v>
-      </c>
-      <c r="L18" t="s">
-        <v>40</v>
       </c>
       <c r="M18" t="s">
         <v>40</v>
       </c>
       <c r="N18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" t="s">
         <v>47</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>42</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>43</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>10</v>
       </c>
-      <c r="Z18"/>
-      <c r="AD18" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA18"/>
       <c r="AE18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>45</v>
@@ -2749,48 +2747,48 @@
       <c r="I19" t="s">
         <v>313</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>316</v>
-      </c>
-      <c r="L19" t="s">
-        <v>330</v>
       </c>
       <c r="M19" t="s">
         <v>330</v>
       </c>
       <c r="N19" t="s">
+        <v>330</v>
+      </c>
+      <c r="O19" t="s">
         <v>349</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>331</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>42</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>38</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>40</v>
       </c>
-      <c r="Z19"/>
-      <c r="AB19" t="s">
+      <c r="AA19"/>
+      <c r="AC19" t="s">
         <v>83</v>
       </c>
-      <c r="AC19" s="7" t="s">
+      <c r="AD19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>332</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>81</v>
@@ -2813,56 +2811,56 @@
       <c r="I20" t="s">
         <v>313</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>316</v>
-      </c>
-      <c r="L20" t="s">
-        <v>49</v>
       </c>
       <c r="M20" t="s">
         <v>49</v>
       </c>
       <c r="N20" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" t="s">
         <v>50</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>3</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>37</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>38</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>20</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>84</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>242</v>
       </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AE20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>89</v>
@@ -2885,39 +2883,39 @@
       <c r="I21" t="s">
         <v>276</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>291</v>
-      </c>
-      <c r="L21" t="s">
-        <v>40</v>
       </c>
       <c r="M21" t="s">
         <v>40</v>
       </c>
       <c r="N21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" t="s">
         <v>47</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>202</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>1</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>43</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>10</v>
       </c>
-      <c r="Z21"/>
-      <c r="AD21" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA21"/>
       <c r="AE21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>89</v>
@@ -2940,45 +2938,45 @@
       <c r="I22" t="s">
         <v>276</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>291</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>94</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>49</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>50</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>91</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>2</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>37</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>51</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>4</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>2</v>
       </c>
-      <c r="Z22"/>
-      <c r="AD22" t="s">
+      <c r="AA22"/>
+      <c r="AE22" t="s">
         <v>72</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>89</v>
@@ -3001,56 +2999,56 @@
       <c r="I23" t="s">
         <v>276</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>291</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>95</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>54</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>245</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>92</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>3</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>37</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>38</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>2</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>74</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>75</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AA23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB23" t="s">
         <v>242</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>78</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>89</v>
@@ -3073,42 +3071,42 @@
       <c r="I24" t="s">
         <v>313</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>317</v>
-      </c>
-      <c r="L24" t="s">
-        <v>40</v>
       </c>
       <c r="M24" t="s">
         <v>40</v>
       </c>
       <c r="N24" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" t="s">
         <v>47</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>42</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>43</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>10</v>
       </c>
-      <c r="Z24"/>
-      <c r="AD24" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA24"/>
       <c r="AE24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>89</v>
@@ -3131,48 +3129,48 @@
       <c r="I25" t="s">
         <v>313</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>317</v>
-      </c>
-      <c r="L25" t="s">
-        <v>330</v>
       </c>
       <c r="M25" t="s">
         <v>330</v>
       </c>
       <c r="N25" t="s">
+        <v>330</v>
+      </c>
+      <c r="O25" t="s">
         <v>349</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>331</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>42</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>38</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>40</v>
       </c>
-      <c r="Z25"/>
-      <c r="AB25" t="s">
+      <c r="AA25"/>
+      <c r="AC25" t="s">
         <v>91</v>
       </c>
-      <c r="AC25" s="7" t="s">
+      <c r="AD25" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>332</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
         <v>89</v>
@@ -3195,45 +3193,45 @@
       <c r="I26" t="s">
         <v>313</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>317</v>
-      </c>
-      <c r="L26" t="s">
-        <v>49</v>
       </c>
       <c r="M26" t="s">
         <v>49</v>
       </c>
       <c r="N26" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" t="s">
         <v>50</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>3</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>37</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>51</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>4</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>2</v>
       </c>
-      <c r="Z26"/>
-      <c r="AD26" t="s">
+      <c r="AA26"/>
+      <c r="AE26" t="s">
         <v>72</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>89</v>
@@ -3256,56 +3254,56 @@
       <c r="I27" t="s">
         <v>313</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>317</v>
-      </c>
-      <c r="L27" t="s">
-        <v>54</v>
       </c>
       <c r="M27" t="s">
         <v>54</v>
       </c>
       <c r="N27" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" t="s">
         <v>245</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>4</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>37</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>38</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>2</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>74</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>75</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AA27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB27" t="s">
         <v>242</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>78</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
         <v>96</v>
@@ -3328,42 +3326,42 @@
       <c r="I28" t="s">
         <v>276</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>300</v>
-      </c>
-      <c r="L28" t="s">
-        <v>40</v>
       </c>
       <c r="M28" t="s">
         <v>40</v>
       </c>
       <c r="N28" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" t="s">
         <v>47</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>202</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>42</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>43</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>10</v>
       </c>
-      <c r="Z28"/>
-      <c r="AD28" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA28"/>
       <c r="AE28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="AF28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>96</v>
@@ -3386,56 +3384,56 @@
       <c r="I29" t="s">
         <v>276</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>300</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>97</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>98</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>99</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>100</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>2</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>42</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>38</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>50</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>101</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>102</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="Z29" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="AA29" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>242</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>98</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>96</v>
@@ -3458,56 +3456,56 @@
       <c r="I30" t="s">
         <v>276</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>300</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>103</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>65</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>66</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>67</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>3</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>42</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>38</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>50</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>68</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>69</v>
       </c>
-      <c r="Y30" s="1" t="s">
+      <c r="Z30" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="AA30" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
         <v>242</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>65</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AF30" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>96</v>
@@ -3530,56 +3528,56 @@
       <c r="I31" t="s">
         <v>276</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>300</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>104</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>105</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>106</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>107</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>4</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>42</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>38</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>10</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>108</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>109</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AA31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>242</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AE31" t="s">
         <v>105</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AF31" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>96</v>
@@ -3602,42 +3600,42 @@
       <c r="I32" t="s">
         <v>276</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>300</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>119</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>49</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>50</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>112</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>5</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>37</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>71</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>3</v>
       </c>
-      <c r="Z32"/>
-      <c r="AD32" t="s">
+      <c r="AA32"/>
+      <c r="AE32" t="s">
         <v>72</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AF32" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>96</v>
@@ -3660,54 +3658,54 @@
       <c r="I33" t="s">
         <v>276</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>300</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>121</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>54</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>246</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>113</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>6</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>37</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>38</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>10</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>74</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>75</v>
       </c>
-      <c r="Z33"/>
-      <c r="AB33" t="s">
+      <c r="AA33"/>
+      <c r="AC33" t="s">
         <v>114</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AD33" t="s">
         <v>115</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>78</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AF33" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
         <v>96</v>
@@ -3730,42 +3728,42 @@
       <c r="I34" t="s">
         <v>313</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>318</v>
-      </c>
-      <c r="L34" t="s">
-        <v>40</v>
       </c>
       <c r="M34" t="s">
         <v>40</v>
       </c>
       <c r="N34" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>1</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>42</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>43</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>10</v>
       </c>
-      <c r="Z34"/>
-      <c r="AD34" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA34"/>
       <c r="AE34" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
         <v>96</v>
@@ -3788,48 +3786,48 @@
       <c r="I35" t="s">
         <v>313</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>318</v>
-      </c>
-      <c r="L35" t="s">
-        <v>330</v>
       </c>
       <c r="M35" t="s">
         <v>330</v>
       </c>
       <c r="N35" t="s">
+        <v>330</v>
+      </c>
+      <c r="O35" t="s">
         <v>349</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>331</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>2</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>42</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>38</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>40</v>
       </c>
-      <c r="Z35"/>
-      <c r="AB35" t="s">
+      <c r="AA35"/>
+      <c r="AC35" t="s">
         <v>112</v>
       </c>
-      <c r="AC35" s="7" t="s">
+      <c r="AD35" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>332</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AF35" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
         <v>96</v>
@@ -3852,56 +3850,56 @@
       <c r="I36" t="s">
         <v>313</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>318</v>
-      </c>
-      <c r="L36" t="s">
-        <v>98</v>
       </c>
       <c r="M36" t="s">
         <v>98</v>
       </c>
       <c r="N36" t="s">
+        <v>98</v>
+      </c>
+      <c r="O36" t="s">
         <v>99</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>3</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>42</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>38</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>50</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>101</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>102</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="Z36" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="AA36" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AB36" t="s">
         <v>242</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AE36" t="s">
         <v>98</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AF36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" t="s">
         <v>96</v>
@@ -3924,56 +3922,56 @@
       <c r="I37" t="s">
         <v>313</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>318</v>
-      </c>
-      <c r="L37" t="s">
-        <v>65</v>
       </c>
       <c r="M37" t="s">
         <v>65</v>
       </c>
       <c r="N37" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" t="s">
         <v>66</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="P37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>4</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>42</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>38</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>50</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>68</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>69</v>
       </c>
-      <c r="Y37" s="1" t="s">
+      <c r="Z37" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Z37" s="1" t="s">
+      <c r="AA37" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AB37" t="s">
         <v>242</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AE37" t="s">
         <v>65</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AF37" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" t="s">
         <v>96</v>
@@ -3996,56 +3994,56 @@
       <c r="I38" t="s">
         <v>313</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>318</v>
-      </c>
-      <c r="L38" t="s">
-        <v>105</v>
       </c>
       <c r="M38" t="s">
         <v>105</v>
       </c>
       <c r="N38" t="s">
+        <v>105</v>
+      </c>
+      <c r="O38" t="s">
         <v>106</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>5</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>42</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>38</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>10</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>108</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>109</v>
       </c>
-      <c r="Y38" s="1" t="s">
+      <c r="Z38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="AA38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
         <v>242</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>105</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AF38" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" t="s">
         <v>96</v>
@@ -4068,42 +4066,42 @@
       <c r="I39" t="s">
         <v>313</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>318</v>
-      </c>
-      <c r="L39" t="s">
-        <v>49</v>
       </c>
       <c r="M39" t="s">
         <v>49</v>
       </c>
       <c r="N39" t="s">
+        <v>49</v>
+      </c>
+      <c r="O39" t="s">
         <v>50</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>6</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>37</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>71</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>3</v>
       </c>
-      <c r="Z39"/>
-      <c r="AD39" t="s">
+      <c r="AA39"/>
+      <c r="AE39" t="s">
         <v>72</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AF39" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
         <v>96</v>
@@ -4126,54 +4124,54 @@
       <c r="I40" t="s">
         <v>313</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>318</v>
-      </c>
-      <c r="L40" t="s">
-        <v>54</v>
       </c>
       <c r="M40" t="s">
         <v>54</v>
       </c>
       <c r="N40" t="s">
+        <v>54</v>
+      </c>
+      <c r="O40" t="s">
         <v>246</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>7</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>37</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>38</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>10</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>74</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>75</v>
       </c>
-      <c r="Z40"/>
-      <c r="AB40" t="s">
+      <c r="AA40"/>
+      <c r="AC40" t="s">
         <v>114</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AD40" t="s">
         <v>115</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AE40" t="s">
         <v>78</v>
       </c>
-      <c r="AE40" t="s">
+      <c r="AF40" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
         <v>123</v>
@@ -4196,42 +4194,42 @@
       <c r="I41" t="s">
         <v>276</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>292</v>
-      </c>
-      <c r="L41" t="s">
-        <v>40</v>
       </c>
       <c r="M41" t="s">
         <v>40</v>
       </c>
       <c r="N41" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41" t="s">
         <v>47</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>202</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>1</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>42</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>43</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>10</v>
       </c>
-      <c r="Z41"/>
-      <c r="AD41" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA41"/>
       <c r="AE41" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" t="s">
         <v>123</v>
@@ -4254,54 +4252,54 @@
       <c r="I42" t="s">
         <v>276</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>292</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>125</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>126</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>127</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>128</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>2</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>42</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>38</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>50</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>129</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>130</v>
       </c>
-      <c r="Z42"/>
-      <c r="AB42" t="s">
+      <c r="AA42"/>
+      <c r="AC42" t="s">
         <v>131</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AD42" t="s">
         <v>132</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AE42" t="s">
         <v>126</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AF42" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" t="s">
         <v>141</v>
@@ -4324,56 +4322,56 @@
       <c r="I43" t="s">
         <v>276</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>292</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>133</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>65</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>66</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>67</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>3</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>42</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>38</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>50</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>68</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>69</v>
       </c>
-      <c r="Y43" s="1" t="s">
+      <c r="Z43" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Z43" s="1" t="s">
+      <c r="AA43" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>242</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AE43" t="s">
         <v>65</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="AF43" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" t="s">
         <v>123</v>
@@ -4396,56 +4394,56 @@
       <c r="I44" t="s">
         <v>276</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>292</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>136</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>105</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>106</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>107</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>4</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>42</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>38</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>10</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>108</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>109</v>
       </c>
-      <c r="Y44" s="1" t="s">
+      <c r="Z44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z44" s="1" t="s">
+      <c r="AA44" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>242</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AE44" t="s">
         <v>105</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="AF44" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" t="s">
         <v>123</v>
@@ -4468,45 +4466,45 @@
       <c r="I45" t="s">
         <v>276</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>292</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>139</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>49</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>50</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>137</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>5</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>37</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>51</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>4</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>1</v>
       </c>
-      <c r="Z45"/>
-      <c r="AD45" t="s">
+      <c r="AA45"/>
+      <c r="AE45" t="s">
         <v>72</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AF45" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" t="s">
         <v>123</v>
@@ -4529,53 +4527,53 @@
       <c r="I46" t="s">
         <v>276</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>292</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>140</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>54</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>247</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>138</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>6</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>37</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>38</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>10</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>74</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>75</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AC46" t="s">
         <v>219</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AD46" t="s">
         <v>266</v>
       </c>
-      <c r="AD46" s="6" t="s">
+      <c r="AE46" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="AF46" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" t="s">
         <v>123</v>
@@ -4598,42 +4596,42 @@
       <c r="I47" t="s">
         <v>313</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>319</v>
-      </c>
-      <c r="L47" t="s">
-        <v>40</v>
       </c>
       <c r="M47" t="s">
         <v>40</v>
       </c>
       <c r="N47" t="s">
+        <v>40</v>
+      </c>
+      <c r="O47" t="s">
         <v>47</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>202</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>1</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>42</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>43</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>10</v>
       </c>
-      <c r="Z47"/>
-      <c r="AD47" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA47"/>
       <c r="AE47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" t="s">
         <v>123</v>
@@ -4656,48 +4654,48 @@
       <c r="I48" t="s">
         <v>313</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>319</v>
-      </c>
-      <c r="L48" t="s">
-        <v>330</v>
       </c>
       <c r="M48" t="s">
         <v>330</v>
       </c>
       <c r="N48" t="s">
+        <v>330</v>
+      </c>
+      <c r="O48" t="s">
         <v>349</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>331</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>2</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>42</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>38</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>40</v>
       </c>
-      <c r="Z48"/>
-      <c r="AB48" t="s">
+      <c r="AA48"/>
+      <c r="AC48" t="s">
         <v>137</v>
       </c>
-      <c r="AC48" s="7" t="s">
+      <c r="AD48" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AD48" t="s">
+      <c r="AE48" t="s">
         <v>332</v>
       </c>
-      <c r="AE48" t="s">
+      <c r="AF48" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" t="s">
         <v>123</v>
@@ -4720,54 +4718,54 @@
       <c r="I49" t="s">
         <v>313</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>319</v>
-      </c>
-      <c r="L49" t="s">
-        <v>126</v>
       </c>
       <c r="M49" t="s">
         <v>126</v>
       </c>
       <c r="N49" t="s">
+        <v>126</v>
+      </c>
+      <c r="O49" t="s">
         <v>127</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>128</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>3</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>42</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>38</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>50</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>129</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>130</v>
       </c>
-      <c r="Z49"/>
-      <c r="AB49" t="s">
+      <c r="AA49"/>
+      <c r="AC49" t="s">
         <v>131</v>
       </c>
-      <c r="AC49" t="s">
+      <c r="AD49" t="s">
         <v>132</v>
       </c>
-      <c r="AD49" t="s">
+      <c r="AE49" t="s">
         <v>126</v>
       </c>
-      <c r="AE49" t="s">
+      <c r="AF49" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" t="s">
         <v>123</v>
@@ -4790,56 +4788,56 @@
       <c r="I50" t="s">
         <v>313</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>319</v>
-      </c>
-      <c r="L50" t="s">
-        <v>65</v>
       </c>
       <c r="M50" t="s">
         <v>65</v>
       </c>
       <c r="N50" t="s">
+        <v>65</v>
+      </c>
+      <c r="O50" t="s">
         <v>66</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>67</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>4</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>42</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>38</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>50</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>68</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>69</v>
       </c>
-      <c r="Y50" s="1" t="s">
+      <c r="Z50" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Z50" s="1" t="s">
+      <c r="AA50" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>242</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AE50" t="s">
         <v>65</v>
       </c>
-      <c r="AE50" t="s">
+      <c r="AF50" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" t="s">
         <v>123</v>
@@ -4862,56 +4860,56 @@
       <c r="I51" t="s">
         <v>313</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>319</v>
-      </c>
-      <c r="L51" t="s">
-        <v>105</v>
       </c>
       <c r="M51" t="s">
         <v>105</v>
       </c>
       <c r="N51" t="s">
+        <v>105</v>
+      </c>
+      <c r="O51" t="s">
         <v>106</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>107</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>5</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>42</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>38</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>10</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>108</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>109</v>
       </c>
-      <c r="Y51" s="1" t="s">
+      <c r="Z51" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z51" s="1" t="s">
+      <c r="AA51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>242</v>
       </c>
-      <c r="AD51" t="s">
+      <c r="AE51" t="s">
         <v>105</v>
       </c>
-      <c r="AE51" t="s">
+      <c r="AF51" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" t="s">
         <v>123</v>
@@ -4934,42 +4932,42 @@
       <c r="I52" t="s">
         <v>313</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>319</v>
-      </c>
-      <c r="L52" t="s">
-        <v>49</v>
       </c>
       <c r="M52" t="s">
         <v>49</v>
       </c>
       <c r="N52" t="s">
+        <v>49</v>
+      </c>
+      <c r="O52" t="s">
         <v>50</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>137</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>6</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>37</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>71</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>3</v>
       </c>
-      <c r="Z52"/>
-      <c r="AD52" t="s">
+      <c r="AA52"/>
+      <c r="AE52" t="s">
         <v>72</v>
       </c>
-      <c r="AE52" t="s">
+      <c r="AF52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" t="s">
         <v>123</v>
@@ -4992,53 +4990,53 @@
       <c r="I53" t="s">
         <v>313</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>319</v>
-      </c>
-      <c r="L53" t="s">
-        <v>54</v>
       </c>
       <c r="M53" t="s">
         <v>54</v>
       </c>
       <c r="N53" t="s">
+        <v>54</v>
+      </c>
+      <c r="O53" t="s">
         <v>247</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>138</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>7</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>37</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>38</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>10</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>74</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>75</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AC53" t="s">
         <v>219</v>
       </c>
-      <c r="AC53" t="s">
+      <c r="AD53" t="s">
         <v>266</v>
       </c>
-      <c r="AD53" s="6" t="s">
+      <c r="AE53" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AE53" t="s">
+      <c r="AF53" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" t="s">
         <v>141</v>
@@ -5061,42 +5059,42 @@
       <c r="I54" t="s">
         <v>276</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>293</v>
-      </c>
-      <c r="L54" t="s">
-        <v>40</v>
       </c>
       <c r="M54" t="s">
         <v>40</v>
       </c>
       <c r="N54" t="s">
+        <v>40</v>
+      </c>
+      <c r="O54" t="s">
         <v>47</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>202</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>1</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>42</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>43</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>10</v>
       </c>
-      <c r="Z54"/>
-      <c r="AD54" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA54"/>
       <c r="AE54" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="AF54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" t="s">
         <v>141</v>
@@ -5119,56 +5117,56 @@
       <c r="I55" t="s">
         <v>276</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>293</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>143</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>98</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>99</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>100</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>2</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>42</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>38</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>50</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>101</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>102</v>
       </c>
-      <c r="Y55" s="1" t="s">
+      <c r="Z55" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Z55" s="1" t="s">
+      <c r="AA55" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>242</v>
       </c>
-      <c r="AD55" t="s">
+      <c r="AE55" t="s">
         <v>98</v>
       </c>
-      <c r="AE55" t="s">
+      <c r="AF55" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
         <v>141</v>
@@ -5191,56 +5189,56 @@
       <c r="I56" t="s">
         <v>276</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>293</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>144</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>65</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>66</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>67</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>3</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>42</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>38</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>50</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>68</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>69</v>
       </c>
-      <c r="Y56" s="1" t="s">
+      <c r="Z56" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Z56" s="1" t="s">
+      <c r="AA56" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>242</v>
       </c>
-      <c r="AD56" t="s">
+      <c r="AE56" t="s">
         <v>65</v>
       </c>
-      <c r="AE56" t="s">
+      <c r="AF56" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
         <v>141</v>
@@ -5263,56 +5261,56 @@
       <c r="I57" t="s">
         <v>276</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>293</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>145</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>105</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>106</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>107</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>4</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>42</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>38</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>10</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>108</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>109</v>
       </c>
-      <c r="Y57" s="1" t="s">
+      <c r="Z57" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z57" s="1" t="s">
+      <c r="AA57" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>242</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="AE57" t="s">
         <v>105</v>
       </c>
-      <c r="AE57" t="s">
+      <c r="AF57" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" t="s">
         <v>141</v>
@@ -5335,45 +5333,45 @@
       <c r="I58" t="s">
         <v>276</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>293</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>149</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>49</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>50</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>146</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>5</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>37</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>51</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>4</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>1</v>
       </c>
-      <c r="Z58"/>
-      <c r="AD58" t="s">
+      <c r="AA58"/>
+      <c r="AE58" t="s">
         <v>72</v>
       </c>
-      <c r="AE58" t="s">
+      <c r="AF58" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" t="s">
         <v>141</v>
@@ -5396,54 +5394,54 @@
       <c r="I59" t="s">
         <v>276</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>293</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>150</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>54</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>246</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>148</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>6</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>37</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>38</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>2</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>74</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>75</v>
       </c>
-      <c r="Z59"/>
-      <c r="AB59" t="s">
+      <c r="AA59"/>
+      <c r="AC59" t="s">
         <v>114</v>
       </c>
-      <c r="AC59" t="s">
+      <c r="AD59" t="s">
         <v>115</v>
       </c>
-      <c r="AD59" t="s">
+      <c r="AE59" t="s">
         <v>78</v>
       </c>
-      <c r="AE59" t="s">
+      <c r="AF59" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" t="s">
         <v>160</v>
@@ -5466,42 +5464,42 @@
       <c r="I60" t="s">
         <v>313</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>320</v>
-      </c>
-      <c r="L60" t="s">
-        <v>40</v>
       </c>
       <c r="M60" t="s">
         <v>40</v>
       </c>
       <c r="N60" t="s">
+        <v>40</v>
+      </c>
+      <c r="O60" t="s">
         <v>47</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="P60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>1</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>42</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>43</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>10</v>
       </c>
-      <c r="Z60"/>
-      <c r="AD60" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA60"/>
       <c r="AE60" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" t="s">
         <v>160</v>
@@ -5524,48 +5522,48 @@
       <c r="I61" t="s">
         <v>313</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>320</v>
-      </c>
-      <c r="L61" t="s">
-        <v>330</v>
       </c>
       <c r="M61" t="s">
         <v>330</v>
       </c>
       <c r="N61" t="s">
+        <v>330</v>
+      </c>
+      <c r="O61" t="s">
         <v>349</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>331</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>2</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>42</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>38</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>40</v>
       </c>
-      <c r="Z61"/>
-      <c r="AB61" t="s">
+      <c r="AA61"/>
+      <c r="AC61" t="s">
         <v>146</v>
       </c>
-      <c r="AC61" t="s">
+      <c r="AD61" t="s">
         <v>141</v>
       </c>
-      <c r="AD61" t="s">
+      <c r="AE61" t="s">
         <v>332</v>
       </c>
-      <c r="AE61" t="s">
+      <c r="AF61" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" t="s">
         <v>141</v>
@@ -5588,56 +5586,56 @@
       <c r="I62" t="s">
         <v>313</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>320</v>
-      </c>
-      <c r="L62" t="s">
-        <v>98</v>
       </c>
       <c r="M62" t="s">
         <v>98</v>
       </c>
       <c r="N62" t="s">
+        <v>98</v>
+      </c>
+      <c r="O62" t="s">
         <v>99</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="P62" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>3</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>42</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>38</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>50</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>101</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>102</v>
       </c>
-      <c r="Y62" s="1" t="s">
+      <c r="Z62" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Z62" s="1" t="s">
+      <c r="AA62" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>242</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AE62" t="s">
         <v>98</v>
       </c>
-      <c r="AE62" t="s">
+      <c r="AF62" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" t="s">
         <v>141</v>
@@ -5660,56 +5658,56 @@
       <c r="I63" t="s">
         <v>313</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>320</v>
-      </c>
-      <c r="L63" t="s">
-        <v>65</v>
       </c>
       <c r="M63" t="s">
         <v>65</v>
       </c>
       <c r="N63" t="s">
+        <v>65</v>
+      </c>
+      <c r="O63" t="s">
         <v>66</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="P63" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>4</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>42</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>38</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>50</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>68</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>69</v>
       </c>
-      <c r="Y63" s="1" t="s">
+      <c r="Z63" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Z63" s="1" t="s">
+      <c r="AA63" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>242</v>
       </c>
-      <c r="AD63" t="s">
+      <c r="AE63" t="s">
         <v>65</v>
       </c>
-      <c r="AE63" t="s">
+      <c r="AF63" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" t="s">
         <v>141</v>
@@ -5732,56 +5730,56 @@
       <c r="I64" t="s">
         <v>313</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>320</v>
-      </c>
-      <c r="L64" t="s">
-        <v>105</v>
       </c>
       <c r="M64" t="s">
         <v>105</v>
       </c>
       <c r="N64" t="s">
+        <v>105</v>
+      </c>
+      <c r="O64" t="s">
         <v>106</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="P64" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>5</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>42</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>38</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>10</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>108</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>109</v>
       </c>
-      <c r="Y64" s="1" t="s">
+      <c r="Z64" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z64" s="1" t="s">
+      <c r="AA64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>242</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AE64" t="s">
         <v>105</v>
       </c>
-      <c r="AE64" t="s">
+      <c r="AF64" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" t="s">
         <v>141</v>
@@ -5804,45 +5802,45 @@
       <c r="I65" t="s">
         <v>313</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>320</v>
-      </c>
-      <c r="L65" t="s">
-        <v>49</v>
       </c>
       <c r="M65" t="s">
         <v>49</v>
       </c>
       <c r="N65" t="s">
+        <v>49</v>
+      </c>
+      <c r="O65" t="s">
         <v>50</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="P65" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>6</v>
       </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>37</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>51</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>4</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>1</v>
       </c>
-      <c r="Z65"/>
-      <c r="AD65" t="s">
+      <c r="AA65"/>
+      <c r="AE65" t="s">
         <v>72</v>
       </c>
-      <c r="AE65" t="s">
+      <c r="AF65" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" t="s">
         <v>141</v>
@@ -5865,54 +5863,54 @@
       <c r="I66" t="s">
         <v>313</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>320</v>
-      </c>
-      <c r="L66" t="s">
-        <v>54</v>
       </c>
       <c r="M66" t="s">
         <v>54</v>
       </c>
       <c r="N66" t="s">
+        <v>54</v>
+      </c>
+      <c r="O66" t="s">
         <v>246</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="P66" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>7</v>
       </c>
-      <c r="R66" t="s">
+      <c r="S66" t="s">
         <v>37</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>38</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>2</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>74</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>75</v>
       </c>
-      <c r="Z66"/>
-      <c r="AB66" t="s">
+      <c r="AA66"/>
+      <c r="AC66" t="s">
         <v>114</v>
       </c>
-      <c r="AC66" t="s">
+      <c r="AD66" t="s">
         <v>115</v>
       </c>
-      <c r="AD66" t="s">
+      <c r="AE66" t="s">
         <v>78</v>
       </c>
-      <c r="AE66" t="s">
+      <c r="AF66" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" t="s">
         <v>151</v>
@@ -5935,42 +5933,42 @@
       <c r="I67" t="s">
         <v>276</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>294</v>
-      </c>
-      <c r="L67" t="s">
-        <v>40</v>
       </c>
       <c r="M67" t="s">
         <v>40</v>
       </c>
       <c r="N67" t="s">
+        <v>40</v>
+      </c>
+      <c r="O67" t="s">
         <v>47</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>202</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>1</v>
       </c>
-      <c r="R67" t="s">
+      <c r="S67" t="s">
         <v>42</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>43</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>10</v>
       </c>
-      <c r="Z67"/>
-      <c r="AD67" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA67"/>
       <c r="AE67" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" t="s">
         <v>151</v>
@@ -5993,42 +5991,42 @@
       <c r="I68" t="s">
         <v>276</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>294</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>158</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>49</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>50</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>153</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>2</v>
       </c>
-      <c r="R68" t="s">
+      <c r="S68" t="s">
         <v>37</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>71</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>2</v>
       </c>
-      <c r="Z68"/>
-      <c r="AD68" t="s">
+      <c r="AA68"/>
+      <c r="AE68" t="s">
         <v>72</v>
       </c>
-      <c r="AE68" t="s">
+      <c r="AF68" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" t="s">
         <v>151</v>
@@ -6051,54 +6049,54 @@
       <c r="I69" t="s">
         <v>276</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>294</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>159</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>54</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>246</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>155</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>3</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" t="s">
         <v>37</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>38</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>10</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>74</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>75</v>
       </c>
-      <c r="Z69"/>
-      <c r="AB69" t="s">
+      <c r="AA69"/>
+      <c r="AC69" t="s">
         <v>156</v>
       </c>
-      <c r="AC69" t="s">
+      <c r="AD69" t="s">
         <v>157</v>
       </c>
-      <c r="AD69" t="s">
+      <c r="AE69" t="s">
         <v>78</v>
       </c>
-      <c r="AE69" t="s">
+      <c r="AF69" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" t="s">
         <v>151</v>
@@ -6121,42 +6119,42 @@
       <c r="I70" t="s">
         <v>313</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>321</v>
-      </c>
-      <c r="L70" t="s">
-        <v>40</v>
       </c>
       <c r="M70" t="s">
         <v>40</v>
       </c>
       <c r="N70" t="s">
+        <v>40</v>
+      </c>
+      <c r="O70" t="s">
         <v>47</v>
       </c>
-      <c r="O70" s="1" t="s">
+      <c r="P70" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>1</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>42</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>43</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>10</v>
       </c>
-      <c r="Z70"/>
-      <c r="AD70" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA70"/>
       <c r="AE70" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="71" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" t="s">
         <v>151</v>
@@ -6179,48 +6177,48 @@
       <c r="I71" t="s">
         <v>313</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>321</v>
-      </c>
-      <c r="L71" t="s">
-        <v>330</v>
       </c>
       <c r="M71" t="s">
         <v>330</v>
       </c>
       <c r="N71" t="s">
+        <v>330</v>
+      </c>
+      <c r="O71" t="s">
         <v>349</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>331</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>2</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>42</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>38</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>40</v>
       </c>
-      <c r="Z71"/>
-      <c r="AB71" t="s">
+      <c r="AA71"/>
+      <c r="AC71" t="s">
         <v>153</v>
       </c>
-      <c r="AC71" s="7" t="s">
+      <c r="AD71" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AD71" t="s">
+      <c r="AE71" t="s">
         <v>332</v>
       </c>
-      <c r="AE71" t="s">
+      <c r="AF71" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" t="s">
         <v>151</v>
@@ -6243,45 +6241,45 @@
       <c r="I72" t="s">
         <v>313</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>321</v>
-      </c>
-      <c r="L72" t="s">
-        <v>49</v>
       </c>
       <c r="M72" t="s">
         <v>49</v>
       </c>
       <c r="N72" t="s">
+        <v>49</v>
+      </c>
+      <c r="O72" t="s">
         <v>50</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="P72" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>3</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>37</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>51</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>4</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>1</v>
       </c>
-      <c r="Z72"/>
-      <c r="AD72" t="s">
+      <c r="AA72"/>
+      <c r="AE72" t="s">
         <v>72</v>
       </c>
-      <c r="AE72" t="s">
+      <c r="AF72" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" t="s">
         <v>151</v>
@@ -6304,54 +6302,54 @@
       <c r="I73" t="s">
         <v>313</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>321</v>
-      </c>
-      <c r="L73" t="s">
-        <v>54</v>
       </c>
       <c r="M73" t="s">
         <v>54</v>
       </c>
       <c r="N73" t="s">
+        <v>54</v>
+      </c>
+      <c r="O73" t="s">
         <v>246</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="P73" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>4</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>37</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>38</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>2</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>74</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>75</v>
       </c>
-      <c r="Z73"/>
-      <c r="AB73" t="s">
+      <c r="AA73"/>
+      <c r="AC73" t="s">
         <v>156</v>
       </c>
-      <c r="AC73" t="s">
+      <c r="AD73" t="s">
         <v>157</v>
       </c>
-      <c r="AD73" t="s">
+      <c r="AE73" t="s">
         <v>78</v>
       </c>
-      <c r="AE73" t="s">
+      <c r="AF73" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" t="s">
         <v>160</v>
@@ -6374,42 +6372,42 @@
       <c r="I74" t="s">
         <v>276</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>295</v>
-      </c>
-      <c r="L74" t="s">
-        <v>40</v>
       </c>
       <c r="M74" t="s">
         <v>40</v>
       </c>
       <c r="N74" t="s">
+        <v>40</v>
+      </c>
+      <c r="O74" t="s">
         <v>47</v>
       </c>
-      <c r="O74" s="1" t="s">
+      <c r="P74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>1</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>42</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>43</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <v>10</v>
       </c>
-      <c r="Z74"/>
-      <c r="AD74" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA74"/>
       <c r="AE74" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="75" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+      <c r="AF74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" t="s">
         <v>160</v>
@@ -6432,56 +6430,56 @@
       <c r="I75" t="s">
         <v>276</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>295</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>250</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>98</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>99</v>
       </c>
-      <c r="O75" s="1" t="s">
+      <c r="P75" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>2</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>42</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>38</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <v>50</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>101</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>102</v>
       </c>
-      <c r="Y75" s="1" t="s">
+      <c r="Z75" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Z75" s="1" t="s">
+      <c r="AA75" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>242</v>
       </c>
-      <c r="AD75" t="s">
+      <c r="AE75" t="s">
         <v>98</v>
       </c>
-      <c r="AE75" t="s">
+      <c r="AF75" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" t="s">
         <v>160</v>
@@ -6504,56 +6502,56 @@
       <c r="I76" t="s">
         <v>276</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>295</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>162</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>65</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>66</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="P76" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>3</v>
       </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
         <v>42</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>38</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>10</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>68</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>69</v>
       </c>
-      <c r="Y76" s="1" t="s">
+      <c r="Z76" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Z76" s="1" t="s">
+      <c r="AA76" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>242</v>
       </c>
-      <c r="AD76" t="s">
+      <c r="AE76" t="s">
         <v>65</v>
       </c>
-      <c r="AE76" t="s">
+      <c r="AF76" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" t="s">
         <v>160</v>
@@ -6576,42 +6574,42 @@
       <c r="I77" t="s">
         <v>276</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>295</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>165</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>49</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>50</v>
       </c>
-      <c r="O77" s="1" t="s">
+      <c r="P77" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>4</v>
       </c>
-      <c r="R77" t="s">
+      <c r="S77" t="s">
         <v>37</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>71</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>3</v>
       </c>
-      <c r="Z77"/>
-      <c r="AD77" t="s">
+      <c r="AA77"/>
+      <c r="AE77" t="s">
         <v>72</v>
       </c>
-      <c r="AE77" t="s">
+      <c r="AF77" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" t="s">
         <v>62</v>
@@ -6634,54 +6632,54 @@
       <c r="I78" t="s">
         <v>276</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>295</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>166</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>54</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>244</v>
       </c>
-      <c r="O78" s="1" t="s">
+      <c r="P78" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>5</v>
       </c>
-      <c r="R78" t="s">
+      <c r="S78" t="s">
         <v>37</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>38</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>10</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>74</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>75</v>
       </c>
-      <c r="Z78"/>
-      <c r="AB78" t="s">
+      <c r="AA78"/>
+      <c r="AC78" t="s">
         <v>76</v>
       </c>
-      <c r="AC78" t="s">
+      <c r="AD78" t="s">
         <v>77</v>
       </c>
-      <c r="AD78" t="s">
+      <c r="AE78" t="s">
         <v>78</v>
       </c>
-      <c r="AE78" t="s">
+      <c r="AF78" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" t="s">
         <v>167</v>
@@ -6704,42 +6702,42 @@
       <c r="I79" t="s">
         <v>276</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>296</v>
-      </c>
-      <c r="L79" t="s">
-        <v>40</v>
       </c>
       <c r="M79" t="s">
         <v>40</v>
       </c>
       <c r="N79" t="s">
+        <v>40</v>
+      </c>
+      <c r="O79" t="s">
         <v>47</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>202</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>1</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>42</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>43</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <v>10</v>
       </c>
-      <c r="Z79"/>
-      <c r="AD79" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA79"/>
       <c r="AE79" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF79" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" t="s">
         <v>167</v>
@@ -6762,45 +6760,45 @@
       <c r="I80" t="s">
         <v>276</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>296</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>179</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>49</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>50</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>169</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>2</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
         <v>37</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" t="s">
         <v>51</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <v>4</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>1</v>
       </c>
-      <c r="Z80"/>
-      <c r="AD80" t="s">
+      <c r="AA80"/>
+      <c r="AE80" t="s">
         <v>72</v>
       </c>
-      <c r="AE80" t="s">
+      <c r="AF80" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" t="s">
         <v>167</v>
@@ -6823,56 +6821,56 @@
       <c r="I81" t="s">
         <v>276</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>296</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>180</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>54</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>55</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>171</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>3</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>37</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>38</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>2</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>74</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>75</v>
       </c>
-      <c r="Y81" s="1" t="s">
+      <c r="Z81" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Z81" s="1" t="s">
+      <c r="AA81" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AA81" t="s">
+      <c r="AB81" t="s">
         <v>242</v>
       </c>
-      <c r="AD81" t="s">
+      <c r="AE81" t="s">
         <v>78</v>
       </c>
-      <c r="AE81" t="s">
+      <c r="AF81" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" t="s">
         <v>167</v>
@@ -6895,56 +6893,56 @@
       <c r="I82" t="s">
         <v>276</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>296</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>175</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>65</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>66</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>67</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <v>4</v>
       </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
         <v>42</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>38</v>
       </c>
-      <c r="T82">
+      <c r="U82">
         <v>11</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>68</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>69</v>
       </c>
-      <c r="Y82" s="1" t="s">
+      <c r="Z82" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="Z82" s="1" t="s">
+      <c r="AA82" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AA82" t="s">
+      <c r="AB82" t="s">
         <v>242</v>
       </c>
-      <c r="AD82" t="s">
+      <c r="AE82" t="s">
         <v>65</v>
       </c>
-      <c r="AE82" t="s">
+      <c r="AF82" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" t="s">
         <v>167</v>
@@ -6967,42 +6965,42 @@
       <c r="I83" t="s">
         <v>313</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>323</v>
-      </c>
-      <c r="L83" t="s">
-        <v>40</v>
       </c>
       <c r="M83" t="s">
         <v>40</v>
       </c>
       <c r="N83" t="s">
+        <v>40</v>
+      </c>
+      <c r="O83" t="s">
         <v>47</v>
       </c>
-      <c r="O83" s="1" t="s">
+      <c r="P83" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <v>1</v>
       </c>
-      <c r="R83" t="s">
+      <c r="S83" t="s">
         <v>42</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>43</v>
       </c>
-      <c r="T83">
+      <c r="U83">
         <v>10</v>
       </c>
-      <c r="Z83"/>
-      <c r="AD83" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA83"/>
       <c r="AE83" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="84" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" t="s">
         <v>167</v>
@@ -7025,48 +7023,48 @@
       <c r="I84" t="s">
         <v>313</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>323</v>
-      </c>
-      <c r="L84" t="s">
-        <v>330</v>
       </c>
       <c r="M84" t="s">
         <v>330</v>
       </c>
       <c r="N84" t="s">
+        <v>330</v>
+      </c>
+      <c r="O84" t="s">
         <v>349</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>331</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <v>2</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>42</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>38</v>
       </c>
-      <c r="T84">
+      <c r="U84">
         <v>40</v>
       </c>
-      <c r="Z84"/>
-      <c r="AB84" t="s">
+      <c r="AA84"/>
+      <c r="AC84" t="s">
         <v>169</v>
       </c>
-      <c r="AC84" s="7" t="s">
+      <c r="AD84" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="AD84" t="s">
+      <c r="AE84" t="s">
         <v>332</v>
       </c>
-      <c r="AE84" t="s">
+      <c r="AF84" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" t="s">
         <v>167</v>
@@ -7089,45 +7087,45 @@
       <c r="I85" t="s">
         <v>313</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>323</v>
-      </c>
-      <c r="L85" t="s">
-        <v>49</v>
       </c>
       <c r="M85" t="s">
         <v>49</v>
       </c>
       <c r="N85" t="s">
+        <v>49</v>
+      </c>
+      <c r="O85" t="s">
         <v>50</v>
       </c>
-      <c r="O85" s="1" t="s">
+      <c r="P85" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>3</v>
       </c>
-      <c r="R85" t="s">
+      <c r="S85" t="s">
         <v>37</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" t="s">
         <v>51</v>
       </c>
-      <c r="T85">
+      <c r="U85">
         <v>4</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>1</v>
       </c>
-      <c r="Z85"/>
-      <c r="AD85" t="s">
+      <c r="AA85"/>
+      <c r="AE85" t="s">
         <v>72</v>
       </c>
-      <c r="AE85" t="s">
+      <c r="AF85" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" t="s">
         <v>167</v>
@@ -7150,56 +7148,56 @@
       <c r="I86" t="s">
         <v>313</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>323</v>
-      </c>
-      <c r="L86" t="s">
-        <v>54</v>
       </c>
       <c r="M86" t="s">
         <v>54</v>
       </c>
       <c r="N86" t="s">
+        <v>54</v>
+      </c>
+      <c r="O86" t="s">
         <v>55</v>
       </c>
-      <c r="O86" s="1" t="s">
+      <c r="P86" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <v>4</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>37</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>38</v>
       </c>
-      <c r="T86">
+      <c r="U86">
         <v>2</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>74</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>75</v>
       </c>
-      <c r="Y86" s="1" t="s">
+      <c r="Z86" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Z86" s="1" t="s">
+      <c r="AA86" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AA86" t="s">
+      <c r="AB86" t="s">
         <v>242</v>
       </c>
-      <c r="AD86" t="s">
+      <c r="AE86" t="s">
         <v>78</v>
       </c>
-      <c r="AE86" t="s">
+      <c r="AF86" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" t="s">
         <v>167</v>
@@ -7222,56 +7220,56 @@
       <c r="I87" t="s">
         <v>313</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>323</v>
-      </c>
-      <c r="L87" t="s">
-        <v>65</v>
       </c>
       <c r="M87" t="s">
         <v>65</v>
       </c>
       <c r="N87" t="s">
+        <v>65</v>
+      </c>
+      <c r="O87" t="s">
         <v>66</v>
       </c>
-      <c r="O87" s="1" t="s">
+      <c r="P87" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <v>5</v>
       </c>
-      <c r="R87" t="s">
+      <c r="S87" t="s">
         <v>42</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>38</v>
       </c>
-      <c r="T87">
+      <c r="U87">
         <v>11</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>68</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>69</v>
       </c>
-      <c r="Y87" s="1" t="s">
+      <c r="Z87" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="Z87" s="1" t="s">
+      <c r="AA87" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AA87" t="s">
+      <c r="AB87" t="s">
         <v>242</v>
       </c>
-      <c r="AD87" t="s">
+      <c r="AE87" t="s">
         <v>65</v>
       </c>
-      <c r="AE87" t="s">
+      <c r="AF87" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" t="s">
         <v>183</v>
@@ -7294,42 +7292,42 @@
       <c r="I88" t="s">
         <v>276</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>297</v>
-      </c>
-      <c r="L88" t="s">
-        <v>40</v>
       </c>
       <c r="M88" t="s">
         <v>40</v>
       </c>
       <c r="N88" t="s">
+        <v>40</v>
+      </c>
+      <c r="O88" t="s">
         <v>47</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>202</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <v>1</v>
       </c>
-      <c r="R88" t="s">
+      <c r="S88" t="s">
         <v>42</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>43</v>
       </c>
-      <c r="T88">
+      <c r="U88">
         <v>10</v>
       </c>
-      <c r="Z88"/>
-      <c r="AD88" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA88"/>
       <c r="AE88" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" t="s">
         <v>183</v>
@@ -7352,45 +7350,45 @@
       <c r="I89" t="s">
         <v>276</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>297</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>190</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>49</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>50</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>185</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <v>2</v>
       </c>
-      <c r="R89" t="s">
+      <c r="S89" t="s">
         <v>37</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>51</v>
       </c>
-      <c r="T89">
+      <c r="U89">
         <v>4</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>2</v>
       </c>
-      <c r="Z89"/>
-      <c r="AD89" t="s">
+      <c r="AA89"/>
+      <c r="AE89" t="s">
         <v>72</v>
       </c>
-      <c r="AE89" t="s">
+      <c r="AF89" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" t="s">
         <v>183</v>
@@ -7413,56 +7411,56 @@
       <c r="I90" t="s">
         <v>276</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>297</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>191</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>54</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>248</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
         <v>187</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>3</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
         <v>37</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>38</v>
       </c>
-      <c r="T90">
+      <c r="U90">
         <v>10</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>74</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>75</v>
-      </c>
-      <c r="Y90" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="Z90" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AA90" t="s">
+      <c r="AA90" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB90" t="s">
         <v>242</v>
       </c>
-      <c r="AD90" t="s">
+      <c r="AE90" t="s">
         <v>78</v>
       </c>
-      <c r="AE90" t="s">
+      <c r="AF90" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" t="s">
         <v>183</v>
@@ -7485,42 +7483,42 @@
       <c r="I91" t="s">
         <v>313</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>324</v>
-      </c>
-      <c r="L91" t="s">
-        <v>40</v>
       </c>
       <c r="M91" t="s">
         <v>40</v>
       </c>
       <c r="N91" t="s">
+        <v>40</v>
+      </c>
+      <c r="O91" t="s">
         <v>47</v>
       </c>
-      <c r="O91" s="1" t="s">
+      <c r="P91" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <v>1</v>
       </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>42</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>43</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <v>10</v>
       </c>
-      <c r="Z91"/>
-      <c r="AD91" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA91"/>
       <c r="AE91" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="92" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" t="s">
         <v>183</v>
@@ -7543,48 +7541,48 @@
       <c r="I92" t="s">
         <v>313</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>324</v>
-      </c>
-      <c r="L92" t="s">
-        <v>330</v>
       </c>
       <c r="M92" t="s">
         <v>330</v>
       </c>
       <c r="N92" t="s">
+        <v>330</v>
+      </c>
+      <c r="O92" t="s">
         <v>349</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>331</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <v>2</v>
       </c>
-      <c r="R92" t="s">
+      <c r="S92" t="s">
         <v>42</v>
       </c>
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>38</v>
       </c>
-      <c r="T92">
+      <c r="U92">
         <v>40</v>
       </c>
-      <c r="Z92"/>
-      <c r="AB92" t="s">
+      <c r="AA92"/>
+      <c r="AC92" t="s">
         <v>334</v>
       </c>
-      <c r="AC92" s="7" t="s">
+      <c r="AD92" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="AD92" t="s">
+      <c r="AE92" t="s">
         <v>332</v>
       </c>
-      <c r="AE92" t="s">
+      <c r="AF92" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" t="s">
         <v>183</v>
@@ -7607,45 +7605,45 @@
       <c r="I93" t="s">
         <v>313</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>324</v>
-      </c>
-      <c r="L93" t="s">
-        <v>49</v>
       </c>
       <c r="M93" t="s">
         <v>49</v>
       </c>
       <c r="N93" t="s">
+        <v>49</v>
+      </c>
+      <c r="O93" t="s">
         <v>50</v>
       </c>
-      <c r="O93" s="1" t="s">
+      <c r="P93" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <v>3</v>
       </c>
-      <c r="R93" t="s">
+      <c r="S93" t="s">
         <v>37</v>
       </c>
-      <c r="S93" t="s">
+      <c r="T93" t="s">
         <v>51</v>
       </c>
-      <c r="T93">
+      <c r="U93">
         <v>4</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>1</v>
       </c>
-      <c r="Z93"/>
-      <c r="AD93" t="s">
+      <c r="AA93"/>
+      <c r="AE93" t="s">
         <v>72</v>
       </c>
-      <c r="AE93" t="s">
+      <c r="AF93" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" t="s">
         <v>183</v>
@@ -7668,56 +7666,56 @@
       <c r="I94" t="s">
         <v>313</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>324</v>
-      </c>
-      <c r="L94" t="s">
-        <v>54</v>
       </c>
       <c r="M94" t="s">
         <v>54</v>
       </c>
       <c r="N94" t="s">
+        <v>54</v>
+      </c>
+      <c r="O94" t="s">
         <v>248</v>
       </c>
-      <c r="O94" s="1" t="s">
+      <c r="P94" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <v>4</v>
       </c>
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>37</v>
       </c>
-      <c r="S94" t="s">
+      <c r="T94" t="s">
         <v>38</v>
       </c>
-      <c r="T94">
+      <c r="U94">
         <v>2</v>
       </c>
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>74</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>75</v>
-      </c>
-      <c r="Y94" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="Z94" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AA94" t="s">
+      <c r="AA94" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB94" t="s">
         <v>242</v>
       </c>
-      <c r="AD94" t="s">
+      <c r="AE94" t="s">
         <v>78</v>
       </c>
-      <c r="AE94" t="s">
+      <c r="AF94" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" t="s">
         <v>192</v>
@@ -7740,42 +7738,42 @@
       <c r="I95" t="s">
         <v>276</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>298</v>
-      </c>
-      <c r="L95" t="s">
-        <v>40</v>
       </c>
       <c r="M95" t="s">
         <v>40</v>
       </c>
       <c r="N95" t="s">
+        <v>40</v>
+      </c>
+      <c r="O95" t="s">
         <v>47</v>
       </c>
-      <c r="P95" t="s">
+      <c r="Q95" t="s">
         <v>202</v>
       </c>
-      <c r="Q95">
+      <c r="R95">
         <v>1</v>
       </c>
-      <c r="R95" t="s">
+      <c r="S95" t="s">
         <v>42</v>
       </c>
-      <c r="S95" t="s">
+      <c r="T95" t="s">
         <v>43</v>
       </c>
-      <c r="T95">
+      <c r="U95">
         <v>10</v>
       </c>
-      <c r="Z95"/>
-      <c r="AD95" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA95"/>
       <c r="AE95" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" t="s">
         <v>192</v>
@@ -7798,54 +7796,54 @@
       <c r="I96" t="s">
         <v>276</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>298</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>194</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>65</v>
       </c>
-      <c r="N96" t="s">
+      <c r="O96" t="s">
         <v>66</v>
       </c>
-      <c r="P96" t="s">
+      <c r="Q96" t="s">
         <v>67</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <v>2</v>
       </c>
-      <c r="R96" t="s">
+      <c r="S96" t="s">
         <v>42</v>
       </c>
-      <c r="S96" t="s">
+      <c r="T96" t="s">
         <v>38</v>
       </c>
-      <c r="T96">
+      <c r="U96">
         <v>50</v>
       </c>
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>68</v>
       </c>
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>69</v>
       </c>
-      <c r="Z96"/>
-      <c r="AB96" t="s">
+      <c r="AA96"/>
+      <c r="AC96" t="s">
         <v>195</v>
       </c>
-      <c r="AC96" t="s">
+      <c r="AD96" t="s">
         <v>196</v>
       </c>
-      <c r="AD96" t="s">
+      <c r="AE96" t="s">
         <v>65</v>
       </c>
-      <c r="AE96" t="s">
+      <c r="AF96" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" t="s">
         <v>192</v>
@@ -7868,45 +7866,45 @@
       <c r="I97" t="s">
         <v>276</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>298</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>199</v>
       </c>
-      <c r="M97" t="s">
+      <c r="N97" t="s">
         <v>49</v>
       </c>
-      <c r="N97" t="s">
+      <c r="O97" t="s">
         <v>50</v>
       </c>
-      <c r="P97" t="s">
+      <c r="Q97" t="s">
         <v>197</v>
       </c>
-      <c r="Q97">
+      <c r="R97">
         <v>3</v>
       </c>
-      <c r="R97" t="s">
+      <c r="S97" t="s">
         <v>37</v>
       </c>
-      <c r="S97" t="s">
+      <c r="T97" t="s">
         <v>51</v>
       </c>
-      <c r="T97">
+      <c r="U97">
         <v>4</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>1</v>
       </c>
-      <c r="Z97"/>
-      <c r="AD97" t="s">
+      <c r="AA97"/>
+      <c r="AE97" t="s">
         <v>72</v>
       </c>
-      <c r="AE97" t="s">
+      <c r="AF97" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" t="s">
         <v>192</v>
@@ -7929,56 +7927,56 @@
       <c r="I98" t="s">
         <v>276</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>298</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>200</v>
       </c>
-      <c r="M98" t="s">
+      <c r="N98" t="s">
         <v>54</v>
       </c>
-      <c r="N98" t="s">
+      <c r="O98" t="s">
         <v>249</v>
       </c>
-      <c r="P98" t="s">
+      <c r="Q98" t="s">
         <v>198</v>
       </c>
-      <c r="Q98">
+      <c r="R98">
         <v>4</v>
       </c>
-      <c r="R98" t="s">
+      <c r="S98" t="s">
         <v>37</v>
       </c>
-      <c r="S98" t="s">
+      <c r="T98" t="s">
         <v>38</v>
       </c>
-      <c r="T98">
+      <c r="U98">
         <v>2</v>
       </c>
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>74</v>
       </c>
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>75</v>
-      </c>
-      <c r="Y98" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="Z98" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AA98" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB98" t="s">
         <v>242</v>
       </c>
-      <c r="AD98" t="s">
+      <c r="AE98" t="s">
         <v>78</v>
       </c>
-      <c r="AE98" t="s">
+      <c r="AF98" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" t="s">
         <v>192</v>
@@ -8001,42 +7999,42 @@
       <c r="I99" t="s">
         <v>313</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>325</v>
-      </c>
-      <c r="L99" t="s">
-        <v>40</v>
       </c>
       <c r="M99" t="s">
         <v>40</v>
       </c>
       <c r="N99" t="s">
+        <v>40</v>
+      </c>
+      <c r="O99" t="s">
         <v>47</v>
       </c>
-      <c r="P99" t="s">
+      <c r="Q99" t="s">
         <v>202</v>
       </c>
-      <c r="Q99">
+      <c r="R99">
         <v>1</v>
       </c>
-      <c r="R99" t="s">
+      <c r="S99" t="s">
         <v>42</v>
       </c>
-      <c r="S99" t="s">
+      <c r="T99" t="s">
         <v>43</v>
       </c>
-      <c r="T99">
+      <c r="U99">
         <v>10</v>
       </c>
-      <c r="Z99"/>
-      <c r="AD99" t="s">
-        <v>44</v>
-      </c>
+      <c r="AA99"/>
       <c r="AE99" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="100" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF99" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" t="s">
         <v>192</v>
@@ -8059,48 +8057,48 @@
       <c r="I100" t="s">
         <v>313</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>325</v>
-      </c>
-      <c r="L100" t="s">
-        <v>330</v>
       </c>
       <c r="M100" t="s">
         <v>330</v>
       </c>
       <c r="N100" t="s">
+        <v>330</v>
+      </c>
+      <c r="O100" t="s">
         <v>349</v>
       </c>
-      <c r="P100" t="s">
+      <c r="Q100" t="s">
         <v>331</v>
       </c>
-      <c r="Q100">
+      <c r="R100">
         <v>2</v>
       </c>
-      <c r="R100" t="s">
+      <c r="S100" t="s">
         <v>42</v>
       </c>
-      <c r="S100" t="s">
+      <c r="T100" t="s">
         <v>38</v>
       </c>
-      <c r="T100">
+      <c r="U100">
         <v>40</v>
       </c>
-      <c r="Z100"/>
-      <c r="AB100" t="s">
+      <c r="AA100"/>
+      <c r="AC100" t="s">
         <v>197</v>
       </c>
-      <c r="AC100" s="7" t="s">
+      <c r="AD100" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AD100" t="s">
+      <c r="AE100" t="s">
         <v>332</v>
       </c>
-      <c r="AE100" t="s">
+      <c r="AF100" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" t="s">
         <v>192</v>
@@ -8123,54 +8121,54 @@
       <c r="I101" t="s">
         <v>313</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>325</v>
-      </c>
-      <c r="L101" t="s">
-        <v>65</v>
       </c>
       <c r="M101" t="s">
         <v>65</v>
       </c>
       <c r="N101" t="s">
+        <v>65</v>
+      </c>
+      <c r="O101" t="s">
         <v>66</v>
       </c>
-      <c r="P101" t="s">
+      <c r="Q101" t="s">
         <v>67</v>
       </c>
-      <c r="Q101">
+      <c r="R101">
         <v>2</v>
       </c>
-      <c r="R101" t="s">
+      <c r="S101" t="s">
         <v>42</v>
       </c>
-      <c r="S101" t="s">
+      <c r="T101" t="s">
         <v>38</v>
       </c>
-      <c r="T101">
+      <c r="U101">
         <v>50</v>
       </c>
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>68</v>
       </c>
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>69</v>
       </c>
-      <c r="Z101"/>
-      <c r="AB101" t="s">
+      <c r="AA101"/>
+      <c r="AC101" t="s">
         <v>195</v>
       </c>
-      <c r="AC101" t="s">
+      <c r="AD101" t="s">
         <v>196</v>
       </c>
-      <c r="AD101" t="s">
+      <c r="AE101" t="s">
         <v>65</v>
       </c>
-      <c r="AE101" t="s">
+      <c r="AF101" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" t="s">
         <v>192</v>
@@ -8193,45 +8191,45 @@
       <c r="I102" t="s">
         <v>313</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>325</v>
-      </c>
-      <c r="L102" t="s">
-        <v>49</v>
       </c>
       <c r="M102" t="s">
         <v>49</v>
       </c>
       <c r="N102" t="s">
+        <v>49</v>
+      </c>
+      <c r="O102" t="s">
         <v>50</v>
       </c>
-      <c r="P102" t="s">
+      <c r="Q102" t="s">
         <v>197</v>
       </c>
-      <c r="Q102">
+      <c r="R102">
         <v>3</v>
       </c>
-      <c r="R102" t="s">
+      <c r="S102" t="s">
         <v>37</v>
       </c>
-      <c r="S102" t="s">
+      <c r="T102" t="s">
         <v>51</v>
       </c>
-      <c r="T102">
+      <c r="U102">
         <v>4</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>2</v>
       </c>
-      <c r="Z102"/>
-      <c r="AD102" t="s">
+      <c r="AA102"/>
+      <c r="AE102" t="s">
         <v>72</v>
       </c>
-      <c r="AE102" t="s">
+      <c r="AF102" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" t="s">
         <v>192</v>
@@ -8254,975 +8252,961 @@
       <c r="I103" t="s">
         <v>313</v>
       </c>
-      <c r="K103" t="s">
+      <c r="L103" t="s">
         <v>325</v>
-      </c>
-      <c r="L103" t="s">
-        <v>54</v>
       </c>
       <c r="M103" t="s">
         <v>54</v>
       </c>
       <c r="N103" t="s">
+        <v>54</v>
+      </c>
+      <c r="O103" t="s">
         <v>249</v>
       </c>
-      <c r="P103" t="s">
+      <c r="Q103" t="s">
         <v>198</v>
       </c>
-      <c r="Q103">
+      <c r="R103">
         <v>4</v>
       </c>
-      <c r="R103" t="s">
+      <c r="S103" t="s">
         <v>37</v>
       </c>
-      <c r="S103" t="s">
+      <c r="T103" t="s">
         <v>38</v>
       </c>
-      <c r="T103">
+      <c r="U103">
         <v>2</v>
       </c>
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>74</v>
       </c>
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>75</v>
-      </c>
-      <c r="Y103" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="Z103" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA103" t="s">
+      <c r="AA103" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB103" t="s">
         <v>242</v>
       </c>
-      <c r="AD103" t="s">
+      <c r="AE103" t="s">
         <v>78</v>
       </c>
-      <c r="AE103" t="s">
+      <c r="AF103" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="104" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8"/>
-      <c r="B104" s="9" t="s">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A104" s="4"/>
+      <c r="B104" t="s">
         <v>62</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" t="s">
         <v>63</v>
       </c>
-      <c r="D104" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H104" s="9" t="s">
+      <c r="D104" t="s">
+        <v>241</v>
+      </c>
+      <c r="E104" t="s">
+        <v>32</v>
+      </c>
+      <c r="G104" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" t="s">
         <v>302</v>
       </c>
-      <c r="I104" s="9" t="s">
+      <c r="I104" t="s">
         <v>313</v>
       </c>
-      <c r="K104" s="9" t="s">
+      <c r="L104" t="s">
         <v>315</v>
       </c>
-      <c r="L104" s="9" t="s">
+      <c r="M104" t="s">
         <v>40</v>
       </c>
-      <c r="M104" s="9" t="s">
+      <c r="N104" t="s">
         <v>40</v>
       </c>
-      <c r="N104" s="9" t="s">
+      <c r="O104" t="s">
         <v>47</v>
       </c>
-      <c r="O104" s="10"/>
-      <c r="P104" s="9" t="s">
+      <c r="Q104" t="s">
         <v>202</v>
       </c>
-      <c r="Q104" s="9">
+      <c r="R104">
         <v>1</v>
       </c>
-      <c r="R104" s="9" t="s">
+      <c r="S104" t="s">
         <v>42</v>
       </c>
-      <c r="S104" s="9" t="s">
+      <c r="T104" t="s">
         <v>43</v>
       </c>
-      <c r="T104" s="9">
+      <c r="U104">
         <v>10</v>
       </c>
-      <c r="Y104" s="10"/>
-      <c r="AD104" s="9" t="s">
+      <c r="AA104"/>
+      <c r="AE104" t="s">
         <v>44</v>
       </c>
-      <c r="AE104" s="9" t="s">
+      <c r="AF104" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="8"/>
-      <c r="B105" s="9" t="s">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A105" s="4"/>
+      <c r="B105" t="s">
         <v>62</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" t="s">
         <v>63</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H105" s="9" t="s">
+      <c r="D105" t="s">
+        <v>241</v>
+      </c>
+      <c r="E105" t="s">
+        <v>32</v>
+      </c>
+      <c r="G105" t="s">
+        <v>33</v>
+      </c>
+      <c r="H105" t="s">
         <v>302</v>
       </c>
-      <c r="I105" s="9" t="s">
+      <c r="I105" t="s">
         <v>313</v>
       </c>
-      <c r="K105" s="9" t="s">
+      <c r="L105" t="s">
         <v>315</v>
       </c>
-      <c r="L105" s="9" t="s">
+      <c r="M105" t="s">
         <v>328</v>
       </c>
-      <c r="M105" s="9" t="s">
+      <c r="N105" t="s">
         <v>328</v>
       </c>
-      <c r="O105" s="10"/>
-      <c r="P105" s="9" t="s">
+      <c r="Q105" t="s">
         <v>329</v>
       </c>
-      <c r="Q105" s="9">
+      <c r="R105">
         <v>2</v>
       </c>
-      <c r="R105" s="9" t="s">
+      <c r="S105" t="s">
         <v>42</v>
       </c>
-      <c r="S105" s="9" t="s">
+      <c r="T105" t="s">
         <v>38</v>
       </c>
-      <c r="T105" s="9">
+      <c r="U105">
         <v>50</v>
       </c>
-      <c r="Y105" s="10"/>
-      <c r="AD105" s="9" t="s">
+      <c r="AA105"/>
+      <c r="AE105" t="s">
         <v>328</v>
       </c>
-      <c r="AE105" s="9" t="s">
+      <c r="AF105" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="106" spans="1:31" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="8"/>
-      <c r="B106" s="9" t="s">
+    <row r="106" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="4"/>
+      <c r="B106" t="s">
         <v>62</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" t="s">
         <v>63</v>
       </c>
-      <c r="D106" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H106" s="9" t="s">
+      <c r="D106" t="s">
+        <v>241</v>
+      </c>
+      <c r="E106" t="s">
+        <v>32</v>
+      </c>
+      <c r="G106" t="s">
+        <v>33</v>
+      </c>
+      <c r="H106" t="s">
         <v>302</v>
       </c>
-      <c r="I106" s="9" t="s">
+      <c r="I106" t="s">
         <v>313</v>
       </c>
-      <c r="K106" s="9" t="s">
+      <c r="L106" t="s">
         <v>315</v>
       </c>
-      <c r="L106" s="9" t="s">
+      <c r="M106" t="s">
         <v>330</v>
       </c>
-      <c r="M106" s="9" t="s">
+      <c r="N106" t="s">
         <v>330</v>
       </c>
-      <c r="N106" s="9" t="s">
+      <c r="O106" t="s">
         <v>349</v>
       </c>
-      <c r="O106" s="10"/>
-      <c r="P106" s="9" t="s">
+      <c r="Q106" t="s">
         <v>331</v>
       </c>
-      <c r="Q106" s="9">
+      <c r="R106">
         <v>3</v>
       </c>
-      <c r="R106" s="9" t="s">
+      <c r="S106" t="s">
         <v>42</v>
       </c>
-      <c r="S106" s="9" t="s">
+      <c r="T106" t="s">
         <v>38</v>
       </c>
-      <c r="T106" s="9">
+      <c r="U106">
         <v>40</v>
       </c>
-      <c r="Y106" s="10"/>
-      <c r="AB106" s="9" t="s">
+      <c r="AA106"/>
+      <c r="AC106" t="s">
         <v>70</v>
       </c>
-      <c r="AC106" s="11" t="s">
+      <c r="AD106" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AD106" s="9" t="s">
+      <c r="AE106" t="s">
         <v>332</v>
       </c>
-      <c r="AE106" s="9" t="s">
+      <c r="AF106" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="107" spans="1:31" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A107" s="8"/>
-      <c r="B107" s="9" t="s">
+    <row r="107" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A107" s="4"/>
+      <c r="B107" t="s">
         <v>62</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" t="s">
         <v>63</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H107" s="9" t="s">
+      <c r="D107" t="s">
+        <v>241</v>
+      </c>
+      <c r="E107" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" t="s">
         <v>302</v>
       </c>
-      <c r="I107" s="9" t="s">
+      <c r="I107" t="s">
         <v>313</v>
       </c>
-      <c r="K107" s="9" t="s">
+      <c r="L107" t="s">
         <v>315</v>
       </c>
-      <c r="L107" s="9" t="s">
+      <c r="M107" t="s">
         <v>98</v>
       </c>
-      <c r="M107" s="9" t="s">
+      <c r="N107" t="s">
         <v>98</v>
       </c>
-      <c r="N107" s="9" t="s">
+      <c r="O107" t="s">
         <v>99</v>
       </c>
-      <c r="O107" s="10"/>
-      <c r="P107" s="9" t="s">
+      <c r="Q107" t="s">
         <v>100</v>
       </c>
-      <c r="Q107" s="9">
+      <c r="R107">
         <v>4</v>
       </c>
-      <c r="R107" s="9" t="s">
+      <c r="S107" t="s">
         <v>42</v>
       </c>
-      <c r="S107" s="9" t="s">
+      <c r="T107" t="s">
         <v>38</v>
       </c>
-      <c r="T107" s="9">
+      <c r="U107">
         <v>50</v>
       </c>
-      <c r="W107" s="9" t="s">
+      <c r="X107" t="s">
         <v>101</v>
       </c>
-      <c r="X107" s="9" t="s">
+      <c r="Y107" t="s">
         <v>102</v>
       </c>
-      <c r="Y107" s="10" t="s">
+      <c r="Z107" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Z107" s="10" t="s">
+      <c r="AA107" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AA107" s="9" t="s">
+      <c r="AB107" t="s">
         <v>242</v>
       </c>
-      <c r="AD107" s="9" t="s">
+      <c r="AE107" t="s">
         <v>98</v>
       </c>
-      <c r="AE107" s="9" t="s">
+      <c r="AF107" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="108" spans="1:31" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A108" s="8"/>
-      <c r="B108" s="9" t="s">
+    <row r="108" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="4"/>
+      <c r="B108" t="s">
         <v>62</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" t="s">
         <v>63</v>
       </c>
-      <c r="D108" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H108" s="9" t="s">
+      <c r="D108" t="s">
+        <v>241</v>
+      </c>
+      <c r="E108" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108" t="s">
+        <v>33</v>
+      </c>
+      <c r="H108" t="s">
         <v>302</v>
       </c>
-      <c r="I108" s="9" t="s">
+      <c r="I108" t="s">
         <v>313</v>
       </c>
-      <c r="K108" s="9" t="s">
+      <c r="L108" t="s">
         <v>315</v>
       </c>
-      <c r="L108" s="9" t="s">
+      <c r="M108" t="s">
         <v>65</v>
       </c>
-      <c r="M108" s="9" t="s">
+      <c r="N108" t="s">
         <v>65</v>
       </c>
-      <c r="N108" s="9" t="s">
+      <c r="O108" t="s">
         <v>66</v>
       </c>
-      <c r="O108" s="10"/>
-      <c r="P108" s="9" t="s">
+      <c r="Q108" t="s">
         <v>67</v>
       </c>
-      <c r="Q108" s="9">
+      <c r="R108">
         <v>5</v>
       </c>
-      <c r="R108" s="9" t="s">
+      <c r="S108" t="s">
         <v>42</v>
       </c>
-      <c r="S108" s="9" t="s">
+      <c r="T108" t="s">
         <v>38</v>
       </c>
-      <c r="T108" s="9">
+      <c r="U108">
         <v>50</v>
       </c>
-      <c r="W108" s="9" t="s">
+      <c r="X108" t="s">
         <v>68</v>
       </c>
-      <c r="X108" s="9" t="s">
+      <c r="Y108" t="s">
         <v>69</v>
       </c>
-      <c r="Y108" s="10" t="s">
+      <c r="Z108" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Z108" s="10" t="s">
+      <c r="AA108" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AA108" s="9" t="s">
+      <c r="AB108" t="s">
         <v>242</v>
       </c>
-      <c r="AD108" s="9" t="s">
+      <c r="AE108" t="s">
         <v>65</v>
       </c>
-      <c r="AE108" s="9" t="s">
+      <c r="AF108" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="8"/>
-      <c r="B109" s="9" t="s">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A109" s="4"/>
+      <c r="B109" t="s">
         <v>62</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" t="s">
         <v>63</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H109" s="9" t="s">
+      <c r="D109" t="s">
+        <v>241</v>
+      </c>
+      <c r="E109" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" t="s">
         <v>302</v>
       </c>
-      <c r="I109" s="9" t="s">
+      <c r="I109" t="s">
         <v>313</v>
       </c>
-      <c r="K109" s="9" t="s">
+      <c r="L109" t="s">
         <v>315</v>
       </c>
-      <c r="L109" s="9" t="s">
+      <c r="M109" t="s">
         <v>49</v>
       </c>
-      <c r="M109" s="9" t="s">
+      <c r="N109" t="s">
         <v>49</v>
       </c>
-      <c r="N109" s="9" t="s">
+      <c r="O109" t="s">
         <v>50</v>
       </c>
-      <c r="O109" s="10"/>
-      <c r="P109" s="9" t="s">
+      <c r="Q109" t="s">
         <v>326</v>
       </c>
-      <c r="Q109" s="9">
+      <c r="R109">
         <v>6</v>
       </c>
-      <c r="R109" s="9" t="s">
+      <c r="S109" t="s">
         <v>37</v>
       </c>
-      <c r="S109" s="9" t="s">
+      <c r="T109" t="s">
         <v>51</v>
       </c>
-      <c r="T109" s="9">
+      <c r="U109">
         <v>4</v>
       </c>
-      <c r="U109" s="9">
+      <c r="V109">
         <v>1</v>
       </c>
-      <c r="Y109" s="10"/>
-      <c r="AD109" s="9" t="s">
+      <c r="AA109"/>
+      <c r="AE109" t="s">
         <v>72</v>
       </c>
-      <c r="AE109" s="9" t="s">
+      <c r="AF109" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8"/>
-      <c r="B110" s="9" t="s">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A110" s="4"/>
+      <c r="B110" t="s">
         <v>62</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" t="s">
         <v>63</v>
       </c>
-      <c r="D110" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H110" s="9" t="s">
+      <c r="D110" t="s">
+        <v>241</v>
+      </c>
+      <c r="E110" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110" t="s">
+        <v>33</v>
+      </c>
+      <c r="H110" t="s">
         <v>302</v>
       </c>
-      <c r="I110" s="9" t="s">
+      <c r="I110" t="s">
         <v>313</v>
       </c>
-      <c r="K110" s="9" t="s">
+      <c r="L110" t="s">
         <v>315</v>
       </c>
-      <c r="L110" s="9" t="s">
+      <c r="M110" t="s">
         <v>54</v>
       </c>
-      <c r="M110" s="9" t="s">
+      <c r="N110" t="s">
         <v>54</v>
       </c>
-      <c r="N110" s="9" t="s">
+      <c r="O110" t="s">
         <v>244</v>
       </c>
-      <c r="O110" s="10"/>
-      <c r="P110" s="9" t="s">
+      <c r="Q110" t="s">
         <v>327</v>
       </c>
-      <c r="Q110" s="9">
+      <c r="R110">
         <v>7</v>
       </c>
-      <c r="R110" s="9" t="s">
+      <c r="S110" t="s">
         <v>37</v>
       </c>
-      <c r="S110" s="9" t="s">
+      <c r="T110" t="s">
         <v>38</v>
       </c>
-      <c r="T110" s="9">
+      <c r="U110">
         <v>2</v>
       </c>
-      <c r="W110" s="9" t="s">
+      <c r="X110" t="s">
         <v>74</v>
       </c>
-      <c r="X110" s="9" t="s">
+      <c r="Y110" t="s">
         <v>75</v>
       </c>
-      <c r="Y110" s="10"/>
-      <c r="AB110" s="9" t="s">
+      <c r="AA110"/>
+      <c r="AC110" t="s">
         <v>76</v>
       </c>
-      <c r="AC110" s="9" t="s">
+      <c r="AD110" t="s">
         <v>77</v>
       </c>
-      <c r="AD110" s="9" t="s">
+      <c r="AE110" t="s">
         <v>78</v>
       </c>
-      <c r="AE110" s="9" t="s">
+      <c r="AF110" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="111" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="8"/>
-      <c r="B111" s="9" t="s">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A111" s="4"/>
+      <c r="B111" t="s">
         <v>160</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" t="s">
         <v>161</v>
       </c>
-      <c r="D111" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H111" s="9" t="s">
+      <c r="D111" t="s">
+        <v>241</v>
+      </c>
+      <c r="E111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G111" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" t="s">
         <v>309</v>
       </c>
-      <c r="I111" s="9" t="s">
+      <c r="I111" t="s">
         <v>313</v>
       </c>
-      <c r="K111" s="9" t="s">
+      <c r="L111" t="s">
         <v>322</v>
       </c>
-      <c r="L111" s="9" t="s">
+      <c r="M111" t="s">
         <v>40</v>
       </c>
-      <c r="M111" s="9" t="s">
+      <c r="N111" t="s">
         <v>40</v>
       </c>
-      <c r="N111" s="9" t="s">
+      <c r="O111" t="s">
         <v>47</v>
       </c>
-      <c r="O111" s="10"/>
-      <c r="P111" s="9" t="s">
+      <c r="Q111" t="s">
         <v>202</v>
       </c>
-      <c r="Q111" s="9">
+      <c r="R111">
         <v>1</v>
       </c>
-      <c r="R111" s="9" t="s">
+      <c r="S111" t="s">
         <v>42</v>
       </c>
-      <c r="S111" s="9" t="s">
+      <c r="T111" t="s">
         <v>43</v>
       </c>
-      <c r="T111" s="9">
+      <c r="U111">
         <v>10</v>
       </c>
-      <c r="Y111" s="10"/>
-      <c r="AD111" s="9" t="s">
+      <c r="AA111"/>
+      <c r="AE111" t="s">
         <v>44</v>
       </c>
-      <c r="AE111" s="9" t="s">
+      <c r="AF111" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="8"/>
-      <c r="B112" s="9" t="s">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A112" s="4"/>
+      <c r="B112" t="s">
         <v>62</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" t="s">
         <v>161</v>
       </c>
-      <c r="D112" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E112" s="9" t="s">
+      <c r="D112" t="s">
+        <v>241</v>
+      </c>
+      <c r="E112" t="s">
         <v>350</v>
       </c>
-      <c r="G112" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H112" s="9" t="s">
+      <c r="G112" t="s">
+        <v>33</v>
+      </c>
+      <c r="H112" t="s">
         <v>309</v>
       </c>
-      <c r="I112" s="9" t="s">
+      <c r="I112" t="s">
         <v>313</v>
       </c>
-      <c r="K112" s="9" t="s">
+      <c r="L112" t="s">
         <v>322</v>
       </c>
-      <c r="L112" s="9" t="s">
+      <c r="M112" t="s">
         <v>328</v>
       </c>
-      <c r="M112" s="9" t="s">
+      <c r="N112" t="s">
         <v>328</v>
       </c>
-      <c r="O112" s="10"/>
-      <c r="P112" s="9" t="s">
+      <c r="Q112" t="s">
         <v>329</v>
       </c>
-      <c r="Q112" s="9">
+      <c r="R112">
         <v>2</v>
       </c>
-      <c r="R112" s="9" t="s">
+      <c r="S112" t="s">
         <v>42</v>
       </c>
-      <c r="S112" s="9" t="s">
+      <c r="T112" t="s">
         <v>38</v>
       </c>
-      <c r="T112" s="9">
+      <c r="U112">
         <v>50</v>
       </c>
-      <c r="Y112" s="10"/>
-      <c r="AD112" s="9" t="s">
+      <c r="AA112"/>
+      <c r="AE112" t="s">
         <v>328</v>
       </c>
-      <c r="AE112" s="9" t="s">
+      <c r="AF112" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:31" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="8"/>
-      <c r="B113" s="9" t="s">
+    <row r="113" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="4"/>
+      <c r="B113" t="s">
         <v>160</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" t="s">
         <v>161</v>
       </c>
-      <c r="D113" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H113" s="9" t="s">
+      <c r="D113" t="s">
+        <v>241</v>
+      </c>
+      <c r="E113" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" t="s">
+        <v>33</v>
+      </c>
+      <c r="H113" t="s">
         <v>309</v>
       </c>
-      <c r="I113" s="9" t="s">
+      <c r="I113" t="s">
         <v>313</v>
       </c>
-      <c r="K113" s="9" t="s">
+      <c r="L113" t="s">
         <v>322</v>
       </c>
-      <c r="L113" s="9" t="s">
+      <c r="M113" t="s">
         <v>330</v>
       </c>
-      <c r="M113" s="9" t="s">
+      <c r="N113" t="s">
         <v>330</v>
       </c>
-      <c r="N113" s="9" t="s">
+      <c r="O113" t="s">
         <v>349</v>
       </c>
-      <c r="O113" s="10"/>
-      <c r="P113" s="9" t="s">
+      <c r="Q113" t="s">
         <v>331</v>
       </c>
-      <c r="Q113" s="9">
+      <c r="R113">
         <v>3</v>
       </c>
-      <c r="R113" s="9" t="s">
+      <c r="S113" t="s">
         <v>42</v>
       </c>
-      <c r="S113" s="9" t="s">
+      <c r="T113" t="s">
         <v>38</v>
       </c>
-      <c r="T113" s="9">
+      <c r="U113">
         <v>40</v>
       </c>
-      <c r="Y113" s="10"/>
-      <c r="AB113" s="9" t="s">
+      <c r="AA113"/>
+      <c r="AC113" t="s">
         <v>163</v>
       </c>
-      <c r="AC113" s="11" t="s">
+      <c r="AD113" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="AD113" s="9" t="s">
+      <c r="AE113" t="s">
         <v>332</v>
       </c>
-      <c r="AE113" s="9" t="s">
+      <c r="AF113" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="114" spans="1:31" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A114" s="8"/>
-      <c r="B114" s="9" t="s">
+    <row r="114" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A114" s="4"/>
+      <c r="B114" t="s">
         <v>160</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" t="s">
         <v>161</v>
       </c>
-      <c r="D114" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H114" s="9" t="s">
+      <c r="D114" t="s">
+        <v>241</v>
+      </c>
+      <c r="E114" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s">
+        <v>33</v>
+      </c>
+      <c r="H114" t="s">
         <v>309</v>
       </c>
-      <c r="I114" s="9" t="s">
+      <c r="I114" t="s">
         <v>313</v>
       </c>
-      <c r="K114" s="9" t="s">
+      <c r="L114" t="s">
         <v>322</v>
       </c>
-      <c r="L114" s="9" t="s">
+      <c r="M114" t="s">
         <v>98</v>
       </c>
-      <c r="M114" s="9" t="s">
+      <c r="N114" t="s">
         <v>98</v>
       </c>
-      <c r="N114" s="9" t="s">
+      <c r="O114" t="s">
         <v>99</v>
       </c>
-      <c r="O114" s="10"/>
-      <c r="P114" s="9" t="s">
+      <c r="Q114" t="s">
         <v>100</v>
       </c>
-      <c r="Q114" s="9">
+      <c r="R114">
         <v>4</v>
       </c>
-      <c r="R114" s="9" t="s">
+      <c r="S114" t="s">
         <v>42</v>
       </c>
-      <c r="S114" s="9" t="s">
+      <c r="T114" t="s">
         <v>38</v>
       </c>
-      <c r="T114" s="9">
+      <c r="U114">
         <v>50</v>
       </c>
-      <c r="W114" s="9" t="s">
+      <c r="X114" t="s">
         <v>101</v>
       </c>
-      <c r="X114" s="9" t="s">
+      <c r="Y114" t="s">
         <v>102</v>
       </c>
-      <c r="Y114" s="10" t="s">
+      <c r="Z114" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="Z114" s="10" t="s">
+      <c r="AA114" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AA114" s="9" t="s">
+      <c r="AB114" t="s">
         <v>242</v>
       </c>
-      <c r="AD114" s="9" t="s">
+      <c r="AE114" t="s">
         <v>98</v>
       </c>
-      <c r="AE114" s="9" t="s">
+      <c r="AF114" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="115" spans="1:31" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A115" s="8"/>
-      <c r="B115" s="9" t="s">
+    <row r="115" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+      <c r="A115" s="4"/>
+      <c r="B115" t="s">
         <v>160</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" t="s">
         <v>161</v>
       </c>
-      <c r="D115" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H115" s="9" t="s">
+      <c r="D115" t="s">
+        <v>241</v>
+      </c>
+      <c r="E115" t="s">
+        <v>32</v>
+      </c>
+      <c r="G115" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115" t="s">
         <v>309</v>
       </c>
-      <c r="I115" s="9" t="s">
+      <c r="I115" t="s">
         <v>313</v>
       </c>
-      <c r="K115" s="9" t="s">
+      <c r="L115" t="s">
         <v>322</v>
       </c>
-      <c r="L115" s="9" t="s">
+      <c r="M115" t="s">
         <v>65</v>
       </c>
-      <c r="M115" s="9" t="s">
+      <c r="N115" t="s">
         <v>65</v>
       </c>
-      <c r="N115" s="9" t="s">
+      <c r="O115" t="s">
         <v>66</v>
       </c>
-      <c r="O115" s="10"/>
-      <c r="P115" s="9" t="s">
+      <c r="Q115" t="s">
         <v>67</v>
       </c>
-      <c r="Q115" s="9">
+      <c r="R115">
         <v>5</v>
       </c>
-      <c r="R115" s="9" t="s">
+      <c r="S115" t="s">
         <v>42</v>
       </c>
-      <c r="S115" s="9" t="s">
+      <c r="T115" t="s">
         <v>38</v>
       </c>
-      <c r="T115" s="9">
+      <c r="U115">
         <v>50</v>
       </c>
-      <c r="W115" s="9" t="s">
+      <c r="X115" t="s">
         <v>68</v>
       </c>
-      <c r="X115" s="9" t="s">
+      <c r="Y115" t="s">
         <v>69</v>
       </c>
-      <c r="Y115" s="10" t="s">
+      <c r="Z115" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Z115" s="10" t="s">
+      <c r="AA115" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AA115" s="9" t="s">
+      <c r="AB115" t="s">
         <v>242</v>
       </c>
-      <c r="AD115" s="9" t="s">
+      <c r="AE115" t="s">
         <v>65</v>
       </c>
-      <c r="AE115" s="9" t="s">
+      <c r="AF115" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="116" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="8"/>
-      <c r="B116" s="9" t="s">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A116" s="4"/>
+      <c r="B116" t="s">
         <v>160</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" t="s">
         <v>161</v>
       </c>
-      <c r="D116" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H116" s="9" t="s">
+      <c r="D116" t="s">
+        <v>241</v>
+      </c>
+      <c r="E116" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116" t="s">
+        <v>33</v>
+      </c>
+      <c r="H116" t="s">
         <v>309</v>
       </c>
-      <c r="I116" s="9" t="s">
+      <c r="I116" t="s">
         <v>313</v>
       </c>
-      <c r="K116" s="9" t="s">
+      <c r="L116" t="s">
         <v>322</v>
       </c>
-      <c r="L116" s="9" t="s">
+      <c r="M116" t="s">
         <v>49</v>
       </c>
-      <c r="M116" s="9" t="s">
+      <c r="N116" t="s">
         <v>49</v>
       </c>
-      <c r="N116" s="9" t="s">
+      <c r="O116" t="s">
         <v>50</v>
       </c>
-      <c r="O116" s="10"/>
-      <c r="P116" s="9" t="s">
+      <c r="Q116" t="s">
         <v>326</v>
       </c>
-      <c r="Q116" s="9">
+      <c r="R116">
         <v>6</v>
       </c>
-      <c r="R116" s="9" t="s">
+      <c r="S116" t="s">
         <v>37</v>
       </c>
-      <c r="S116" s="9" t="s">
+      <c r="T116" t="s">
         <v>71</v>
       </c>
-      <c r="T116" s="9">
+      <c r="U116">
         <v>3</v>
       </c>
-      <c r="U116" s="9">
+      <c r="V116">
         <v>1</v>
       </c>
-      <c r="Y116" s="10"/>
-      <c r="AD116" s="9" t="s">
+      <c r="AA116"/>
+      <c r="AE116" t="s">
         <v>72</v>
       </c>
-      <c r="AE116" s="9" t="s">
+      <c r="AF116" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="8"/>
-      <c r="B117" s="9" t="s">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A117" s="4"/>
+      <c r="B117" t="s">
         <v>160</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" t="s">
         <v>161</v>
       </c>
-      <c r="D117" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H117" s="9" t="s">
+      <c r="D117" t="s">
+        <v>241</v>
+      </c>
+      <c r="E117" t="s">
+        <v>32</v>
+      </c>
+      <c r="G117" t="s">
+        <v>33</v>
+      </c>
+      <c r="H117" t="s">
         <v>309</v>
       </c>
-      <c r="I117" s="9" t="s">
+      <c r="I117" t="s">
         <v>313</v>
       </c>
-      <c r="K117" s="9" t="s">
+      <c r="L117" t="s">
         <v>322</v>
       </c>
-      <c r="L117" s="9" t="s">
+      <c r="M117" t="s">
         <v>54</v>
       </c>
-      <c r="M117" s="9" t="s">
+      <c r="N117" t="s">
         <v>54</v>
       </c>
-      <c r="N117" s="9" t="s">
+      <c r="O117" t="s">
         <v>244</v>
       </c>
-      <c r="O117" s="10"/>
-      <c r="P117" s="9" t="s">
+      <c r="Q117" t="s">
         <v>327</v>
       </c>
-      <c r="Q117" s="9">
+      <c r="R117">
         <v>7</v>
       </c>
-      <c r="R117" s="9" t="s">
+      <c r="S117" t="s">
         <v>37</v>
       </c>
-      <c r="S117" s="9" t="s">
+      <c r="T117" t="s">
         <v>38</v>
       </c>
-      <c r="T117" s="9">
+      <c r="U117">
         <v>10</v>
       </c>
-      <c r="W117" s="9" t="s">
+      <c r="X117" t="s">
         <v>74</v>
       </c>
-      <c r="X117" s="9" t="s">
+      <c r="Y117" t="s">
         <v>75</v>
       </c>
-      <c r="Y117" s="10"/>
-      <c r="AB117" s="9" t="s">
+      <c r="AA117"/>
+      <c r="AC117" t="s">
         <v>76</v>
       </c>
-      <c r="AC117" s="9" t="s">
+      <c r="AD117" t="s">
         <v>77</v>
       </c>
-      <c r="AD117" s="9" t="s">
+      <c r="AE117" t="s">
         <v>78</v>
       </c>
-      <c r="AE117" s="9" t="s">
+      <c r="AF117" t="s">
         <v>271</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AI117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/curation/draft/collection/collection_specialization_VS.xlsx
+++ b/curation/draft/collection/collection_specialization_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A934A41-FEEA-E841-BFC2-17FDEF4AA82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74BCBEC-101C-EE4E-8A0E-0C5763531388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="349">
   <si>
     <t>package_date</t>
   </si>
@@ -1065,9 +1065,6 @@
   </si>
   <si>
     <t>C25208</t>
-  </si>
-  <si>
-    <t>C67153</t>
   </si>
   <si>
     <t>2-2</t>
@@ -1503,10 +1500,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="Y5" sqref="Y5"/>
+      <selection pane="bottomLeft" activeCell="M129" sqref="M129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1575,7 +1572,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
@@ -1614,10 +1611,10 @@
         <v>21</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>22</v>
@@ -1886,7 +1883,7 @@
         <v>37</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AC5"/>
       <c r="AG5" t="s">
@@ -2516,9 +2513,6 @@
       <c r="N15" t="s">
         <v>326</v>
       </c>
-      <c r="O15" t="s">
-        <v>343</v>
-      </c>
       <c r="Q15" t="s">
         <v>327</v>
       </c>
@@ -2898,9 +2892,6 @@
       <c r="N21" t="s">
         <v>326</v>
       </c>
-      <c r="O21" t="s">
-        <v>343</v>
-      </c>
       <c r="Q21" t="s">
         <v>327</v>
       </c>
@@ -3555,9 +3546,6 @@
       <c r="N31" t="s">
         <v>326</v>
       </c>
-      <c r="O31" t="s">
-        <v>343</v>
-      </c>
       <c r="Q31" t="s">
         <v>327</v>
       </c>
@@ -4423,9 +4411,6 @@
       <c r="N44" t="s">
         <v>326</v>
       </c>
-      <c r="O44" t="s">
-        <v>343</v>
-      </c>
       <c r="Q44" t="s">
         <v>327</v>
       </c>
@@ -5291,9 +5276,6 @@
       <c r="N57" t="s">
         <v>326</v>
       </c>
-      <c r="O57" t="s">
-        <v>343</v>
-      </c>
       <c r="Q57" t="s">
         <v>327</v>
       </c>
@@ -5946,9 +5928,6 @@
       <c r="N67" t="s">
         <v>326</v>
       </c>
-      <c r="O67" t="s">
-        <v>343</v>
-      </c>
       <c r="Q67" t="s">
         <v>327</v>
       </c>
@@ -6275,7 +6254,7 @@
         <v>64</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R72">
         <v>3</v>
@@ -6792,9 +6771,6 @@
       <c r="N80" t="s">
         <v>326</v>
       </c>
-      <c r="O80" t="s">
-        <v>343</v>
-      </c>
       <c r="Q80" t="s">
         <v>327</v>
       </c>
@@ -7310,9 +7286,6 @@
       <c r="N88" t="s">
         <v>326</v>
       </c>
-      <c r="O88" t="s">
-        <v>343</v>
-      </c>
       <c r="Q88" t="s">
         <v>327</v>
       </c>
@@ -7826,9 +7799,6 @@
       <c r="N96" t="s">
         <v>326</v>
       </c>
-      <c r="O96" t="s">
-        <v>343</v>
-      </c>
       <c r="Q96" t="s">
         <v>327</v>
       </c>
@@ -8206,9 +8176,6 @@
       <c r="N102" t="s">
         <v>326</v>
       </c>
-      <c r="O102" t="s">
-        <v>343</v>
-      </c>
       <c r="Q102" t="s">
         <v>327</v>
       </c>
@@ -8583,7 +8550,7 @@
         <v>239</v>
       </c>
       <c r="E108" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -8657,9 +8624,6 @@
       </c>
       <c r="N109" t="s">
         <v>326</v>
-      </c>
-      <c r="O109" t="s">
-        <v>343</v>
       </c>
       <c r="Q109" t="s">
         <v>327</v>

--- a/curation/draft/collection/collection_specialization_VS.xlsx
+++ b/curation/draft/collection/collection_specialization_VS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74BCBEC-101C-EE4E-8A0E-0C5763531388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F275732F-3C72-4623-AB1A-A2E2EE77620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_VS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="349">
   <si>
     <t>package_date</t>
   </si>
@@ -1501,46 +1501,46 @@
   <dimension ref="A1:AJ113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M129" sqref="M129"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
     <col min="10" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="48" customWidth="1"/>
-    <col min="13" max="13" width="22.1640625" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="37" style="1" customWidth="1"/>
     <col min="17" max="17" width="37" customWidth="1"/>
     <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="26.33203125" customWidth="1"/>
-    <col min="20" max="20" width="18.1640625" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" customWidth="1"/>
-    <col min="23" max="24" width="16.83203125" customWidth="1"/>
+    <col min="19" max="19" width="26.28515625" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" customWidth="1"/>
+    <col min="23" max="24" width="16.85546875" customWidth="1"/>
     <col min="25" max="25" width="29" customWidth="1"/>
-    <col min="26" max="26" width="14.5" customWidth="1"/>
-    <col min="27" max="27" width="19.83203125" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" customWidth="1"/>
     <col min="28" max="29" width="37" style="1" customWidth="1"/>
-    <col min="30" max="30" width="22.1640625" customWidth="1"/>
+    <col min="30" max="30" width="22.140625" customWidth="1"/>
     <col min="31" max="31" width="30" customWidth="1"/>
-    <col min="32" max="32" width="16.6640625" customWidth="1"/>
-    <col min="33" max="33" width="34.5" customWidth="1"/>
-    <col min="34" max="34" width="63.5" customWidth="1"/>
-    <col min="35" max="35" width="27.6640625" customWidth="1"/>
-    <col min="36" max="36" width="22.33203125" customWidth="1"/>
+    <col min="32" max="32" width="16.7109375" customWidth="1"/>
+    <col min="33" max="33" width="34.42578125" customWidth="1"/>
+    <col min="34" max="34" width="63.42578125" customWidth="1"/>
+    <col min="35" max="35" width="27.7109375" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>35</v>
@@ -1716,7 +1716,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>35</v>
@@ -1768,7 +1768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>45</v>
@@ -1826,7 +1826,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>45</v>
@@ -1893,7 +1893,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>45</v>
@@ -1966,7 +1966,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>60</v>
@@ -2024,7 +2024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>60</v>
@@ -2059,6 +2059,9 @@
       <c r="O8" t="s">
         <v>97</v>
       </c>
+      <c r="P8" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="R8">
         <v>2</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>60</v>
@@ -2165,7 +2168,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
         <v>60</v>
@@ -2200,6 +2203,9 @@
       <c r="O10" t="s">
         <v>50</v>
       </c>
+      <c r="P10" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="R10">
         <v>4</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>60</v>
@@ -2290,7 +2296,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>79</v>
@@ -2348,7 +2354,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>79</v>
@@ -2423,7 +2429,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>79</v>
@@ -2481,7 +2487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>45</v>
@@ -2542,7 +2548,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>79</v>
@@ -2614,7 +2620,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>87</v>
@@ -2669,7 +2675,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>87</v>
@@ -2730,7 +2736,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>87</v>
@@ -2802,7 +2808,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>87</v>
@@ -2860,7 +2866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>87</v>
@@ -2921,7 +2927,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>87</v>
@@ -2982,7 +2988,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>87</v>
@@ -3054,7 +3060,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>94</v>
@@ -3112,7 +3118,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>94</v>
@@ -3184,7 +3190,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
         <v>94</v>
@@ -3256,7 +3262,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>94</v>
@@ -3328,7 +3334,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" t="s">
         <v>94</v>
@@ -3386,7 +3392,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>94</v>
@@ -3456,7 +3462,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>94</v>
@@ -3514,7 +3520,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>94</v>
@@ -3575,7 +3581,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>94</v>
@@ -3647,7 +3653,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>94</v>
@@ -3719,7 +3725,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
         <v>94</v>
@@ -3791,7 +3797,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
         <v>94</v>
@@ -3849,7 +3855,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
         <v>94</v>
@@ -3919,7 +3925,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" t="s">
         <v>121</v>
@@ -3977,7 +3983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" t="s">
         <v>121</v>
@@ -4047,7 +4053,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" t="s">
         <v>139</v>
@@ -4119,7 +4125,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
         <v>121</v>
@@ -4191,7 +4197,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
         <v>121</v>
@@ -4252,7 +4258,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" t="s">
         <v>121</v>
@@ -4321,7 +4327,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" t="s">
         <v>121</v>
@@ -4379,7 +4385,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" t="s">
         <v>121</v>
@@ -4440,7 +4446,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" t="s">
         <v>121</v>
@@ -4510,7 +4516,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" t="s">
         <v>121</v>
@@ -4582,7 +4588,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" t="s">
         <v>121</v>
@@ -4654,7 +4660,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" t="s">
         <v>121</v>
@@ -4712,7 +4718,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" t="s">
         <v>121</v>
@@ -4781,7 +4787,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" t="s">
         <v>139</v>
@@ -4839,7 +4845,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" t="s">
         <v>139</v>
@@ -4911,7 +4917,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" t="s">
         <v>139</v>
@@ -4983,7 +4989,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" t="s">
         <v>139</v>
@@ -5055,7 +5061,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" t="s">
         <v>139</v>
@@ -5116,7 +5122,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" t="s">
         <v>139</v>
@@ -5186,7 +5192,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
         <v>158</v>
@@ -5244,7 +5250,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
         <v>158</v>
@@ -5305,7 +5311,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" t="s">
         <v>139</v>
@@ -5377,7 +5383,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" t="s">
         <v>139</v>
@@ -5449,7 +5455,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" t="s">
         <v>139</v>
@@ -5521,7 +5527,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" t="s">
         <v>139</v>
@@ -5582,7 +5588,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" t="s">
         <v>139</v>
@@ -5652,7 +5658,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" t="s">
         <v>149</v>
@@ -5710,7 +5716,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" t="s">
         <v>149</v>
@@ -5768,7 +5774,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" t="s">
         <v>149</v>
@@ -5838,7 +5844,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" t="s">
         <v>149</v>
@@ -5896,7 +5902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" t="s">
         <v>149</v>
@@ -5957,7 +5963,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" t="s">
         <v>149</v>
@@ -6018,7 +6024,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" t="s">
         <v>149</v>
@@ -6088,7 +6094,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" t="s">
         <v>158</v>
@@ -6146,7 +6152,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" t="s">
         <v>158</v>
@@ -6218,7 +6224,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" t="s">
         <v>158</v>
@@ -6290,7 +6296,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" t="s">
         <v>158</v>
@@ -6348,7 +6354,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" t="s">
         <v>60</v>
@@ -6418,7 +6424,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" t="s">
         <v>165</v>
@@ -6476,7 +6482,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" t="s">
         <v>165</v>
@@ -6537,7 +6543,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" t="s">
         <v>165</v>
@@ -6609,7 +6615,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" t="s">
         <v>165</v>
@@ -6681,7 +6687,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" t="s">
         <v>165</v>
@@ -6739,7 +6745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" t="s">
         <v>165</v>
@@ -6800,7 +6806,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="81" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" t="s">
         <v>165</v>
@@ -6861,7 +6867,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" t="s">
         <v>165</v>
@@ -6933,7 +6939,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" t="s">
         <v>165</v>
@@ -7005,7 +7011,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" t="s">
         <v>181</v>
@@ -7063,7 +7069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" t="s">
         <v>181</v>
@@ -7124,7 +7130,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" t="s">
         <v>181</v>
@@ -7196,7 +7202,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" t="s">
         <v>181</v>
@@ -7254,7 +7260,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" t="s">
         <v>181</v>
@@ -7315,7 +7321,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="89" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" t="s">
         <v>181</v>
@@ -7376,7 +7382,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="90" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" t="s">
         <v>181</v>
@@ -7448,7 +7454,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" t="s">
         <v>190</v>
@@ -7506,7 +7512,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" t="s">
         <v>190</v>
@@ -7576,7 +7582,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" t="s">
         <v>190</v>
@@ -7637,7 +7643,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="94" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" t="s">
         <v>190</v>
@@ -7709,7 +7715,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" t="s">
         <v>190</v>
@@ -7767,7 +7773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" t="s">
         <v>190</v>
@@ -7828,7 +7834,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" t="s">
         <v>190</v>
@@ -7898,7 +7904,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" t="s">
         <v>190</v>
@@ -7959,7 +7965,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" t="s">
         <v>190</v>
@@ -8031,7 +8037,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" t="s">
         <v>60</v>
@@ -8089,7 +8095,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" t="s">
         <v>60</v>
@@ -8144,7 +8150,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="102" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" t="s">
         <v>60</v>
@@ -8205,7 +8211,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="103" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" t="s">
         <v>60</v>
@@ -8277,7 +8283,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="104" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" t="s">
         <v>60</v>
@@ -8349,7 +8355,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" t="s">
         <v>60</v>
@@ -8410,7 +8416,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" t="s">
         <v>60</v>
@@ -8480,7 +8486,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" t="s">
         <v>158</v>
@@ -8538,7 +8544,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" t="s">
         <v>60</v>
@@ -8593,7 +8599,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" t="s">
         <v>158</v>
@@ -8654,7 +8660,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="110" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" t="s">
         <v>158</v>
@@ -8726,7 +8732,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" t="s">
         <v>158</v>
@@ -8798,7 +8804,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" t="s">
         <v>158</v>
@@ -8859,7 +8865,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" t="s">
         <v>158</v>
